--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACS_Workspace\Tx-latest_framework_Acs_latest\Tx-latest_framework_Acs\tx_automate_java_latest\src\test\resources\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33192046-E3A7-46AB-B114-B5440D37782C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="19335" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="ACS" sheetId="8" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
   <si>
     <t>TestData</t>
   </si>
@@ -53,19 +34,22 @@
     <t>Template_Name</t>
   </si>
   <si>
+    <t>Activity_Card_Instructions</t>
+  </si>
+  <si>
+    <t>Mobile_ACS_Report</t>
+  </si>
+  <si>
+    <t>Remote_ACS_Report</t>
+  </si>
+  <si>
+    <t>activityradioBtnText</t>
+  </si>
+  <si>
     <t>Project_Name</t>
   </si>
   <si>
-    <t>Activity_Card_Instructions</t>
-  </si>
-  <si>
-    <t>Mobile_ACS_Report</t>
-  </si>
-  <si>
-    <t>Remote_ACS_Report</t>
-  </si>
-  <si>
-    <t>activityradioBtnText</t>
+    <t>CheckboxText</t>
   </si>
   <si>
     <t>Testdata1</t>
@@ -83,6 +67,9 @@
     <t>pbulnda@gmail.com</t>
   </si>
   <si>
+    <t>General_workout</t>
+  </si>
+  <si>
     <t>ActivityTest1</t>
   </si>
   <si>
@@ -95,29 +82,59 @@
     <t>Never done, Continued since, Started after, Doing less, Given up, Like to start</t>
   </si>
   <si>
-    <t>CheckboxText</t>
+    <t>Tx-Testing</t>
+  </si>
+  <si>
+    <t>Testdata2</t>
+  </si>
+  <si>
+    <t>Tx-Testing2</t>
   </si>
   <si>
     <t>Ask about activities that they do with others</t>
   </si>
   <si>
+    <t>Testdata3</t>
+  </si>
+  <si>
+    <t>Tx-testing3</t>
+  </si>
+  <si>
     <t>Ask demographic questions</t>
   </si>
   <si>
-    <t>Testdata2</t>
-  </si>
-  <si>
-    <t>Tx-Testing2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  General_workout  </t>
+    <t>Testdata4</t>
+  </si>
+  <si>
+    <t>Tx-testing4</t>
+  </si>
+  <si>
+    <t>Display participant list without search</t>
+  </si>
+  <si>
+    <t>Testdata5</t>
+  </si>
+  <si>
+    <t>PROMIS-29</t>
+  </si>
+  <si>
+    <t>Testdata6</t>
+  </si>
+  <si>
+    <t>Ask about activities that they do with others,Ask demographic questions,Display participant list without search,PROMIS-29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,51 +146,160 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF202124"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +312,194 @@
         <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -197,50 +509,339 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -438,46 +1039,48 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.87619047619048" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="41.247619047619" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.1238095238095" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="71.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="50.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.8761904761905" customWidth="1"/>
+    <col min="7" max="7" width="24.6285714285714" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="19.752380952381" customWidth="1"/>
+    <col min="10" max="10" width="64.2476190476191" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="42.8761904761905" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -495,102 +1098,272 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:11">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="3" ht="15" spans="1:12">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="6" t="s">
+    </row>
+    <row r="4" ht="15" spans="1:12">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="5" ht="15" spans="1:12">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>22</v>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:20">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:12">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="D2" r:id="rId3" display="example.uat1@warrior.com" xr:uid="{B4C5FC53-B787-44CC-9353-B00EC9F906A0}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{F6F291F1-AA0F-4761-953F-443F85D21C83}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{543F27D2-AB6A-442F-84B6-5F1C40D82848}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{5DE8A659-6068-48C3-A02F-66A8E0444F38}"/>
-    <hyperlink ref="D3" r:id="rId7" display="example.uat1@warrior.com" xr:uid="{3A06644A-94A3-4A05-AC5E-1FB39287C4F2}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{7DF7111B-B3F1-47A2-9A85-314BC98A4C76}"/>
+    <hyperlink ref="E2" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D2" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C2" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D3" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C3" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E4" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D4" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C4" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D5" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C5" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E6" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D6" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C6" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E7" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D7" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C7" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACS_Workspace\Tx-latest_framework_Acs_latest\Tx-latest_framework_Acs\tx_automate_java_latest\src\test\resources\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33192046-E3A7-46AB-B114-B5440D37782C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="19335" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="ACS" sheetId="8" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t>TestData</t>
   </si>
@@ -53,19 +34,22 @@
     <t>Template_Name</t>
   </si>
   <si>
+    <t>Activity_Card_Instructions</t>
+  </si>
+  <si>
+    <t>Mobile_ACS_Report</t>
+  </si>
+  <si>
+    <t>Remote_ACS_Report</t>
+  </si>
+  <si>
+    <t>activityradioBtnText</t>
+  </si>
+  <si>
     <t>Project_Name</t>
   </si>
   <si>
-    <t>Activity_Card_Instructions</t>
-  </si>
-  <si>
-    <t>Mobile_ACS_Report</t>
-  </si>
-  <si>
-    <t>Remote_ACS_Report</t>
-  </si>
-  <si>
-    <t>activityradioBtnText</t>
+    <t>CheckboxText</t>
   </si>
   <si>
     <t>Testdata1</t>
@@ -83,6 +67,9 @@
     <t>pbulnda@gmail.com</t>
   </si>
   <si>
+    <t>General_workout</t>
+  </si>
+  <si>
     <t>ActivityTest1</t>
   </si>
   <si>
@@ -95,29 +82,56 @@
     <t>Never done, Continued since, Started after, Doing less, Given up, Like to start</t>
   </si>
   <si>
-    <t>CheckboxText</t>
+    <t>Tx-Testing2</t>
+  </si>
+  <si>
+    <t>Testdata2</t>
   </si>
   <si>
     <t>Ask about activities that they do with others</t>
   </si>
   <si>
+    <t>Testdata3</t>
+  </si>
+  <si>
+    <t>Tx-testing3</t>
+  </si>
+  <si>
     <t>Ask demographic questions</t>
   </si>
   <si>
-    <t>Testdata2</t>
-  </si>
-  <si>
-    <t>Tx-Testing2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  General_workout  </t>
+    <t>Testdata4</t>
+  </si>
+  <si>
+    <t>Tx-testing4</t>
+  </si>
+  <si>
+    <t>Display participant list without search</t>
+  </si>
+  <si>
+    <t>Testdata5</t>
+  </si>
+  <si>
+    <t>PROMIS-29</t>
+  </si>
+  <si>
+    <t>Testdata6</t>
+  </si>
+  <si>
+    <t>Ask about activities that they do with others,Ask demographic questions,Display participant list without search,PROMIS-29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,51 +143,160 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF202124"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +309,194 @@
         <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -197,50 +506,339 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -438,46 +1036,48 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.87619047619048" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="41.247619047619" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.1238095238095" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="71.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="50.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.8761904761905" customWidth="1"/>
+    <col min="7" max="7" width="24.6285714285714" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="19.752380952381" customWidth="1"/>
+    <col min="10" max="10" width="64.2476190476191" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="42.8761904761905" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -495,102 +1095,272 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:11">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="3" ht="15" spans="1:12">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:12">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="5" ht="15" spans="1:12">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>22</v>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:20">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:12">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="D2" r:id="rId3" display="example.uat1@warrior.com" xr:uid="{B4C5FC53-B787-44CC-9353-B00EC9F906A0}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{F6F291F1-AA0F-4761-953F-443F85D21C83}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{543F27D2-AB6A-442F-84B6-5F1C40D82848}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{5DE8A659-6068-48C3-A02F-66A8E0444F38}"/>
-    <hyperlink ref="D3" r:id="rId7" display="example.uat1@warrior.com" xr:uid="{3A06644A-94A3-4A05-AC5E-1FB39287C4F2}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{7DF7111B-B3F1-47A2-9A85-314BC98A4C76}"/>
+    <hyperlink ref="E2" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D2" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C2" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D3" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C3" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E4" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D4" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C4" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D5" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C5" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E6" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D6" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C6" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E7" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D7" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C7" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t>TestData</t>
   </si>
@@ -82,13 +82,10 @@
     <t>Never done, Continued since, Started after, Doing less, Given up, Like to start</t>
   </si>
   <si>
-    <t>Tx-Testing</t>
+    <t>Tx-Testing2</t>
   </si>
   <si>
     <t>Testdata2</t>
-  </si>
-  <si>
-    <t>Tx-Testing2</t>
   </si>
   <si>
     <t>Ask about activities that they do with others</t>
@@ -129,9 +126,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -164,7 +161,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -172,54 +169,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,32 +244,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,36 +290,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,43 +311,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,139 +467,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,17 +531,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,15 +573,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -588,6 +588,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -595,15 +610,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,160 +628,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1045,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87619047619048" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="6"/>
@@ -1172,15 +1169,15 @@
         <v>21</v>
       </c>
       <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:12">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -1210,15 +1207,15 @@
         <v>21</v>
       </c>
       <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
         <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:12">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -1248,15 +1245,15 @@
         <v>21</v>
       </c>
       <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:20">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -1286,10 +1283,10 @@
         <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="3"/>
       <c r="P6" s="4"/>
@@ -1299,7 +1296,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:12">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -1329,10 +1326,10 @@
         <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="ACS" sheetId="8" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="50">
   <si>
     <t>TestData</t>
   </si>
@@ -118,7 +118,52 @@
     <t>Testdata6</t>
   </si>
   <si>
+    <t>Automation_template</t>
+  </si>
+  <si>
     <t>Ask about activities that they do with others,Ask demographic questions,Display participant list without search,PROMIS-29</t>
+  </si>
+  <si>
+    <t>Testdata7</t>
+  </si>
+  <si>
+    <t>ActivityTest2</t>
+  </si>
+  <si>
+    <t>MobileTest2</t>
+  </si>
+  <si>
+    <t>RemoteTest2</t>
+  </si>
+  <si>
+    <t>Did not do, Will continue, May do less, May give up, Like to start</t>
+  </si>
+  <si>
+    <t>Testdata8</t>
+  </si>
+  <si>
+    <t>Automation_template4</t>
+  </si>
+  <si>
+    <t>Testdata9</t>
+  </si>
+  <si>
+    <t>bhatnagarupma35@gmail.com</t>
+  </si>
+  <si>
+    <t>Upma@007</t>
+  </si>
+  <si>
+    <t>Automation_template2</t>
+  </si>
+  <si>
+    <t>Automation-testing16</t>
+  </si>
+  <si>
+    <t>Testdata10</t>
+  </si>
+  <si>
+    <t>Testdata11</t>
   </si>
 </sst>
 </file>
@@ -126,12 +171,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +194,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -160,6 +213,80 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -168,129 +295,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,13 +370,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,169 +502,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,33 +590,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -569,6 +601,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,6 +629,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -599,17 +658,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,161 +676,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,29 +1106,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87619047619048" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="41.247619047619" customWidth="1"/>
+    <col min="1" max="1" width="13.5727272727273" customWidth="1"/>
+    <col min="2" max="2" width="49.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="11.1238095238095" customWidth="1"/>
+    <col min="4" max="4" width="11.1272727272727" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="16.8761904761905" customWidth="1"/>
-    <col min="7" max="7" width="24.6285714285714" customWidth="1"/>
+    <col min="6" max="6" width="16.8727272727273" customWidth="1"/>
+    <col min="7" max="7" width="24.6272727272727" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="19.752380952381" customWidth="1"/>
-    <col min="10" max="10" width="64.2476190476191" customWidth="1"/>
+    <col min="9" max="9" width="19.7545454545455" customWidth="1"/>
+    <col min="10" max="10" width="64.2454545454545" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="42.8761904761905" customWidth="1"/>
+    <col min="12" max="12" width="42.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:12">
+    <row r="1" ht="14.5" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:11">
+    <row r="2" ht="14.5" spans="1:11">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1137,7 +1201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:12">
+    <row r="3" ht="14.5" spans="1:12">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1171,11 +1235,11 @@
       <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:12">
+    <row r="4" ht="14.5" spans="1:12">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1213,7 +1277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:12">
+    <row r="5" ht="14.5" spans="1:12">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1247,7 +1311,7 @@
       <c r="K5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1285,14 +1349,14 @@
       <c r="K6" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="3"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="T6" s="5"/>
+      <c r="T6" s="9"/>
     </row>
     <row r="7" customHeight="1" spans="1:12">
       <c r="A7" t="s">
@@ -1311,7 +1375,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -1329,7 +1393,191 @@
         <v>29</v>
       </c>
       <c r="L7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:11">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:12">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:11">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:12">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:12">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1358,6 +1606,24 @@
     <hyperlink ref="B7" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D7" r:id="rId3" display="Sah@6057"/>
     <hyperlink ref="C7" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E8" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D8" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C8" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E9" r:id="rId1" display="pbulnda@gmail.com" tooltip="mailto:pbulnda@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D9" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C9" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D10" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="C10" r:id="rId6" display="bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="E11" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="E12" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B11" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B12" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D11" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="D12" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C11" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="C12" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>

--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="64">
   <si>
     <t>TestData</t>
   </si>
@@ -164,6 +164,48 @@
   </si>
   <si>
     <t>Testdata11</t>
+  </si>
+  <si>
+    <t>Testdata15</t>
+  </si>
+  <si>
+    <t>Testdata16</t>
+  </si>
+  <si>
+    <t>Testdata21</t>
+  </si>
+  <si>
+    <t>Never done, Doing now, Doing less, Given up, Like to start</t>
+  </si>
+  <si>
+    <t>Testdata22</t>
+  </si>
+  <si>
+    <t>Testdata27</t>
+  </si>
+  <si>
+    <t>Automation-testing22</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Testdata28</t>
+  </si>
+  <si>
+    <t>Automation-testing21</t>
+  </si>
+  <si>
+    <t>Testdata17</t>
+  </si>
+  <si>
+    <t>Tx-testing13</t>
+  </si>
+  <si>
+    <t>Testdata25</t>
+  </si>
+  <si>
+    <t>Tx-testing32</t>
   </si>
 </sst>
 </file>
@@ -171,12 +213,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +244,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -219,8 +269,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF454A4A"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,9 +312,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,9 +351,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,18 +380,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,46 +396,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,21 +410,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -370,187 +426,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,35 +661,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,17 +696,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,159 +722,172 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -842,11 +898,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="13.5" customHeight="1"/>
@@ -1119,12 +1175,12 @@
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="11.1272727272727" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="16.8727272727273" customWidth="1"/>
+    <col min="6" max="6" width="33.1818181818182" customWidth="1"/>
     <col min="7" max="7" width="24.6272727272727" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="19.7545454545455" customWidth="1"/>
     <col min="10" max="10" width="64.2454545454545" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="11" max="11" width="28.1818181818182" customWidth="1"/>
     <col min="12" max="12" width="42.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1235,7 +1291,7 @@
       <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1311,7 +1367,7 @@
       <c r="K5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1349,14 +1405,14 @@
       <c r="K6" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="3"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="T6" s="9"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" customHeight="1" spans="1:12">
       <c r="A7" t="s">
@@ -1424,7 +1480,7 @@
       <c r="I8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K8" t="s">
@@ -1459,13 +1515,13 @@
       <c r="I9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K9" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1476,10 +1532,10 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E10" t="s">
@@ -1497,7 +1553,7 @@
       <c r="I10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K10" t="s">
@@ -1508,16 +1564,16 @@
       <c r="A11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
@@ -1532,13 +1588,13 @@
       <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K11" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1546,16 +1602,16 @@
       <c r="A12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
@@ -1570,7 +1626,7 @@
       <c r="I12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K12" t="s">
@@ -1578,6 +1634,301 @@
       </c>
       <c r="L12" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:12">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:12">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:12">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:12">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:12">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:12">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:11">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:11">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1624,6 +1975,34 @@
     <hyperlink ref="D12" r:id="rId3" display="Sah@6057"/>
     <hyperlink ref="C11" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="C12" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B17" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B18" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D17" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="C17" r:id="rId6" display="bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="D18" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="C18" r:id="rId6" display="bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="E13" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="E14" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B13" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B14" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D13" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="D14" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C13" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="C14" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E15" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="E16" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B15" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B16" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D15" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="D16" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C15" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="C16" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E19" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B19" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D19" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C19" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B20" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="E20" r:id="rId1" display="pbulnda@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>

--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="71">
   <si>
     <t>TestData</t>
   </si>
@@ -52,6 +52,18 @@
     <t>CheckboxText</t>
   </si>
   <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>Existing_Professional_Name</t>
+  </si>
+  <si>
     <t>Testdata1</t>
   </si>
   <si>
@@ -118,9 +130,6 @@
     <t>Testdata6</t>
   </si>
   <si>
-    <t>Automation_template</t>
-  </si>
-  <si>
     <t>Ask about activities that they do with others,Ask demographic questions,Display participant list without search,PROMIS-29</t>
   </si>
   <si>
@@ -142,9 +151,6 @@
     <t>Testdata8</t>
   </si>
   <si>
-    <t>Automation_template4</t>
-  </si>
-  <si>
     <t>Testdata9</t>
   </si>
   <si>
@@ -154,10 +160,7 @@
     <t>Upma@007</t>
   </si>
   <si>
-    <t>Automation_template2</t>
-  </si>
-  <si>
-    <t>Automation-testing16</t>
+    <t>Automation-testing18</t>
   </si>
   <si>
     <t>Testdata10</t>
@@ -172,40 +175,58 @@
     <t>Testdata16</t>
   </si>
   <si>
+    <t>Testdata17</t>
+  </si>
+  <si>
+    <t>Never done, Doing now, Doing less, Given up, Like to start</t>
+  </si>
+  <si>
+    <t>Testdata18</t>
+  </si>
+  <si>
+    <t>Testdata19</t>
+  </si>
+  <si>
+    <t>Testdata20</t>
+  </si>
+  <si>
     <t>Testdata21</t>
   </si>
   <si>
-    <t>Never done, Doing now, Doing less, Given up, Like to start</t>
-  </si>
-  <si>
     <t>Testdata22</t>
   </si>
   <si>
     <t>Testdata27</t>
   </si>
   <si>
-    <t>Automation-testing22</t>
+    <t>Automation-Testing22</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Rahul Roy</t>
+  </si>
+  <si>
     <t>Testdata28</t>
   </si>
   <si>
-    <t>Automation-testing21</t>
-  </si>
-  <si>
-    <t>Testdata17</t>
-  </si>
-  <si>
-    <t>Tx-testing13</t>
+    <t>Testdata26</t>
+  </si>
+  <si>
+    <t>Tx-testing32</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Test_01</t>
+  </si>
+  <si>
+    <t>Test@gmail.com</t>
   </si>
   <si>
     <t>Testdata25</t>
-  </si>
-  <si>
-    <t>Tx-testing32</t>
   </si>
 </sst>
 </file>
@@ -214,11 +235,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,12 +270,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <color rgb="FF454A4A"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -266,12 +285,6 @@
       <sz val="9"/>
       <color rgb="FF202124"/>
       <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF454A4A"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -282,8 +295,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,37 +357,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,24 +380,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,30 +396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -403,7 +403,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -432,19 +445,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,157 +571,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,17 +659,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,24 +694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -720,11 +709,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,22 +747,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,131 +780,131 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -899,10 +912,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,10 +1174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:K20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="13.5" customHeight="1"/>
@@ -1181,10 +1193,12 @@
     <col min="9" max="9" width="19.7545454545455" customWidth="1"/>
     <col min="10" max="10" width="64.2454545454545" customWidth="1"/>
     <col min="11" max="11" width="28.1818181818182" customWidth="1"/>
-    <col min="12" max="12" width="42.8727272727273" customWidth="1"/>
+    <col min="12" max="12" width="102.181818181818" customWidth="1"/>
+    <col min="15" max="15" width="19.9090909090909" customWidth="1"/>
+    <col min="16" max="16" width="26.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:12">
+    <row r="1" ht="14.5" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,192 +1235,204 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" ht="14.5" spans="1:11">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="14.5" spans="1:12">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="14.5" spans="1:12">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="1:12">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:20">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M6" s="3"/>
       <c r="P6" s="4"/>
@@ -1416,519 +1442,704 @@
     </row>
     <row r="7" customHeight="1" spans="1:12">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:12">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="I9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="J9" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:12">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:12">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:12">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:11">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G14" t="s">
+      <c r="C15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="E15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:12">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>53</v>
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:12">
       <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="K16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:12">
       <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:12">
       <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:12">
+      <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:12">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:16">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="D21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
         <v>40</v>
       </c>
-      <c r="K18" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:11">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="H21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:16">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="C22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="J19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:11">
-      <c r="A20" t="s">
+      <c r="L22" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="M22" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:15">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K20" t="s">
-        <v>63</v>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:11">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1975,12 +2186,12 @@
     <hyperlink ref="D12" r:id="rId3" display="Sah@6057"/>
     <hyperlink ref="C11" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="C12" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B17" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="B18" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D17" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
-    <hyperlink ref="C17" r:id="rId6" display="bhatnagarupma35@gmail.com"/>
-    <hyperlink ref="D18" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
-    <hyperlink ref="C18" r:id="rId6" display="bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="B21" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B22" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D21" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="C21" r:id="rId6" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="D22" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="C22" r:id="rId6" display="bhatnagarupma35@gmail.com"/>
     <hyperlink ref="E13" r:id="rId1" display="pbulnda@gmail.com"/>
     <hyperlink ref="E14" r:id="rId1" display="pbulnda@gmail.com"/>
     <hyperlink ref="B13" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
@@ -1989,20 +2200,35 @@
     <hyperlink ref="D14" r:id="rId3" display="Sah@6057"/>
     <hyperlink ref="C13" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="C14" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E19" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="E20" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B19" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B20" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D19" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="D20" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C19" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="C20" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="E15" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B15" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D15" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C15" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B24" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="E24" r:id="rId1" display="pbulnda@gmail.com"/>
     <hyperlink ref="E16" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B15" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="B16" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D15" r:id="rId3" display="Sah@6057"/>
     <hyperlink ref="D16" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C15" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="C16" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="E19" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B19" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D19" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C19" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B20" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="E20" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="E17" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B17" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D17" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C17" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E18" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B18" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D18" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C18" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E23" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B23" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="O23" r:id="rId7" display="Test@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>

--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="72">
   <si>
     <t>TestData</t>
   </si>
@@ -160,7 +160,7 @@
     <t>Upma@007</t>
   </si>
   <si>
-    <t>Automation-testing18</t>
+    <t>Automation-testing19</t>
   </si>
   <si>
     <t>Testdata10</t>
@@ -205,10 +205,13 @@
     <t>NA</t>
   </si>
   <si>
+    <t>Ram Roy</t>
+  </si>
+  <si>
+    <t>Testdata28</t>
+  </si>
+  <si>
     <t>Rahul Roy</t>
-  </si>
-  <si>
-    <t>Testdata28</t>
   </si>
   <si>
     <t>Testdata26</t>
@@ -234,10 +237,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -288,8 +291,84 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,6 +383,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -311,7 +398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,91 +414,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,31 +442,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,145 +592,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +666,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,6 +712,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,45 +751,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -759,7 +762,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,136 +777,133 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,8 +1179,8 @@
   <sheetPr/>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="13.5" customHeight="1"/>
@@ -2060,12 +2063,12 @@
         <v>62</v>
       </c>
       <c r="P22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:15">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>17</v>
@@ -2095,24 +2098,24 @@
         <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L23" t="s">
         <v>31</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:11">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>17</v>
@@ -2139,7 +2142,7 @@
         <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="76">
   <si>
     <t>TestData</t>
   </si>
@@ -64,6 +64,12 @@
     <t>Existing_Professional_Name</t>
   </si>
   <si>
+    <t>professional_username</t>
+  </si>
+  <si>
+    <t>professional_password</t>
+  </si>
+  <si>
     <t>Testdata1</t>
   </si>
   <si>
@@ -160,7 +166,7 @@
     <t>Upma@007</t>
   </si>
   <si>
-    <t>Automation-testing19</t>
+    <t>Automation-testing439</t>
   </si>
   <si>
     <t>Testdata10</t>
@@ -199,16 +205,22 @@
     <t>Testdata27</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>dhanya123 V</t>
+  </si>
+  <si>
+    <t>dhanya.varier@testingxperts.com</t>
+  </si>
+  <si>
+    <t>BrightOutcome@123</t>
+  </si>
+  <si>
+    <t>Testdata28</t>
+  </si>
+  <si>
     <t>Automation-Testing22</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Ram Roy</t>
-  </si>
-  <si>
-    <t>Testdata28</t>
   </si>
   <si>
     <t>Rahul Roy</t>
@@ -237,8 +249,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -291,6 +303,87 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -300,77 +393,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,7 +409,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,13 +431,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -411,21 +438,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -442,187 +454,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,8 +677,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,6 +713,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -701,37 +737,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,16 +763,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,139 +783,139 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,8 +1191,8 @@
   <sheetPr/>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="13.5" customHeight="1"/>
@@ -1199,9 +1211,11 @@
     <col min="12" max="12" width="102.181818181818" customWidth="1"/>
     <col min="15" max="15" width="19.9090909090909" customWidth="1"/>
     <col min="16" max="16" width="26.6363636363636" customWidth="1"/>
+    <col min="17" max="17" width="30.5454545454545" customWidth="1"/>
+    <col min="18" max="18" width="25.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:16">
+    <row r="1" ht="14.5" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1250,192 +1264,198 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" ht="14.5" spans="1:11">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="14.5" spans="1:12">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="14.5" spans="1:12">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="1:12">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:20">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
       <c r="L6" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M6" s="3"/>
       <c r="P6" s="4"/>
@@ -1445,704 +1465,713 @@
     </row>
     <row r="7" customHeight="1" spans="1:12">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:12">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="J9" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:12">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
         <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:12">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:12">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:11">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:12">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:12">
       <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" t="s">
-        <v>54</v>
-      </c>
       <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
         <v>33</v>
-      </c>
-      <c r="L17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:12">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:12">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:12">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:18">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="F21" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:16">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:17">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="H22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K21" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" t="s">
-        <v>62</v>
-      </c>
-      <c r="N21" t="s">
-        <v>62</v>
-      </c>
-      <c r="O21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" s="9" t="s">
+      <c r="I22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:16">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" t="s">
-        <v>62</v>
-      </c>
       <c r="M22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:15">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:11">
       <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" t="s">
         <v>71</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2232,6 +2261,8 @@
     <hyperlink ref="E23" r:id="rId1" display="pbulnda@gmail.com"/>
     <hyperlink ref="B23" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="O23" r:id="rId7" display="Test@gmail.com"/>
+    <hyperlink ref="Q21" r:id="rId8" display="dhanya.varier@testingxperts.com" tooltip="mailto:dhanya.varier@testingxperts.com"/>
+    <hyperlink ref="R21" r:id="rId9" display="BrightOutcome@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>

--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ACS" sheetId="8" r:id="rId1"/>
+    <sheet name="Admin_Account" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="105">
   <si>
     <t>TestData</t>
   </si>
@@ -242,6 +243,93 @@
   </si>
   <si>
     <t>Testdata25</t>
+  </si>
+  <si>
+    <t>Customer_Admin_username</t>
+  </si>
+  <si>
+    <t>Customer_Admin_password</t>
+  </si>
+  <si>
+    <t>Professional_username</t>
+  </si>
+  <si>
+    <t>Project_Admin_username</t>
+  </si>
+  <si>
+    <t>Project_Admin_password</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Execution Environment(UAT,STAGING etc.)</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>amandeep.kamboj@testingxperts.com</t>
+  </si>
+  <si>
+    <t>Kdeep@98</t>
+  </si>
+  <si>
+    <t>Automation-testing18</t>
+  </si>
+  <si>
+    <t>ritika.swaraj@testingxperts.com</t>
+  </si>
+  <si>
+    <t>Ritika@53</t>
+  </si>
+  <si>
+    <t>monika.thakur@testingxperts.com</t>
+  </si>
+  <si>
+    <t>Mon@3486</t>
+  </si>
+  <si>
+    <t>Testing13</t>
+  </si>
+  <si>
+    <t>Dhanya Varier</t>
+  </si>
+  <si>
+    <t>New_project234</t>
+  </si>
+  <si>
+    <t>dhanya@yopmail.com</t>
+  </si>
+  <si>
+    <t>Dhanya123@</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>WINDOWS_10</t>
+  </si>
+  <si>
+    <t>Tx-testing4016</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>aditi.agent007@yopmail.com</t>
+  </si>
+  <si>
+    <t>testing@yopmail.com</t>
+  </si>
+  <si>
+    <t>davalesh.sadu@testingxperts.com</t>
+  </si>
+  <si>
+    <t>Daval@007</t>
   </si>
 </sst>
 </file>
@@ -249,12 +337,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,7 +359,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -279,13 +367,25 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF454A4A"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF454A4A"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -304,14 +404,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,7 +433,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,15 +455,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,18 +494,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,13 +519,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -454,13 +554,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,169 +728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,26 +774,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,17 +813,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,173 +865,177 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,7 +1297,7 @@
   <sheetPr/>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
@@ -1275,16 +1381,16 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
@@ -1293,13 +1399,13 @@
       <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K2" t="s">
@@ -1310,16 +1416,16 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
@@ -1328,19 +1434,19 @@
       <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1348,16 +1454,16 @@
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
@@ -1366,13 +1472,13 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K4" t="s">
@@ -1386,16 +1492,16 @@
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
@@ -1404,19 +1510,19 @@
       <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1424,16 +1530,16 @@
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
@@ -1442,41 +1548,41 @@
       <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="T6" s="8"/>
+      <c r="M6" s="6"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:12">
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
@@ -1485,13 +1591,13 @@
       <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K7" t="s">
@@ -1505,16 +1611,16 @@
       <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
@@ -1523,13 +1629,13 @@
       <c r="G8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="12" t="s">
         <v>45</v>
       </c>
       <c r="K8" t="s">
@@ -1540,16 +1646,16 @@
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
@@ -1558,19 +1664,19 @@
       <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="12" t="s">
         <v>45</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1581,10 +1687,10 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E10" t="s">
@@ -1596,13 +1702,13 @@
       <c r="G10" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="12" t="s">
         <v>45</v>
       </c>
       <c r="K10" t="s">
@@ -1613,16 +1719,16 @@
       <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
@@ -1631,13 +1737,13 @@
       <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="12" t="s">
         <v>45</v>
       </c>
       <c r="K11" t="s">
@@ -1651,16 +1757,16 @@
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
@@ -1669,19 +1775,19 @@
       <c r="G12" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="12" t="s">
         <v>45</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1689,16 +1795,16 @@
       <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
@@ -1707,19 +1813,19 @@
       <c r="G13" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="12" t="s">
         <v>45</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1727,16 +1833,16 @@
       <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
@@ -1745,13 +1851,13 @@
       <c r="G14" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="12" t="s">
         <v>45</v>
       </c>
       <c r="K14" t="s">
@@ -1765,16 +1871,16 @@
       <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
@@ -1800,16 +1906,16 @@
       <c r="A16" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
@@ -1830,7 +1936,7 @@
       <c r="K16" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1838,16 +1944,16 @@
       <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
@@ -1876,16 +1982,16 @@
       <c r="A18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
@@ -1906,7 +2012,7 @@
       <c r="K18" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1914,16 +2020,16 @@
       <c r="A19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
@@ -1932,10 +2038,10 @@
       <c r="G19" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J19" t="s">
@@ -1944,7 +2050,7 @@
       <c r="K19" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1952,16 +2058,16 @@
       <c r="A20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
@@ -1970,10 +2076,10 @@
       <c r="G20" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J20" t="s">
@@ -1990,13 +2096,13 @@
       <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E21" t="s">
@@ -2008,13 +2114,13 @@
       <c r="G21" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="12" t="s">
         <v>45</v>
       </c>
       <c r="K21" t="s">
@@ -2032,13 +2138,13 @@
       <c r="O21" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2046,13 +2152,13 @@
       <c r="A22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E22" t="s">
@@ -2064,13 +2170,13 @@
       <c r="G22" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="12" t="s">
         <v>45</v>
       </c>
       <c r="K22" t="s">
@@ -2099,7 +2205,7 @@
       <c r="A23" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
@@ -2108,7 +2214,7 @@
       <c r="D23" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
@@ -2123,7 +2229,7 @@
       <c r="I23" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K23" t="s">
@@ -2132,13 +2238,13 @@
       <c r="L23" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2146,7 +2252,7 @@
       <c r="A24" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C24" t="s">
@@ -2155,7 +2261,7 @@
       <c r="D24" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F24" t="s">
@@ -2268,4 +2374,389 @@
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="53.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="41.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="19.8181818181818" customWidth="1"/>
+    <col min="5" max="6" width="24.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="30.8181818181818" customWidth="1"/>
+    <col min="8" max="8" width="14.2727272727273" customWidth="1"/>
+    <col min="9" max="9" width="35.4545454545455" customWidth="1"/>
+    <col min="10" max="10" width="41.4545454545455" customWidth="1"/>
+    <col min="11" max="11" width="27.8181818181818" customWidth="1"/>
+    <col min="14" max="14" width="16.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D2" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C2" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="G2" r:id="rId4" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="H2" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="I2" r:id="rId4" display="bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="G3" r:id="rId4" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="H3" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="K4" r:id="rId6" display="BrightOutcome@123" tooltip="mailto:BrightOutcome@123"/>
+    <hyperlink ref="I4" r:id="rId7" display="dhanya.varier@testingxperts.com" tooltip="mailto:dhanya.varier@testingxperts.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D4" r:id="rId8" display="Mon@3486" tooltip="mailto:Mon@3486"/>
+    <hyperlink ref="C4" r:id="rId9" display="monika.thakur@testingxperts.com" tooltip="mailto:monika.thakur@testingxperts.com"/>
+    <hyperlink ref="G4" r:id="rId4" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="H4" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="J4" r:id="rId7" display="dhanya.varier@testingxperts.com" tooltip="mailto:dhanya.varier@testingxperts.com"/>
+    <hyperlink ref="C3" r:id="rId10" display="amandeep.kamboj@testingxperts.com"/>
+    <hyperlink ref="D3" r:id="rId11" display="Kdeep@98"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D5" r:id="rId6" display="BrightOutcome@123" tooltip="mailto:BrightOutcome@123"/>
+    <hyperlink ref="C5" r:id="rId7" display="dhanya.varier@testingxperts.com" tooltip="mailto:dhanya.varier@testingxperts.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D8" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C8" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="G8" r:id="rId4" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="H8" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="B9" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D9" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C9" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="G9" r:id="rId4" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="H9" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="I9" r:id="rId12" display="testing@yopmail.com"/>
+    <hyperlink ref="J9" r:id="rId13" display="davalesh.sadu@testingxperts.com"/>
+    <hyperlink ref="K9" r:id="rId14" display="Daval@007"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D6" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C6" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B7" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D7" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C7" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -296,7 +296,7 @@
     <t>Dhanya Varier</t>
   </si>
   <si>
-    <t>New_project234</t>
+    <t>new_project234</t>
   </si>
   <si>
     <t>dhanya@yopmail.com</t>
@@ -337,10 +337,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -404,7 +404,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,7 +418,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,10 +432,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,16 +456,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,7 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,15 +504,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,14 +526,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,187 +554,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,17 +774,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,6 +803,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,15 +848,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -874,148 +874,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2381,8 +2381,8 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:K7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>

--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo\demo\Bright_Outcome\src\test\resources\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661216DA-2D9F-4890-9CC7-B912BE47880B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACS" sheetId="8" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="108">
   <si>
     <t>TestData</t>
   </si>
@@ -330,19 +336,22 @@
   </si>
   <si>
     <t>Daval@007</t>
+  </si>
+  <si>
+    <t>davlesh@yopmail.com</t>
+  </si>
+  <si>
+    <t>reddy@yopmail.com</t>
+  </si>
+  <si>
+    <t>Testdata12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,143 +412,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,194 +433,8 @@
         <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -773,325 +468,41 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1289,39 +700,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.5727272727273" customWidth="1"/>
-    <col min="2" max="2" width="49.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="49.453125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="11.1272727272727" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="33.1818181818182" customWidth="1"/>
-    <col min="7" max="7" width="24.6272727272727" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" customWidth="1"/>
+    <col min="7" max="7" width="24.6328125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="19.7545454545455" customWidth="1"/>
-    <col min="10" max="10" width="64.2454545454545" customWidth="1"/>
-    <col min="11" max="11" width="28.1818181818182" customWidth="1"/>
-    <col min="12" max="12" width="102.181818181818" customWidth="1"/>
-    <col min="15" max="15" width="19.9090909090909" customWidth="1"/>
-    <col min="16" max="16" width="26.6363636363636" customWidth="1"/>
-    <col min="17" max="17" width="30.5454545454545" customWidth="1"/>
-    <col min="18" max="18" width="25.8181818181818" customWidth="1"/>
+    <col min="9" max="9" width="19.7265625" customWidth="1"/>
+    <col min="10" max="10" width="64.26953125" customWidth="1"/>
+    <col min="11" max="11" width="28.1796875" customWidth="1"/>
+    <col min="12" max="12" width="102.1796875" customWidth="1"/>
+    <col min="15" max="15" width="19.90625" customWidth="1"/>
+    <col min="16" max="16" width="26.6328125" customWidth="1"/>
+    <col min="17" max="17" width="30.54296875" customWidth="1"/>
+    <col min="18" max="18" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:18">
+    <row r="1" spans="1:20" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1358,13 +769,13 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -1377,20 +788,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="14.5" spans="1:11">
+    <row r="2" spans="1:20" ht="14.5">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
@@ -1399,33 +810,33 @@
       <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="14.5" spans="1:12">
+    <row r="3" spans="1:20" ht="14.5">
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
@@ -1434,36 +845,36 @@
       <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="14.5" spans="1:12">
+    <row r="4" spans="1:20" ht="14.5">
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
@@ -1472,13 +883,13 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" t="s">
         <v>27</v>
       </c>
       <c r="K4" t="s">
@@ -1488,20 +899,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" ht="14.5" spans="1:12">
+    <row r="5" spans="1:20" ht="14.5">
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
@@ -1510,36 +921,36 @@
       <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" t="s">
         <v>27</v>
       </c>
       <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:20">
+    <row r="6" spans="1:20" ht="13.5" customHeight="1">
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
@@ -1548,41 +959,38 @@
       <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" t="s">
         <v>27</v>
       </c>
       <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="T6" s="11"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:12">
+      <c r="M6" s="4"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" ht="13.5" customHeight="1">
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
@@ -1591,13 +999,13 @@
       <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" t="s">
         <v>27</v>
       </c>
       <c r="K7" t="s">
@@ -1607,20 +1015,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:11">
+    <row r="8" spans="1:20" ht="13.5" customHeight="1">
       <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
@@ -1629,30 +1037,30 @@
       <c r="G8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>45</v>
       </c>
       <c r="K8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:12">
+    <row r="9" spans="1:20" ht="13.5" customHeight="1">
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1664,23 +1072,23 @@
       <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="9" t="s">
         <v>45</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:11">
+    <row r="10" spans="1:20" ht="13.5" customHeight="1">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1702,20 +1110,20 @@
       <c r="G10" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="9" t="s">
         <v>45</v>
       </c>
       <c r="K10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:12">
+    <row r="11" spans="1:20" ht="13.5" customHeight="1">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1737,13 +1145,13 @@
       <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="9" t="s">
         <v>45</v>
       </c>
       <c r="K11" t="s">
@@ -1753,7 +1161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:12">
+    <row r="12" spans="1:20" ht="13.5" customHeight="1">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1775,23 +1183,23 @@
       <c r="G12" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="9" t="s">
         <v>45</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:12">
+    <row r="13" spans="1:20" ht="13.5" customHeight="1">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1813,23 +1221,23 @@
       <c r="G13" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="9" t="s">
         <v>45</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:12">
+    <row r="14" spans="1:20" ht="13.5" customHeight="1">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1851,13 +1259,13 @@
       <c r="G14" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="9" t="s">
         <v>45</v>
       </c>
       <c r="K14" t="s">
@@ -1867,7 +1275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:11">
+    <row r="15" spans="1:20" ht="13.5" customHeight="1">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1902,7 +1310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:12">
+    <row r="16" spans="1:20" ht="13.5" customHeight="1">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -1936,11 +1344,11 @@
       <c r="K16" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:12">
+    <row r="17" spans="1:18" ht="13.5" customHeight="1">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1978,7 +1386,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:12">
+    <row r="18" spans="1:18" ht="13.5" customHeight="1">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -2012,11 +1420,11 @@
       <c r="K18" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:12">
+    <row r="19" spans="1:18" ht="13.5" customHeight="1">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -2038,10 +1446,10 @@
       <c r="G19" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" t="s">
         <v>26</v>
       </c>
       <c r="J19" t="s">
@@ -2050,11 +1458,11 @@
       <c r="K19" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:12">
+    <row r="20" spans="1:18" ht="13.5" customHeight="1">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2076,10 +1484,10 @@
       <c r="G20" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" t="s">
         <v>26</v>
       </c>
       <c r="J20" t="s">
@@ -2092,7 +1500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:18">
+    <row r="21" spans="1:18" ht="13.5" customHeight="1">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -2114,13 +1522,13 @@
       <c r="G21" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="9" t="s">
         <v>45</v>
       </c>
       <c r="K21" t="s">
@@ -2138,17 +1546,17 @@
       <c r="O21" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="9" t="s">
         <v>64</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:17">
+    <row r="22" spans="1:18" ht="13.5" customHeight="1">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -2170,13 +1578,13 @@
       <c r="G22" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="9" t="s">
         <v>45</v>
       </c>
       <c r="K22" t="s">
@@ -2201,7 +1609,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:15">
+    <row r="23" spans="1:18" ht="13.5" customHeight="1">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -2229,7 +1637,7 @@
       <c r="I23" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" t="s">
         <v>27</v>
       </c>
       <c r="K23" t="s">
@@ -2238,17 +1646,17 @@
       <c r="L23" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" t="s">
         <v>72</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" t="s">
         <v>73</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:11">
+    <row r="24" spans="1:18" ht="13.5" customHeight="1">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2282,122 +1690,120 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D2" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C2" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="E3" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D3" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C3" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="E4" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D4" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C4" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="E5" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D5" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C5" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="E6" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D6" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C6" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="E7" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D7" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C7" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="E8" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B8" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D8" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C8" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="E9" r:id="rId1" display="pbulnda@gmail.com" tooltip="mailto:pbulnda@gmail.com"/>
-    <hyperlink ref="B9" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D9" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C9" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="D10" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
-    <hyperlink ref="C10" r:id="rId6" display="bhatnagarupma35@gmail.com"/>
-    <hyperlink ref="E11" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="E12" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B11" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="B12" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D11" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="D12" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C11" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="C12" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B21" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="B22" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D21" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
-    <hyperlink ref="C21" r:id="rId6" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
-    <hyperlink ref="D22" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
-    <hyperlink ref="C22" r:id="rId6" display="bhatnagarupma35@gmail.com"/>
-    <hyperlink ref="E13" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="E14" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B13" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="B14" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D13" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="D14" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C13" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="C14" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="E19" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="E20" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B19" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="B20" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D19" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="D20" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C19" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="C20" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="E15" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B15" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D15" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C15" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B24" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="E24" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="E16" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B16" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D16" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C16" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="E17" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B17" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D17" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C17" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="E18" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B18" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D18" r:id="rId3" display="Sah@6057"/>
-    <hyperlink ref="C18" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="E23" r:id="rId1" display="pbulnda@gmail.com"/>
-    <hyperlink ref="B23" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="O23" r:id="rId7" display="Test@gmail.com"/>
-    <hyperlink ref="Q21" r:id="rId8" display="dhanya.varier@testingxperts.com" tooltip="mailto:dhanya.varier@testingxperts.com"/>
-    <hyperlink ref="R21" r:id="rId9" display="BrightOutcome@123"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E5" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C6" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C7" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E8" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B8" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C8" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E9" r:id="rId29" tooltip="mailto:pbulnda@gmail.com" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B9" r:id="rId30" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D9" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D10" r:id="rId33" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C10" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E11" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E12" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B11" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B12" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D11" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D12" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C11" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C12" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B21" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B22" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D21" r:id="rId45" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C21" r:id="rId46" tooltip="mailto:bhatnagarupma35@gmail.com" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D22" r:id="rId47" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C22" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E13" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E14" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B13" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B14" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D13" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D14" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C13" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C14" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E19" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E20" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B19" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B20" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D19" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D20" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C19" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C20" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E15" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B15" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D15" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C15" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B24" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E24" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E16" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B16" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D16" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C16" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E17" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B17" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D17" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C17" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E18" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B18" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D18" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C18" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E23" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B23" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="O23" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="Q21" r:id="rId86" tooltip="mailto:dhanya.varier@testingxperts.com" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="R21" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="53.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="41.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="19.8181818181818" customWidth="1"/>
-    <col min="5" max="6" width="24.5454545454545" customWidth="1"/>
-    <col min="7" max="7" width="30.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="14.2727272727273" customWidth="1"/>
-    <col min="9" max="9" width="35.4545454545455" customWidth="1"/>
-    <col min="10" max="10" width="41.4545454545455" customWidth="1"/>
-    <col min="11" max="11" width="27.8181818181818" customWidth="1"/>
-    <col min="14" max="14" width="16.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="53.453125" customWidth="1"/>
+    <col min="3" max="3" width="41.08984375" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+    <col min="5" max="6" width="24.54296875" customWidth="1"/>
+    <col min="7" max="7" width="30.81640625" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="35.453125" customWidth="1"/>
+    <col min="10" max="10" width="41.453125" customWidth="1"/>
+    <col min="11" max="11" width="27.81640625" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2440,11 +1846,11 @@
       <c r="M1" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2473,7 +1879,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2498,17 +1904,17 @@
       <c r="H3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2543,7 +1949,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2567,10 +1973,10 @@
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
@@ -2585,10 +1991,10 @@
       <c r="H6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>94</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -2611,10 +2017,10 @@
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
@@ -2629,10 +2035,10 @@
       <c r="H7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>94</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -2648,7 +2054,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2673,11 +2079,11 @@
       <c r="H8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2712,51 +2118,135 @@
         <v>104</v>
       </c>
     </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D2" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C2" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="G2" r:id="rId4" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
-    <hyperlink ref="H2" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
-    <hyperlink ref="I2" r:id="rId4" display="bhatnagarupma35@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="G3" r:id="rId4" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
-    <hyperlink ref="H3" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
-    <hyperlink ref="K4" r:id="rId6" display="BrightOutcome@123" tooltip="mailto:BrightOutcome@123"/>
-    <hyperlink ref="I4" r:id="rId7" display="dhanya.varier@testingxperts.com" tooltip="mailto:dhanya.varier@testingxperts.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D4" r:id="rId8" display="Mon@3486" tooltip="mailto:Mon@3486"/>
-    <hyperlink ref="C4" r:id="rId9" display="monika.thakur@testingxperts.com" tooltip="mailto:monika.thakur@testingxperts.com"/>
-    <hyperlink ref="G4" r:id="rId4" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
-    <hyperlink ref="H4" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
-    <hyperlink ref="J4" r:id="rId7" display="dhanya.varier@testingxperts.com" tooltip="mailto:dhanya.varier@testingxperts.com"/>
-    <hyperlink ref="C3" r:id="rId10" display="amandeep.kamboj@testingxperts.com"/>
-    <hyperlink ref="D3" r:id="rId11" display="Kdeep@98"/>
-    <hyperlink ref="B5" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D5" r:id="rId6" display="BrightOutcome@123" tooltip="mailto:BrightOutcome@123"/>
-    <hyperlink ref="C5" r:id="rId7" display="dhanya.varier@testingxperts.com" tooltip="mailto:dhanya.varier@testingxperts.com"/>
-    <hyperlink ref="B8" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D8" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C8" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="G8" r:id="rId4" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
-    <hyperlink ref="H8" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
-    <hyperlink ref="B9" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D9" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C9" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="G9" r:id="rId4" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
-    <hyperlink ref="H9" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
-    <hyperlink ref="I9" r:id="rId12" display="testing@yopmail.com"/>
-    <hyperlink ref="J9" r:id="rId13" display="davalesh.sadu@testingxperts.com"/>
-    <hyperlink ref="K9" r:id="rId14" display="Daval@007"/>
-    <hyperlink ref="B6" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D6" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C6" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B7" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D7" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C7" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="G2" r:id="rId4" tooltip="mailto:bhatnagarupma35@gmail.com" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="H2" r:id="rId5" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="I2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B3" r:id="rId7" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="G3" r:id="rId8" tooltip="mailto:bhatnagarupma35@gmail.com" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="H3" r:id="rId9" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="K4" r:id="rId10" tooltip="mailto:BrightOutcome@123" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="I4" r:id="rId11" tooltip="mailto:dhanya.varier@testingxperts.com" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B4" r:id="rId12" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D4" r:id="rId13" tooltip="mailto:Mon@3486" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C4" r:id="rId14" tooltip="mailto:monika.thakur@testingxperts.com" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="G4" r:id="rId15" tooltip="mailto:bhatnagarupma35@gmail.com" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="H4" r:id="rId16" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="J4" r:id="rId17" tooltip="mailto:dhanya.varier@testingxperts.com" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="C3" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D3" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B5" r:id="rId20" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D5" r:id="rId21" tooltip="mailto:BrightOutcome@123" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="C5" r:id="rId22" tooltip="mailto:dhanya.varier@testingxperts.com" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B8" r:id="rId23" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D8" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="C8" r:id="rId25" tooltip="mailto:sahil.kapoor@testingxperts.com" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="G8" r:id="rId26" tooltip="mailto:bhatnagarupma35@gmail.com" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="H8" r:id="rId27" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B9" r:id="rId28" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D9" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="C9" r:id="rId30" tooltip="mailto:sahil.kapoor@testingxperts.com" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="G9" r:id="rId31" tooltip="mailto:bhatnagarupma35@gmail.com" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="H9" r:id="rId32" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="I9" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="J9" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="K9" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B6" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D6" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="C6" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="B7" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="D7" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="C7" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B12" r:id="rId42" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{0F97C7F5-9212-45CE-9823-3833CB595244}"/>
+    <hyperlink ref="D12" r:id="rId43" xr:uid="{2793B6FE-6D0F-4887-A9A6-0D53F45CAC2A}"/>
+    <hyperlink ref="C12" r:id="rId44" tooltip="mailto:sahil.kapoor@testingxperts.com" xr:uid="{4F815D65-2ED2-44E1-B3E3-E25F36A22616}"/>
+    <hyperlink ref="B10" r:id="rId45" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{7DA472D7-7718-4386-AC1D-88E11AA2286F}"/>
+    <hyperlink ref="C10" r:id="rId46" tooltip="mailto:sahil.kapoor@testingxperts.com" xr:uid="{1A8CD407-188F-4A40-8E29-9C24D33E8E7F}"/>
+    <hyperlink ref="D10" r:id="rId47" xr:uid="{C845C7E5-86C7-4CAE-B512-EEAF982F1EA4}"/>
+    <hyperlink ref="B11" r:id="rId48" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{BD66FAA0-9F73-4D3B-945A-79865DDF0799}"/>
+    <hyperlink ref="C11" r:id="rId49" tooltip="mailto:sahil.kapoor@testingxperts.com" xr:uid="{A2462346-2C38-47C5-B2E3-28171BDAFC7F}"/>
+    <hyperlink ref="D11" r:id="rId50" xr:uid="{DBCE752C-D100-4B75-B349-C85AB9D3CF6D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo\demo\Bright_Outcome\src\test\resources\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661216DA-2D9F-4890-9CC7-B912BE47880B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ACS" sheetId="8" r:id="rId1"/>
     <sheet name="Admin_Account" sheetId="9" r:id="rId2"/>
+    <sheet name="Professional_Account" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="173">
   <si>
     <t>TestData</t>
   </si>
@@ -345,13 +340,215 @@
   </si>
   <si>
     <t>Testdata12</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Incident</t>
+  </si>
+  <si>
+    <t>Participant ID</t>
+  </si>
+  <si>
+    <t>Date_of_birth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>URL1</t>
+  </si>
+  <si>
+    <t>Emailname</t>
+  </si>
+  <si>
+    <t>participant_name</t>
+  </si>
+  <si>
+    <t>Tx-testing4084</t>
+  </si>
+  <si>
+    <t>new_project1</t>
+  </si>
+  <si>
+    <t>DB V</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Shyam</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Shyam@gamil.com</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>10/JAN/1998</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>acs32</t>
+  </si>
+  <si>
+    <t>Kamal</t>
+  </si>
+  <si>
+    <t>Kamal Kumar</t>
+  </si>
+  <si>
+    <t>ritik@yopmail.com</t>
+  </si>
+  <si>
+    <t>Ritik123@</t>
+  </si>
+  <si>
+    <t>Testdata13</t>
+  </si>
+  <si>
+    <t>jack@yopmail.com</t>
+  </si>
+  <si>
+    <t>Tx@12345</t>
+  </si>
+  <si>
+    <t>Software6</t>
+  </si>
+  <si>
+    <t>zoye</t>
+  </si>
+  <si>
+    <t>rahul@gamil.com</t>
+  </si>
+  <si>
+    <t>Testdata14</t>
+  </si>
+  <si>
+    <t>Automation_project266</t>
+  </si>
+  <si>
+    <t>Shardha</t>
+  </si>
+  <si>
+    <t>Gandhi</t>
+  </si>
+  <si>
+    <t>shardha@yopmail.com</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>kamal</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Tx-Testing28</t>
+  </si>
+  <si>
+    <t>Zoye1</t>
+  </si>
+  <si>
+    <t>500018</t>
+  </si>
+  <si>
+    <t>15/DEC/1992</t>
+  </si>
+  <si>
+    <t>https://yopmail.com/en/wm</t>
+  </si>
+  <si>
+    <t>reddy2@yopmail.com</t>
+  </si>
+  <si>
+    <t>TX_10</t>
+  </si>
+  <si>
+    <t>Zoye3</t>
+  </si>
+  <si>
+    <t>TX_13</t>
+  </si>
+  <si>
+    <t>Zoye</t>
+  </si>
+  <si>
+    <t>TX_14</t>
+  </si>
+  <si>
+    <t>Reddy</t>
+  </si>
+  <si>
+    <t>TX_15</t>
+  </si>
+  <si>
+    <t>TX_16</t>
+  </si>
+  <si>
+    <t>Testdata29</t>
+  </si>
+  <si>
+    <t>TX_18</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Testdata31</t>
+  </si>
+  <si>
+    <t>TX_19</t>
+  </si>
+  <si>
+    <t>Ravikumar</t>
+  </si>
+  <si>
+    <t>1/DEC/1990</t>
+  </si>
+  <si>
+    <t>ravikumar1@yopmail.com</t>
+  </si>
+  <si>
+    <t>Testdata34</t>
+  </si>
+  <si>
+    <t>Tx-Testing5</t>
+  </si>
+  <si>
+    <t>Anita1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +586,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF454A4A"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF067D17"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -416,11 +649,139 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,8 +794,194 @@
         <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -468,41 +1015,343 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -700,39 +1549,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90909090909091" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="49.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="49.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="4" max="4" width="11.0909090909091" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" customWidth="1"/>
-    <col min="7" max="7" width="24.6328125" customWidth="1"/>
+    <col min="6" max="6" width="33.1818181818182" customWidth="1"/>
+    <col min="7" max="7" width="24.6363636363636" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="19.7265625" customWidth="1"/>
-    <col min="10" max="10" width="64.26953125" customWidth="1"/>
-    <col min="11" max="11" width="28.1796875" customWidth="1"/>
-    <col min="12" max="12" width="102.1796875" customWidth="1"/>
-    <col min="15" max="15" width="19.90625" customWidth="1"/>
-    <col min="16" max="16" width="26.6328125" customWidth="1"/>
-    <col min="17" max="17" width="30.54296875" customWidth="1"/>
-    <col min="18" max="18" width="25.81640625" customWidth="1"/>
+    <col min="9" max="9" width="19.7272727272727" customWidth="1"/>
+    <col min="10" max="10" width="64.2727272727273" customWidth="1"/>
+    <col min="11" max="11" width="28.1818181818182" customWidth="1"/>
+    <col min="12" max="12" width="102.181818181818" customWidth="1"/>
+    <col min="15" max="15" width="19.9090909090909" customWidth="1"/>
+    <col min="16" max="16" width="26.6363636363636" customWidth="1"/>
+    <col min="17" max="17" width="30.5454545454545" customWidth="1"/>
+    <col min="18" max="18" width="25.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.5">
+    <row r="1" ht="14.5" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,20 +1637,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="14.5">
+    <row r="2" ht="14.5" spans="1:11">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
@@ -823,20 +1672,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.5">
+    <row r="3" ht="14.5" spans="1:12">
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
@@ -857,24 +1706,24 @@
       <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.5">
+    <row r="4" ht="14.5" spans="1:12">
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
@@ -899,20 +1748,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.5">
+    <row r="5" ht="14.5" spans="1:12">
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
@@ -933,24 +1782,24 @@
       <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="13.5" customHeight="1">
+    <row r="6" customHeight="1" spans="1:20">
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
@@ -971,26 +1820,26 @@
       <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" spans="1:20" ht="13.5" customHeight="1">
+      <c r="M6" s="5"/>
+      <c r="T6" s="23"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:12">
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
@@ -1015,20 +1864,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="13.5" customHeight="1">
+    <row r="8" customHeight="1" spans="1:11">
       <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
@@ -1043,24 +1892,24 @@
       <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="24" t="s">
         <v>45</v>
       </c>
       <c r="K8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="13.5" customHeight="1">
+    <row r="9" customHeight="1" spans="1:12">
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1078,17 +1927,17 @@
       <c r="I9" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="24" t="s">
         <v>45</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="13.5" customHeight="1">
+    <row r="10" customHeight="1" spans="1:11">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1116,27 +1965,27 @@
       <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="24" t="s">
         <v>45</v>
       </c>
       <c r="K10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="13.5" customHeight="1">
+    <row r="11" customHeight="1" spans="1:12">
       <c r="A11" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
@@ -1151,7 +2000,7 @@
       <c r="I11" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="24" t="s">
         <v>45</v>
       </c>
       <c r="K11" t="s">
@@ -1161,20 +2010,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="13.5" customHeight="1">
+    <row r="12" customHeight="1" spans="1:12">
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
@@ -1189,30 +2038,30 @@
       <c r="I12" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="24" t="s">
         <v>45</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="13.5" customHeight="1">
+    <row r="13" customHeight="1" spans="1:12">
       <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
@@ -1227,30 +2076,30 @@
       <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="24" t="s">
         <v>45</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="13.5" customHeight="1">
+    <row r="14" customHeight="1" spans="1:12">
       <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
@@ -1265,7 +2114,7 @@
       <c r="I14" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="24" t="s">
         <v>45</v>
       </c>
       <c r="K14" t="s">
@@ -1275,20 +2124,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="13.5" customHeight="1">
+    <row r="15" customHeight="1" spans="1:11">
       <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
@@ -1310,20 +2159,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="13.5" customHeight="1">
+    <row r="16" customHeight="1" spans="1:12">
       <c r="A16" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
@@ -1344,24 +2193,24 @@
       <c r="K16" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="13.5" customHeight="1">
+    <row r="17" customHeight="1" spans="1:12">
       <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
@@ -1386,20 +2235,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="13.5" customHeight="1">
+    <row r="18" customHeight="1" spans="1:12">
       <c r="A18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
@@ -1420,24 +2269,24 @@
       <c r="K18" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="13.5" customHeight="1">
+    <row r="19" customHeight="1" spans="1:12">
       <c r="A19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
@@ -1458,24 +2307,24 @@
       <c r="K19" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="13.5" customHeight="1">
+    <row r="20" customHeight="1" spans="1:12">
       <c r="A20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
@@ -1500,7 +2349,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="13.5" customHeight="1">
+    <row r="21" customHeight="1" spans="1:18">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1528,7 +2377,7 @@
       <c r="I21" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="24" t="s">
         <v>45</v>
       </c>
       <c r="K21" t="s">
@@ -1546,17 +2395,17 @@
       <c r="O21" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="24" t="s">
         <v>64</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="R21" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="13.5" customHeight="1">
+    <row r="22" customHeight="1" spans="1:17">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1584,7 +2433,7 @@
       <c r="I22" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="24" t="s">
         <v>45</v>
       </c>
       <c r="K22" t="s">
@@ -1609,11 +2458,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="13.5" customHeight="1">
+    <row r="23" customHeight="1" spans="1:15">
       <c r="A23" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
@@ -1622,7 +2471,7 @@
       <c r="D23" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
@@ -1652,15 +2501,15 @@
       <c r="N23" t="s">
         <v>73</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="13.5" customHeight="1">
+    <row r="24" customHeight="1" spans="1:11">
       <c r="A24" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C24" t="s">
@@ -1669,7 +2518,7 @@
       <c r="D24" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F24" t="s">
@@ -1690,120 +2539,122 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E5" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C6" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C7" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E8" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B8" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C8" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E9" r:id="rId29" tooltip="mailto:pbulnda@gmail.com" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B9" r:id="rId30" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D9" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D10" r:id="rId33" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C10" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E11" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E12" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B11" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B12" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D11" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D12" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C11" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C12" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B21" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B22" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D21" r:id="rId45" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C21" r:id="rId46" tooltip="mailto:bhatnagarupma35@gmail.com" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D22" r:id="rId47" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C22" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E13" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E14" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B13" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B14" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D13" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D14" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C13" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C14" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E19" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E20" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B19" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B20" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D19" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D20" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C19" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C20" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E15" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B15" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D15" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C15" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B24" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E24" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E16" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B16" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D16" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C16" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E17" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B17" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D17" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C17" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E18" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B18" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D18" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C18" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E23" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B23" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="O23" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="Q21" r:id="rId86" tooltip="mailto:dhanya.varier@testingxperts.com" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="R21" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D2" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C2" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D3" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C3" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E4" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D4" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C4" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D5" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C5" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E6" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D6" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C6" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E7" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D7" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C7" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E8" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D8" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C8" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E9" r:id="rId1" display="pbulnda@gmail.com" tooltip="mailto:pbulnda@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D9" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C9" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D10" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="C10" r:id="rId6" display="bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="E11" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="E12" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B11" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B12" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D11" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="D12" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C11" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="C12" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B21" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B22" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D21" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="C21" r:id="rId6" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="D22" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="C22" r:id="rId6" display="bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="E13" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="E14" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B13" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B14" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D13" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="D14" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C13" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="C14" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E19" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="E20" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B19" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B20" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D19" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="D20" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C19" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="C20" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E15" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B15" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D15" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C15" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B24" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="E24" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="E16" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B16" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D16" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C16" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E17" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B17" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D17" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C17" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E18" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B18" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D18" r:id="rId3" display="Sah@6057"/>
+    <hyperlink ref="C18" r:id="rId4" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="E23" r:id="rId1" display="pbulnda@gmail.com"/>
+    <hyperlink ref="B23" r:id="rId2" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="O23" r:id="rId7" display="Test@gmail.com"/>
+    <hyperlink ref="Q21" r:id="rId8" display="dhanya.varier@testingxperts.com" tooltip="mailto:dhanya.varier@testingxperts.com"/>
+    <hyperlink ref="R21" r:id="rId9" display="BrightOutcome@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="53.453125" customWidth="1"/>
-    <col min="3" max="3" width="41.08984375" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" customWidth="1"/>
-    <col min="5" max="6" width="24.54296875" customWidth="1"/>
-    <col min="7" max="7" width="30.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
-    <col min="9" max="9" width="35.453125" customWidth="1"/>
-    <col min="10" max="10" width="41.453125" customWidth="1"/>
-    <col min="11" max="11" width="27.81640625" customWidth="1"/>
-    <col min="14" max="14" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="53.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="41.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="19.8181818181818" customWidth="1"/>
+    <col min="5" max="6" width="24.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="30.8181818181818" customWidth="1"/>
+    <col min="8" max="8" width="14.2727272727273" customWidth="1"/>
+    <col min="9" max="9" width="35.4545454545455" customWidth="1"/>
+    <col min="10" max="10" width="41.4545454545455" customWidth="1"/>
+    <col min="11" max="11" width="27.8181818181818" customWidth="1"/>
+    <col min="14" max="14" width="16.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1850,7 +2701,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1860,7 +2711,7 @@
       <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
@@ -1872,14 +2723,14 @@
       <c r="G2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1889,7 +2740,7 @@
       <c r="C3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E3" t="s">
@@ -1901,20 +2752,20 @@
       <c r="G3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1924,7 +2775,7 @@
       <c r="C4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E4" t="s">
@@ -1936,7 +2787,7 @@
       <c r="G4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -1945,11 +2796,11 @@
       <c r="J4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1959,7 +2810,7 @@
       <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="20" t="s">
         <v>66</v>
       </c>
       <c r="E5" t="s">
@@ -1973,10 +2824,10 @@
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
@@ -1991,10 +2842,10 @@
       <c r="H6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>94</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -2017,10 +2868,10 @@
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
@@ -2035,10 +2886,10 @@
       <c r="H7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>94</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -2054,7 +2905,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2064,7 +2915,7 @@
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
@@ -2076,14 +2927,14 @@
       <c r="G8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2093,7 +2944,7 @@
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
@@ -2105,30 +2956,30 @@
       <c r="G9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
@@ -2137,29 +2988,29 @@
       <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H10" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
@@ -2174,79 +3025,1107 @@
       <c r="H11" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="G2" r:id="rId4" tooltip="mailto:bhatnagarupma35@gmail.com" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="H2" r:id="rId5" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="I2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B3" r:id="rId7" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="G3" r:id="rId8" tooltip="mailto:bhatnagarupma35@gmail.com" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="H3" r:id="rId9" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="K4" r:id="rId10" tooltip="mailto:BrightOutcome@123" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="I4" r:id="rId11" tooltip="mailto:dhanya.varier@testingxperts.com" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B4" r:id="rId12" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D4" r:id="rId13" tooltip="mailto:Mon@3486" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C4" r:id="rId14" tooltip="mailto:monika.thakur@testingxperts.com" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="G4" r:id="rId15" tooltip="mailto:bhatnagarupma35@gmail.com" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="H4" r:id="rId16" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="J4" r:id="rId17" tooltip="mailto:dhanya.varier@testingxperts.com" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="C3" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D3" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="B5" r:id="rId20" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D5" r:id="rId21" tooltip="mailto:BrightOutcome@123" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="C5" r:id="rId22" tooltip="mailto:dhanya.varier@testingxperts.com" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B8" r:id="rId23" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D8" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="C8" r:id="rId25" tooltip="mailto:sahil.kapoor@testingxperts.com" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="G8" r:id="rId26" tooltip="mailto:bhatnagarupma35@gmail.com" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="H8" r:id="rId27" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B9" r:id="rId28" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="D9" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="C9" r:id="rId30" tooltip="mailto:sahil.kapoor@testingxperts.com" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="G9" r:id="rId31" tooltip="mailto:bhatnagarupma35@gmail.com" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="H9" r:id="rId32" tooltip="mailto:Upma@007" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="I9" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="J9" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="K9" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B6" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D6" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="C6" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B7" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="D7" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="C7" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B12" r:id="rId42" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{0F97C7F5-9212-45CE-9823-3833CB595244}"/>
-    <hyperlink ref="D12" r:id="rId43" xr:uid="{2793B6FE-6D0F-4887-A9A6-0D53F45CAC2A}"/>
-    <hyperlink ref="C12" r:id="rId44" tooltip="mailto:sahil.kapoor@testingxperts.com" xr:uid="{4F815D65-2ED2-44E1-B3E3-E25F36A22616}"/>
-    <hyperlink ref="B10" r:id="rId45" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{7DA472D7-7718-4386-AC1D-88E11AA2286F}"/>
-    <hyperlink ref="C10" r:id="rId46" tooltip="mailto:sahil.kapoor@testingxperts.com" xr:uid="{1A8CD407-188F-4A40-8E29-9C24D33E8E7F}"/>
-    <hyperlink ref="D10" r:id="rId47" xr:uid="{C845C7E5-86C7-4CAE-B512-EEAF982F1EA4}"/>
-    <hyperlink ref="B11" r:id="rId48" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home" xr:uid="{BD66FAA0-9F73-4D3B-945A-79865DDF0799}"/>
-    <hyperlink ref="C11" r:id="rId49" tooltip="mailto:sahil.kapoor@testingxperts.com" xr:uid="{A2462346-2C38-47C5-B2E3-28171BDAFC7F}"/>
-    <hyperlink ref="D11" r:id="rId50" xr:uid="{DBCE752C-D100-4B75-B349-C85AB9D3CF6D}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D2" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C2" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="G2" r:id="rId4" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="H2" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="I2" r:id="rId4" display="bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="G3" r:id="rId4" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="H3" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="K4" r:id="rId6" display="BrightOutcome@123" tooltip="mailto:BrightOutcome@123"/>
+    <hyperlink ref="I4" r:id="rId7" display="dhanya.varier@testingxperts.com" tooltip="mailto:dhanya.varier@testingxperts.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D4" r:id="rId8" display="Mon@3486" tooltip="mailto:Mon@3486"/>
+    <hyperlink ref="C4" r:id="rId9" display="monika.thakur@testingxperts.com" tooltip="mailto:monika.thakur@testingxperts.com"/>
+    <hyperlink ref="G4" r:id="rId4" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="H4" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="J4" r:id="rId7" display="dhanya.varier@testingxperts.com" tooltip="mailto:dhanya.varier@testingxperts.com"/>
+    <hyperlink ref="C3" r:id="rId10" display="amandeep.kamboj@testingxperts.com"/>
+    <hyperlink ref="D3" r:id="rId11" display="Kdeep@98"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D5" r:id="rId6" display="BrightOutcome@123" tooltip="mailto:BrightOutcome@123"/>
+    <hyperlink ref="C5" r:id="rId7" display="dhanya.varier@testingxperts.com" tooltip="mailto:dhanya.varier@testingxperts.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D8" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C8" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="G8" r:id="rId4" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="H8" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="B9" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D9" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C9" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="G9" r:id="rId4" display="bhatnagarupma35@gmail.com" tooltip="mailto:bhatnagarupma35@gmail.com"/>
+    <hyperlink ref="H9" r:id="rId5" display="Upma@007" tooltip="mailto:Upma@007"/>
+    <hyperlink ref="I9" r:id="rId12" display="testing@yopmail.com"/>
+    <hyperlink ref="J9" r:id="rId13" display="davalesh.sadu@testingxperts.com"/>
+    <hyperlink ref="K9" r:id="rId14" display="Daval@007"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D6" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C6" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B7" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D7" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C7" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B12" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D12" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C12" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B10" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C10" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D10" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C11" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D11" r:id="rId2" display="Sah@6057"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="52.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="38.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="18.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="23.4545454545455" customWidth="1"/>
+    <col min="6" max="6" width="17.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="41.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="22.3636363636364" customWidth="1"/>
+    <col min="9" max="9" width="24.8181818181818" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="15.3636363636364" customWidth="1"/>
+    <col min="12" max="12" width="26.6363636363636" customWidth="1"/>
+    <col min="13" max="13" width="15.3636363636364" customWidth="1"/>
+    <col min="14" max="14" width="13.7272727272727" customWidth="1"/>
+    <col min="16" max="16" width="17.4545454545455" customWidth="1"/>
+    <col min="18" max="18" width="26.3636363636364" customWidth="1"/>
+    <col min="19" max="19" width="20.5454545454545" customWidth="1"/>
+    <col min="20" max="20" width="12.9090909090909" customWidth="1"/>
+    <col min="21" max="21" width="16.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" t="s">
+        <v>124</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S8" t="s">
+        <v>119</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M11">
+        <v>456</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11">
+        <v>1122</v>
+      </c>
+      <c r="P11" s="14">
+        <v>29749</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D2" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C2" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D3" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C3" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D4" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C4" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C5" r:id="rId4" display="amandeep.kamboj@testingxperts.com"/>
+    <hyperlink ref="D5" r:id="rId5" display="Kdeep@98"/>
+    <hyperlink ref="L5" r:id="rId6" display="Shyam@gamil.com" tooltip="mailto:Shyam@gamil.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C6" r:id="rId4" display="amandeep.kamboj@testingxperts.com"/>
+    <hyperlink ref="D6" r:id="rId5" display="Kdeep@98"/>
+    <hyperlink ref="B7" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C7" r:id="rId4" display="amandeep.kamboj@testingxperts.com"/>
+    <hyperlink ref="D7" r:id="rId5" display="Kdeep@98"/>
+    <hyperlink ref="L6" r:id="rId6" display="Shyam@gamil.com" tooltip="mailto:Shyam@gamil.com"/>
+    <hyperlink ref="L7" r:id="rId6" display="Shyam@gamil.com" tooltip="mailto:Shyam@gamil.com"/>
+    <hyperlink ref="B9" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B10" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B13" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D13" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C13" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B14" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B15" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D15" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C15" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="S15" r:id="rId7" display="reddy2@yopmail.com"/>
+    <hyperlink ref="B16" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D16" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C16" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B17" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D17" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C17" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B18" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D18" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C18" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B19" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D19" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C19" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B20" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D20" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C20" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="L10" r:id="rId8" display="rahul@gamil.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C8" r:id="rId4" display="amandeep.kamboj@testingxperts.com"/>
+    <hyperlink ref="D8" r:id="rId5" display="Kdeep@98"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C11" r:id="rId9" display="dhanya@yopmail.com"/>
+    <hyperlink ref="L11" r:id="rId10" display="shardha@yopmail.com"/>
+    <hyperlink ref="B12" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B21" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D21" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C21" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B22" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D22" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C22" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B23" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D23" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C23" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6790" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ACS" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="221">
   <si>
     <t>TestData</t>
   </si>
@@ -366,6 +366,21 @@
     <t>participant_name</t>
   </si>
   <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Instrumental</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>Fitness/Exercise</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
     <t>Tx-testing4084</t>
   </si>
   <si>
@@ -513,6 +528,18 @@
     <t>Arun</t>
   </si>
   <si>
+    <t>Testdata30</t>
+  </si>
+  <si>
+    <t>TX_17</t>
+  </si>
+  <si>
+    <t>1/DEC/1990</t>
+  </si>
+  <si>
+    <t>Reddy5kumar@yopmail.com</t>
+  </si>
+  <si>
     <t>Testdata31</t>
   </si>
   <si>
@@ -522,9 +549,6 @@
     <t>Ravikumar</t>
   </si>
   <si>
-    <t>1/DEC/1990</t>
-  </si>
-  <si>
     <t>ravikumar1@yopmail.com</t>
   </si>
   <si>
@@ -535,12 +559,132 @@
   </si>
   <si>
     <t>Anita1</t>
+  </si>
+  <si>
+    <t>Testdata36</t>
+  </si>
+  <si>
+    <t>Tx-Testing12</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Testdata37</t>
+  </si>
+  <si>
+    <t>Tx-Testing13</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>500019</t>
+  </si>
+  <si>
+    <t>ajay@yopmail.com</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Testdata38</t>
+  </si>
+  <si>
+    <t>Tx-Testing16</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>Testdata46</t>
+  </si>
+  <si>
+    <t>Tx-Testing6</t>
+  </si>
+  <si>
+    <t>Ajayreddy</t>
+  </si>
+  <si>
+    <t>500083</t>
+  </si>
+  <si>
+    <t>Ajay2reddy@yopmail.com</t>
+  </si>
+  <si>
+    <t>42.5</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>Testdata47</t>
+  </si>
+  <si>
+    <t>Tx-Testing7</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>160101</t>
+  </si>
+  <si>
+    <t>14/SEP/2008</t>
+  </si>
+  <si>
+    <t>Johndo@yopmail.com</t>
+  </si>
+  <si>
+    <t>Testdata48</t>
+  </si>
+  <si>
+    <t>Tx-Testing10</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Rahul98@yopmail.com</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1261,7 +1405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1288,6 +1432,8 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1706,7 +1852,7 @@
       <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="25" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1782,7 +1928,7 @@
       <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1820,11 +1966,11 @@
       <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="25" t="s">
         <v>38</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="T6" s="23"/>
+      <c r="T6" s="25"/>
     </row>
     <row r="7" customHeight="1" spans="1:12">
       <c r="A7" t="s">
@@ -1892,7 +2038,7 @@
       <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K8" t="s">
@@ -1927,13 +2073,13 @@
       <c r="I9" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="25" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1965,7 +2111,7 @@
       <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K10" t="s">
@@ -2000,7 +2146,7 @@
       <c r="I11" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K11" t="s">
@@ -2038,13 +2184,13 @@
       <c r="I12" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2076,13 +2222,13 @@
       <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="25" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2114,7 +2260,7 @@
       <c r="I14" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K14" t="s">
@@ -2193,7 +2339,7 @@
       <c r="K16" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="25" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2269,7 +2415,7 @@
       <c r="K18" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2307,7 +2453,7 @@
       <c r="K19" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="25" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2377,7 +2523,7 @@
       <c r="I21" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K21" t="s">
@@ -2395,7 +2541,7 @@
       <c r="O21" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="24" t="s">
+      <c r="P21" s="26" t="s">
         <v>64</v>
       </c>
       <c r="Q21" s="3" t="s">
@@ -2433,7 +2579,7 @@
       <c r="I22" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K22" t="s">
@@ -2755,13 +2901,13 @@
       <c r="H3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="23" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2796,7 +2942,7 @@
       <c r="J4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2810,7 +2956,7 @@
       <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E5" t="s">
@@ -2930,7 +3076,7 @@
       <c r="H8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="27" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3106,10 +3252,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3130,12 +3276,15 @@
     <col min="14" max="14" width="13.7272727272727" customWidth="1"/>
     <col min="16" max="16" width="17.4545454545455" customWidth="1"/>
     <col min="18" max="18" width="26.3636363636364" customWidth="1"/>
-    <col min="19" max="19" width="20.5454545454545" customWidth="1"/>
-    <col min="20" max="20" width="12.9090909090909" customWidth="1"/>
+    <col min="19" max="19" width="23.5454545454545" customWidth="1"/>
+    <col min="20" max="20" width="18.7272727272727" customWidth="1"/>
     <col min="21" max="21" width="16.4545454545455" customWidth="1"/>
+    <col min="22" max="22" width="13.0909090909091" customWidth="1"/>
+    <col min="23" max="23" width="13.5454545454545" customWidth="1"/>
+    <col min="24" max="24" width="13.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3195,6 +3344,21 @@
       </c>
       <c r="T1" t="s">
         <v>115</v>
+      </c>
+      <c r="U1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" t="s">
+        <v>118</v>
+      </c>
+      <c r="X1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3211,7 +3375,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
         <v>63</v>
@@ -3240,7 +3404,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -3269,7 +3433,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
         <v>63</v>
@@ -3281,7 +3445,7 @@
         <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3307,34 +3471,34 @@
         <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3360,34 +3524,34 @@
         <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3404,43 +3568,43 @@
         <v>85</v>
       </c>
       <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="N7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -3457,7 +3621,7 @@
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -3466,26 +3630,26 @@
         <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s">
         <v>129</v>
-      </c>
-      <c r="K8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L8" t="s">
-        <v>124</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P8" t="s">
         <v>63</v>
@@ -3494,13 +3658,13 @@
         <v>63</v>
       </c>
       <c r="R8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="S8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3511,10 +3675,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -3523,27 +3687,27 @@
         <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -3558,31 +3722,31 @@
         <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
@@ -3594,7 +3758,7 @@
         <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -3609,19 +3773,19 @@
         <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M11">
         <v>456</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O11">
         <v>1122</v>
@@ -3630,7 +3794,7 @@
         <v>29749</v>
       </c>
       <c r="Q11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3647,7 +3811,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -3662,10 +3826,10 @@
         <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s">
         <v>63</v>
@@ -3700,7 +3864,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
@@ -3715,7 +3879,7 @@
         <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3758,7 +3922,7 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -3773,7 +3937,7 @@
         <v>63</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>63</v>
@@ -3782,7 +3946,7 @@
         <v>63</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>63</v>
@@ -3791,16 +3955,16 @@
         <v>63</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>63</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3817,7 +3981,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>63</v>
@@ -3832,7 +3996,7 @@
         <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>63</v>
@@ -3852,7 +4016,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>63</v>
@@ -3867,7 +4031,7 @@
         <v>63</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3884,7 +4048,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>63</v>
@@ -3899,7 +4063,7 @@
         <v>63</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3916,7 +4080,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>63</v>
@@ -3931,7 +4095,7 @@
         <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3948,7 +4112,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>63</v>
@@ -3963,35 +4127,35 @@
         <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>163</v>
+      <c r="E21" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>169</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>19</v>
@@ -4003,10 +4167,22 @@
         <v>21</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>63</v>
@@ -4014,8 +4190,8 @@
       <c r="L22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="M22" s="17" t="s">
-        <v>150</v>
+      <c r="M22" s="17">
+        <v>500018</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>63</v>
@@ -4024,39 +4200,553 @@
         <v>63</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q22" s="8" t="s">
         <v>63</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23" s="11" t="s">
+      <c r="E23" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="Q23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="X25" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y25" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" s="18" t="s">
         <v>172</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R26" t="s">
+        <v>157</v>
+      </c>
+      <c r="S26" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="T26" t="s">
+        <v>63</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y26" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U27" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="V27" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="W27" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="X27" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y27" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R28" t="s">
+        <v>157</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="U28" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="V28" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="W28" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="X28" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y28" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R29" t="s">
+        <v>157</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="V29" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="W29" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="X29" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y29" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="S30" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U30" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="V30" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="W30" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="X30" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y30" s="18" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4118,12 +4808,34 @@
     <hyperlink ref="B21" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D21" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C21" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B22" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D22" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C22" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B23" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D23" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C23" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B24" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D24" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C24" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B25" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D25" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C25" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B26" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D26" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C26" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B27" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D27" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C27" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="S26" r:id="rId11" display="ajay@yopmail.com"/>
+    <hyperlink ref="B28" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D28" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C28" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B29" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D29" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C29" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B30" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C30" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D30" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="B22" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C22" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D22" r:id="rId2" display="Sah@6057"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6830" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ACS" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="239">
   <si>
     <t>TestData</t>
   </si>
@@ -507,6 +507,99 @@
     <t>Zoye</t>
   </si>
   <si>
+    <t>Testdata23</t>
+  </si>
+  <si>
+    <t>Tx-Testing</t>
+  </si>
+  <si>
+    <t>rahul1234@yopmail.com</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>10/JAN/2001</t>
+  </si>
+  <si>
+    <t>Ask about activities that they do with others,Ask demographic questions</t>
+  </si>
+  <si>
+    <t>Testdata24</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tx-Testing32</t>
+    </r>
+  </si>
+  <si>
+    <t>Tx-Testing4850</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kour</t>
+    </r>
+  </si>
+  <si>
+    <t>preet98@yopmail.com</t>
+  </si>
+  <si>
+    <t>160101</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stroke</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Female</t>
+    </r>
+  </si>
+  <si>
     <t>TX_14</t>
   </si>
   <si>
@@ -654,9 +747,6 @@
     <t>John</t>
   </si>
   <si>
-    <t>160101</t>
-  </si>
-  <si>
     <t>14/SEP/2008</t>
   </si>
   <si>
@@ -672,27 +762,37 @@
     <t>Rahul</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
     <t>Rahul98@yopmail.com</t>
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>Testdata33</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Tx-Testing2201</t>
+  </si>
+  <si>
+    <t>Tx-Testing2422</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,35 +805,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF454A4A"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1278,134 +1349,134 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1414,10 +1485,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1427,21 +1497,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1707,27 +1777,27 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90909090909091" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="49.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="11.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="33.1818181818182" customWidth="1"/>
-    <col min="7" max="7" width="24.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="19.7272727272727" customWidth="1"/>
-    <col min="10" max="10" width="64.2727272727273" customWidth="1"/>
-    <col min="11" max="11" width="28.1818181818182" customWidth="1"/>
-    <col min="12" max="12" width="102.181818181818" customWidth="1"/>
-    <col min="15" max="15" width="19.9090909090909" customWidth="1"/>
-    <col min="16" max="16" width="26.6363636363636" customWidth="1"/>
-    <col min="17" max="17" width="30.5454545454545" customWidth="1"/>
-    <col min="18" max="18" width="25.8181818181818" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.5428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.4571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0952380952381" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.1809523809524" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.6380952380952" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.7238095238095" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="64.2761904761905" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.1809523809524" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="102.180952380952" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.9047619047619" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="26.6380952380952" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="30.5428571428571" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="25.8190476190476" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:18">
+    <row r="1" ht="15" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +1853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="14.5" spans="1:11">
+    <row r="2" ht="15" spans="1:11">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1818,7 +1888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="14.5" spans="1:12">
+    <row r="3" ht="15" spans="1:12">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1852,11 +1922,11 @@
       <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="14.5" spans="1:12">
+    <row r="4" ht="15" spans="1:12">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1894,7 +1964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" ht="14.5" spans="1:12">
+    <row r="5" ht="15" spans="1:12">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1928,7 +1998,7 @@
       <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1966,11 +2036,11 @@
       <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="22" t="s">
         <v>38</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="T6" s="25"/>
+      <c r="T6" s="22"/>
     </row>
     <row r="7" customHeight="1" spans="1:12">
       <c r="A7" t="s">
@@ -2038,7 +2108,7 @@
       <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="23" t="s">
         <v>45</v>
       </c>
       <c r="K8" t="s">
@@ -2073,13 +2143,13 @@
       <c r="I9" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="23" t="s">
         <v>45</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="22" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2111,7 +2181,7 @@
       <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="23" t="s">
         <v>45</v>
       </c>
       <c r="K10" t="s">
@@ -2146,7 +2216,7 @@
       <c r="I11" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="23" t="s">
         <v>45</v>
       </c>
       <c r="K11" t="s">
@@ -2184,13 +2254,13 @@
       <c r="I12" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="23" t="s">
         <v>45</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2222,13 +2292,13 @@
       <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="23" t="s">
         <v>45</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2260,7 +2330,7 @@
       <c r="I14" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="23" t="s">
         <v>45</v>
       </c>
       <c r="K14" t="s">
@@ -2339,7 +2409,7 @@
       <c r="K16" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="22" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2415,7 +2485,7 @@
       <c r="K18" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2453,7 +2523,7 @@
       <c r="K19" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2523,7 +2593,7 @@
       <c r="I21" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="23" t="s">
         <v>45</v>
       </c>
       <c r="K21" t="s">
@@ -2541,7 +2611,7 @@
       <c r="O21" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="P21" s="23" t="s">
         <v>64</v>
       </c>
       <c r="Q21" s="3" t="s">
@@ -2579,7 +2649,7 @@
       <c r="I22" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="23" t="s">
         <v>45</v>
       </c>
       <c r="K22" t="s">
@@ -2788,19 +2858,19 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="53.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="41.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="19.8181818181818" customWidth="1"/>
-    <col min="5" max="6" width="24.5454545454545" customWidth="1"/>
-    <col min="7" max="7" width="30.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="14.2727272727273" customWidth="1"/>
-    <col min="9" max="9" width="35.4545454545455" customWidth="1"/>
-    <col min="10" max="10" width="41.4545454545455" customWidth="1"/>
-    <col min="11" max="11" width="27.8181818181818" customWidth="1"/>
-    <col min="14" max="14" width="16.4545454545455" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="53.4571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="41.0952380952381" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.8190476190476" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="24.5428571428571" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.8190476190476" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.2761904761905" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="35.4571428571429" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="41.4571428571429" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="27.8190476190476" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="16.4571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2901,13 +2971,13 @@
       <c r="H3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="20" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2942,7 +3012,7 @@
       <c r="J4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2956,7 +3026,7 @@
       <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E5" t="s">
@@ -3076,7 +3146,7 @@
       <c r="H8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="24" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3252,39 +3322,39 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="52.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="38.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="18.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="23.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="17.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="41.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="22.3636363636364" customWidth="1"/>
-    <col min="9" max="9" width="24.8181818181818" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="15.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="26.6363636363636" customWidth="1"/>
-    <col min="13" max="13" width="15.3636363636364" customWidth="1"/>
-    <col min="14" max="14" width="13.7272727272727" customWidth="1"/>
-    <col min="16" max="16" width="17.4545454545455" customWidth="1"/>
-    <col min="18" max="18" width="26.3636363636364" customWidth="1"/>
-    <col min="19" max="19" width="23.5454545454545" customWidth="1"/>
-    <col min="20" max="20" width="18.7272727272727" customWidth="1"/>
-    <col min="21" max="21" width="16.4545454545455" customWidth="1"/>
-    <col min="22" max="22" width="13.0909090909091" customWidth="1"/>
-    <col min="23" max="23" width="13.5454545454545" customWidth="1"/>
-    <col min="24" max="24" width="13.9090909090909" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.4571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="52.8190476190476" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.9047619047619" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.2761904761905" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.4571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.6380952380952" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.1809523809524" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.3619047619048" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.8190476190476" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.3619047619048" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="26.6380952380952" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="15.3619047619048" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.7238095238095" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.4571428571429" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="26.3619047619048" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="23.5428571428571" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="18.7238095238095" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="16.4571428571429" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="13.0952380952381" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="13.5428571428571" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="13.9047619047619" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3359,6 +3429,15 @@
       </c>
       <c r="Y1" t="s">
         <v>120</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3485,16 +3564,16 @@
       <c r="L5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="9" t="s">
         <v>128</v>
       </c>
       <c r="N5" t="s">
         <v>129</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="10" t="s">
         <v>131</v>
       </c>
       <c r="Q5" t="s">
@@ -3538,16 +3617,16 @@
       <c r="L6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="9" t="s">
         <v>128</v>
       </c>
       <c r="N6" t="s">
         <v>129</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="10" t="s">
         <v>131</v>
       </c>
       <c r="Q6" t="s">
@@ -3591,16 +3670,16 @@
       <c r="L7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="9" t="s">
         <v>128</v>
       </c>
       <c r="N7" t="s">
         <v>129</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="10" t="s">
         <v>131</v>
       </c>
       <c r="Q7" t="s">
@@ -3644,8 +3723,8 @@
       <c r="L8" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13" t="s">
+      <c r="M8" s="9"/>
+      <c r="N8" s="10" t="s">
         <v>131</v>
       </c>
       <c r="O8" t="s">
@@ -3663,7 +3742,7 @@
       <c r="S8" t="s">
         <v>124</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="T8" s="16" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3728,16 +3807,16 @@
       <c r="L10" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="9" t="s">
         <v>128</v>
       </c>
       <c r="N10" t="s">
         <v>129</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="10" t="s">
         <v>131</v>
       </c>
       <c r="Q10" t="s">
@@ -3790,7 +3869,7 @@
       <c r="O11">
         <v>1122</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="11">
         <v>29749</v>
       </c>
       <c r="Q11" t="s">
@@ -3945,7 +4024,7 @@
       <c r="L15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="12" t="s">
         <v>155</v>
       </c>
       <c r="N15" s="7" t="s">
@@ -3954,7 +4033,7 @@
       <c r="O15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="16" t="s">
+      <c r="P15" s="13" t="s">
         <v>156</v>
       </c>
       <c r="Q15" s="7" t="s">
@@ -4034,9 +4113,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="7" t="s">
-        <v>75</v>
+    <row r="18" spans="1:28">
+      <c r="A18" t="s">
+        <v>163</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
@@ -4047,11 +4126,11 @@
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>63</v>
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
       </c>
       <c r="G18" t="s">
         <v>63</v>
@@ -4062,28 +4141,82 @@
       <c r="I18" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="N18" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R18" t="s">
+        <v>63</v>
+      </c>
+      <c r="S18" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" t="s">
+        <v>63</v>
+      </c>
+      <c r="U18" t="s">
+        <v>63</v>
+      </c>
+      <c r="V18" t="s">
+        <v>63</v>
+      </c>
+      <c r="W18" t="s">
+        <v>63</v>
+      </c>
+      <c r="X18" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="AB18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>63</v>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" t="s">
+        <v>238</v>
       </c>
       <c r="G19" t="s">
         <v>63</v>
@@ -4094,13 +4227,67 @@
       <c r="I19" t="s">
         <v>63</v>
       </c>
-      <c r="J19" t="s">
-        <v>164</v>
+      <c r="J19" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="R19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S19" t="s">
+        <v>63</v>
+      </c>
+      <c r="T19" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" t="s">
+        <v>63</v>
+      </c>
+      <c r="V19" t="s">
+        <v>63</v>
+      </c>
+      <c r="W19" t="s">
+        <v>63</v>
+      </c>
+      <c r="X19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
@@ -4112,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>63</v>
@@ -4126,13 +4313,13 @@
       <c r="I20" t="s">
         <v>63</v>
       </c>
-      <c r="J20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="J20" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="7" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
@@ -4144,82 +4331,59 @@
         <v>21</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" s="17">
-        <v>500018</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="E22" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
@@ -4231,42 +4395,18 @@
         <v>21</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R23" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>184</v>
+      </c>
+      <c r="F23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>19</v>
@@ -4278,183 +4418,140 @@
         <v>21</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>180</v>
+        <v>187</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="K24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="12">
+        <v>500018</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="R25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="T25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="V25" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="W25" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="X25" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y25" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="8" t="s">
+      <c r="E25" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="Q25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="K26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26" t="s">
-        <v>63</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="R26" t="s">
-        <v>157</v>
-      </c>
-      <c r="S26" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="T26" t="s">
-        <v>63</v>
-      </c>
-      <c r="U26" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="V26" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="X26" s="13" t="s">
+      <c r="E26" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="Y26" s="13" t="s">
+      <c r="F26" s="6" t="s">
         <v>196</v>
       </c>
+      <c r="J26" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="6" t="s">
         <v>198</v>
       </c>
       <c r="F27" t="s">
@@ -4469,70 +4566,70 @@
       <c r="I27" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="K27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="R27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="T27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U27" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="V27" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="W27" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="X27" s="18" t="s">
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U27" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="Y27" s="18" t="s">
-        <v>196</v>
+      <c r="V27" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="W27" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="X27" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y27" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:25">
-      <c r="A28" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="A28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>202</v>
+      <c r="E28" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
@@ -4546,207 +4643,438 @@
       <c r="I28" t="s">
         <v>63</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P28" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q28" s="8" t="s">
+      <c r="J28" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>63</v>
       </c>
       <c r="R28" t="s">
         <v>157</v>
       </c>
-      <c r="S28" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="T28" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="U28" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="V28" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="W28" s="18" t="s">
+      <c r="S28" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="X28" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y28" s="18" t="s">
+      <c r="T28" t="s">
+        <v>63</v>
+      </c>
+      <c r="U28" s="10" t="s">
         <v>200</v>
       </c>
+      <c r="V28" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="W28" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="X28" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y28" s="10" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="V29" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="X29" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y29" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R30" t="s">
+        <v>157</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="T30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U30" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="V30" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="W30" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="X30" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y30" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R31" t="s">
+        <v>157</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U31" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="X31" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y31" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="S32" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U32" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="V32" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="W32" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y32" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M29" s="17" t="s">
+      <c r="E33" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" t="s">
+        <v>236</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="S33" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="V33" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="W33" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="X33" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y33" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P29" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="R29" t="s">
-        <v>157</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="T29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="U29" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="V29" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="W29" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="X29" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y29" s="18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I30" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P30" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="R30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="S30" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="T30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U30" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="V30" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="W30" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="X30" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y30" s="18" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4788,15 +5116,15 @@
     <hyperlink ref="B17" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D17" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C17" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B18" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D18" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C18" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B19" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D19" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C19" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B20" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D20" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C20" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B21" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D21" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C21" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B22" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D22" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C22" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="L10" r:id="rId8" display="rahul@gamil.com"/>
     <hyperlink ref="B8" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="C8" r:id="rId4" display="amandeep.kamboj@testingxperts.com"/>
@@ -4805,15 +5133,9 @@
     <hyperlink ref="C11" r:id="rId9" display="dhanya@yopmail.com"/>
     <hyperlink ref="L11" r:id="rId10" display="shardha@yopmail.com"/>
     <hyperlink ref="B12" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="B21" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D21" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C21" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B23" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D23" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C23" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B24" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D24" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C24" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B25" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D25" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C25" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
@@ -4823,19 +5145,37 @@
     <hyperlink ref="B27" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D27" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C27" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="S26" r:id="rId11" display="ajay@yopmail.com"/>
     <hyperlink ref="B28" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D28" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C28" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B29" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D29" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C29" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="S28" r:id="rId11" display="ajay@yopmail.com"/>
     <hyperlink ref="B30" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D30" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C30" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="D30" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="B22" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="C22" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="D22" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="B31" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D31" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C31" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B32" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C32" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D32" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="B24" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C24" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D24" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C33" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D33" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="D18" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C18" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B18" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="AB18" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="AA18" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B19" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C19" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D19" r:id="rId12" display="Sah@6057" tooltip="mailto:Sah@6057"/>
+    <hyperlink ref="L19" r:id="rId13" display="preet98@yopmail.com" tooltip="mailto:preet98@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="291">
   <si>
     <t>TestData</t>
   </si>
@@ -543,7 +543,7 @@
     </r>
   </si>
   <si>
-    <t>Tx-Testing4850</t>
+    <t>Tx-Testing2422</t>
   </si>
   <si>
     <r>
@@ -612,6 +612,9 @@
     <t>TX_16</t>
   </si>
   <si>
+    <t>Ask about activities that they do with others,PROMIS-29</t>
+  </si>
+  <si>
     <t>Testdata29</t>
   </si>
   <si>
@@ -645,6 +648,30 @@
     <t>ravikumar1@yopmail.com</t>
   </si>
   <si>
+    <t>Testdata33</t>
+  </si>
+  <si>
+    <t>Tx-testing1234</t>
+  </si>
+  <si>
+    <t>Sahil</t>
+  </si>
+  <si>
+    <t>kumar@yopmail.com</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Testdata34</t>
   </si>
   <si>
@@ -654,6 +681,33 @@
     <t>Anita1</t>
   </si>
   <si>
+    <t>Testdata35</t>
+  </si>
+  <si>
+    <t>Tx-Testing9</t>
+  </si>
+  <si>
+    <t>Gita</t>
+  </si>
+  <si>
+    <t>15/OCT/2007</t>
+  </si>
+  <si>
+    <t>gita1@yopmail.com</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
     <t>Testdata36</t>
   </si>
   <si>
@@ -663,12 +717,6 @@
     <t>Raju</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>8.5</t>
   </si>
   <si>
@@ -696,12 +744,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>Testdata38</t>
   </si>
   <si>
@@ -714,6 +756,126 @@
     <t>7.5</t>
   </si>
   <si>
+    <t>Testdata39</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>10/JAN/1999</t>
+  </si>
+  <si>
+    <t>42.5</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>Testdata40</t>
+  </si>
+  <si>
+    <t>Tx_Testing4</t>
+  </si>
+  <si>
+    <t>Raman</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Testdata41</t>
+  </si>
+  <si>
+    <t>Tx-Testing8</t>
+  </si>
+  <si>
+    <t>Karan</t>
+  </si>
+  <si>
+    <t>125055</t>
+  </si>
+  <si>
+    <t>Rahul98@yopmail.com</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>Testdata42</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tx-Testing11</t>
+    </r>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>karan99@yopmail.com</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>Testdata43</t>
+  </si>
+  <si>
+    <t>Tx-Testing15</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Aman99@yopmail.com</t>
+  </si>
+  <si>
+    <t>Testdata44</t>
+  </si>
+  <si>
+    <t>Tx-Testing18</t>
+  </si>
+  <si>
+    <t>Amandeep</t>
+  </si>
+  <si>
+    <t>Testdata45</t>
+  </si>
+  <si>
+    <t>Tx_Testing3</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>1/JAN/2000</t>
+  </si>
+  <si>
+    <t>rameshsharma@yopmail.com</t>
+  </si>
+  <si>
+    <t>41.5</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
     <t>Testdata46</t>
   </si>
   <si>
@@ -729,15 +891,6 @@
     <t>Ajay2reddy@yopmail.com</t>
   </si>
   <si>
-    <t>42.5</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
     <t>Testdata47</t>
   </si>
   <si>
@@ -759,25 +912,37 @@
     <t>Tx-Testing10</t>
   </si>
   <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Rahul98@yopmail.com</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Testdata33</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>Tx-Testing2201</t>
-  </si>
-  <si>
-    <t>Tx-Testing2422</t>
+    <t>Testdata49</t>
+  </si>
+  <si>
+    <t>Tx-Testing14</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>luckysingh@yopmail.com</t>
+  </si>
+  <si>
+    <t>9/JUN/2012</t>
+  </si>
+  <si>
+    <t>Testdata50</t>
+  </si>
+  <si>
+    <t>Tx-Testing17</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Thakur</t>
+  </si>
+  <si>
+    <t>ramthakur@yopmail.com</t>
+  </si>
+  <si>
+    <t>1/MAR/2014</t>
   </si>
 </sst>
 </file>
@@ -792,7 +957,7 @@
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,6 +970,35 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF454A4A"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1349,134 +1543,134 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1488,6 +1682,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1501,17 +1699,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1779,22 +1984,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.5428571428571" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.4571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0952380952381" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.1809523809524" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.6380952380952" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.7238095238095" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="64.2761904761905" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="28.1809523809524" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="102.180952380952" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="19.9047619047619" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="26.6380952380952" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="30.5428571428571" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="25.8190476190476" collapsed="true"/>
+    <col min="1" max="1" width="13.5428571428571" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.4571428571429" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.0952380952381" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.1809523809524" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.6380952380952" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.7238095238095" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="64.2761904761905" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.1809523809524" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="102.180952380952" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.9047619047619" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.6380952380952" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.5428571428571" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.8190476190476" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:18">
@@ -1922,7 +2127,7 @@
       <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1998,7 +2203,7 @@
       <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="31" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2036,11 +2241,11 @@
       <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="31" t="s">
         <v>38</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="T6" s="22"/>
+      <c r="T6" s="31"/>
     </row>
     <row r="7" customHeight="1" spans="1:12">
       <c r="A7" t="s">
@@ -2108,7 +2313,7 @@
       <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="32" t="s">
         <v>45</v>
       </c>
       <c r="K8" t="s">
@@ -2143,13 +2348,13 @@
       <c r="I9" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="32" t="s">
         <v>45</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2181,7 +2386,7 @@
       <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="32" t="s">
         <v>45</v>
       </c>
       <c r="K10" t="s">
@@ -2216,7 +2421,7 @@
       <c r="I11" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="32" t="s">
         <v>45</v>
       </c>
       <c r="K11" t="s">
@@ -2254,13 +2459,13 @@
       <c r="I12" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="32" t="s">
         <v>45</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="31" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2292,13 +2497,13 @@
       <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="32" t="s">
         <v>45</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="31" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2330,7 +2535,7 @@
       <c r="I14" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="32" t="s">
         <v>45</v>
       </c>
       <c r="K14" t="s">
@@ -2409,7 +2614,7 @@
       <c r="K16" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2485,7 +2690,7 @@
       <c r="K18" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="31" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2523,7 +2728,7 @@
       <c r="K19" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="31" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2593,7 +2798,7 @@
       <c r="I21" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="32" t="s">
         <v>45</v>
       </c>
       <c r="K21" t="s">
@@ -2611,7 +2816,7 @@
       <c r="O21" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="P21" s="32" t="s">
         <v>64</v>
       </c>
       <c r="Q21" s="3" t="s">
@@ -2649,7 +2854,7 @@
       <c r="I22" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="32" t="s">
         <v>45</v>
       </c>
       <c r="K22" t="s">
@@ -2860,17 +3065,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="53.4571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="41.0952380952381" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.8190476190476" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="24.5428571428571" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.8190476190476" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.2761904761905" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="35.4571428571429" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="41.4571428571429" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="27.8190476190476" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="16.4571428571429" collapsed="true"/>
+    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53.4571428571429" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.0952380952381" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.8190476190476" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="24.5428571428571" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.8190476190476" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.2761904761905" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="35.4571428571429" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="41.4571428571429" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.8190476190476" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.4571428571429" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2971,13 +3176,13 @@
       <c r="H3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="29" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3012,7 +3217,7 @@
       <c r="J4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="28" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3026,7 +3231,7 @@
       <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="28" t="s">
         <v>66</v>
       </c>
       <c r="E5" t="s">
@@ -3146,7 +3351,7 @@
       <c r="H8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="33" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3322,36 +3527,36 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.4571428571429" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="52.8190476190476" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="38.9047619047619" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.2761904761905" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.4571428571429" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.6380952380952" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.1809523809524" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="22.3619047619048" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.8190476190476" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="15.3619047619048" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="26.6380952380952" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="15.3619047619048" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.7238095238095" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="17.4571428571429" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="26.3619047619048" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="23.5428571428571" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="18.7238095238095" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="16.4571428571429" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="13.0952380952381" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="13.5428571428571" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="13.9047619047619" collapsed="true"/>
+    <col min="1" max="1" width="16.4571428571429" customWidth="1"/>
+    <col min="2" max="2" width="52.8190476190476" customWidth="1"/>
+    <col min="3" max="3" width="38.9047619047619" customWidth="1"/>
+    <col min="4" max="4" width="18.2761904761905" customWidth="1"/>
+    <col min="5" max="5" width="23.4571428571429" customWidth="1"/>
+    <col min="6" max="6" width="17.6380952380952" customWidth="1"/>
+    <col min="7" max="7" width="41.1809523809524" customWidth="1"/>
+    <col min="8" max="8" width="22.3619047619048" customWidth="1"/>
+    <col min="9" max="9" width="24.8190476190476" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="15.3619047619048" customWidth="1"/>
+    <col min="12" max="12" width="26.6380952380952" customWidth="1"/>
+    <col min="13" max="13" width="15.3619047619048" customWidth="1"/>
+    <col min="14" max="14" width="13.7238095238095" customWidth="1"/>
+    <col min="16" max="16" width="17.4571428571429" customWidth="1"/>
+    <col min="18" max="18" width="26.3619047619048" customWidth="1"/>
+    <col min="19" max="19" width="23.5428571428571" customWidth="1"/>
+    <col min="20" max="20" width="18.7238095238095" customWidth="1"/>
+    <col min="21" max="21" width="16.4571428571429" customWidth="1"/>
+    <col min="22" max="22" width="13.0952380952381" customWidth="1"/>
+    <col min="23" max="23" width="13.5428571428571" customWidth="1"/>
+    <col min="24" max="24" width="13.9047619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -3564,16 +3769,16 @@
       <c r="L5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="13" t="s">
         <v>128</v>
       </c>
       <c r="N5" t="s">
         <v>129</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="14" t="s">
         <v>131</v>
       </c>
       <c r="Q5" t="s">
@@ -3617,16 +3822,16 @@
       <c r="L6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="13" t="s">
         <v>128</v>
       </c>
       <c r="N6" t="s">
         <v>129</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="14" t="s">
         <v>131</v>
       </c>
       <c r="Q6" t="s">
@@ -3670,16 +3875,16 @@
       <c r="L7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="13" t="s">
         <v>128</v>
       </c>
       <c r="N7" t="s">
         <v>129</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="14" t="s">
         <v>131</v>
       </c>
       <c r="Q7" t="s">
@@ -3723,8 +3928,8 @@
       <c r="L8" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10" t="s">
+      <c r="M8" s="13"/>
+      <c r="N8" s="14" t="s">
         <v>131</v>
       </c>
       <c r="O8" t="s">
@@ -3742,7 +3947,7 @@
       <c r="S8" t="s">
         <v>124</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" s="23" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3807,16 +4012,16 @@
       <c r="L10" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="13" t="s">
         <v>128</v>
       </c>
       <c r="N10" t="s">
         <v>129</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="14" t="s">
         <v>131</v>
       </c>
       <c r="Q10" t="s">
@@ -3869,7 +4074,7 @@
       <c r="O11">
         <v>1122</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="15">
         <v>29749</v>
       </c>
       <c r="Q11" t="s">
@@ -4024,7 +4229,7 @@
       <c r="L15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="16" t="s">
         <v>155</v>
       </c>
       <c r="N15" s="7" t="s">
@@ -4033,7 +4238,7 @@
       <c r="O15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="17" t="s">
         <v>156</v>
       </c>
       <c r="Q15" s="7" t="s">
@@ -4150,16 +4355,16 @@
       <c r="L18" t="s">
         <v>165</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="18" t="s">
         <v>166</v>
       </c>
       <c r="N18" t="s">
         <v>129</v>
       </c>
-      <c r="O18" s="14" t="s">
+      <c r="O18" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P18" s="19" t="s">
         <v>168</v>
       </c>
       <c r="Q18" t="s">
@@ -4195,7 +4400,7 @@
       <c r="AA18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AB18" s="18" t="s">
+      <c r="AB18" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4216,7 +4421,7 @@
         <v>171</v>
       </c>
       <c r="F19" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
         <v>63</v>
@@ -4236,16 +4441,16 @@
       <c r="L19" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="18" t="s">
         <v>176</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="P19" s="19" t="s">
         <v>131</v>
       </c>
       <c r="Q19" s="8" t="s">
@@ -4381,9 +4586,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="7" t="s">
-        <v>183</v>
+    <row r="23" spans="1:28">
+      <c r="A23" t="s">
+        <v>67</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
@@ -4394,19 +4599,82 @@
       <c r="D23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" t="s">
+        <v>151</v>
+      </c>
+      <c r="L23" t="s">
+        <v>165</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="N23" t="s">
+        <v>129</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>132</v>
+      </c>
+      <c r="R23" t="s">
+        <v>63</v>
+      </c>
+      <c r="S23" t="s">
+        <v>63</v>
+      </c>
+      <c r="T23" t="s">
+        <v>63</v>
+      </c>
+      <c r="U23" t="s">
+        <v>63</v>
+      </c>
+      <c r="V23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W23" t="s">
+        <v>63</v>
+      </c>
+      <c r="X23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB23" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>19</v>
@@ -4418,59 +4686,18 @@
         <v>21</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M24" s="12">
-        <v>500018</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>19</v>
@@ -4482,10 +4709,22 @@
         <v>21</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>63</v>
@@ -4493,8 +4732,8 @@
       <c r="L25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M25" s="12" t="s">
-        <v>155</v>
+      <c r="M25" s="16">
+        <v>500018</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>63</v>
@@ -4502,8 +4741,8 @@
       <c r="O25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P25" s="13" t="s">
-        <v>188</v>
+      <c r="P25" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>63</v>
@@ -4511,13 +4750,18 @@
       <c r="R25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="S25" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="S25" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>19</v>
@@ -4529,18 +4773,42 @@
         <v>21</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" t="s">
         <v>195</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>19</v>
@@ -4551,73 +4819,82 @@
       <c r="D27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" t="s">
+        <v>197</v>
+      </c>
+      <c r="K27" t="s">
+        <v>126</v>
+      </c>
+      <c r="L27" t="s">
         <v>198</v>
       </c>
-      <c r="F27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="6" t="s">
+      <c r="M27" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="N27" t="s">
+        <v>129</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>132</v>
+      </c>
+      <c r="R27" t="s">
+        <v>63</v>
+      </c>
+      <c r="S27" t="s">
+        <v>63</v>
+      </c>
+      <c r="T27" t="s">
+        <v>63</v>
+      </c>
+      <c r="U27" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="U27" s="10" t="s">
+      <c r="V27" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="V27" s="10" t="s">
+      <c r="W27" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="W27" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="X27" s="10" t="s">
+      <c r="X27" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y27" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="Y27" s="10" t="s">
+      <c r="Z27" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="7" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>19</v>
@@ -4629,72 +4906,18 @@
         <v>21</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" t="s">
-        <v>63</v>
-      </c>
       <c r="J28" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" t="s">
         <v>206</v>
-      </c>
-      <c r="K28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L28" t="s">
-        <v>63</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P28" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R28" t="s">
-        <v>157</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="T28" t="s">
-        <v>63</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="V28" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="W28" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="X28" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y28" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>19</v>
@@ -4705,73 +4928,82 @@
       <c r="D29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="N29" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>63</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="S29" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="T29" t="s">
+        <v>63</v>
+      </c>
+      <c r="U29" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="V29" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="W29" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="X29" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y29" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="U29" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="V29" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="W29" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="X29" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y29" s="13" t="s">
-        <v>212</v>
+      <c r="Z29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>19</v>
@@ -4783,72 +5015,72 @@
         <v>21</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U30" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="V30" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="W30" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="X30" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="F30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I30" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" s="6" t="s">
+      <c r="Y30" s="14" t="s">
         <v>219</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P30" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R30" t="s">
-        <v>157</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="T30" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="U30" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="V30" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="W30" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="X30" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y30" s="13" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>19</v>
@@ -4860,7 +5092,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F31" t="s">
         <v>63</v>
@@ -4875,16 +5107,16 @@
         <v>63</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>176</v>
+        <v>222</v>
+      </c>
+      <c r="K31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" t="s">
+        <v>63</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>63</v>
@@ -4892,8 +5124,8 @@
       <c r="O31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P31" s="13" t="s">
-        <v>228</v>
+      <c r="P31" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>63</v>
@@ -4901,31 +5133,31 @@
       <c r="R31" t="s">
         <v>157</v>
       </c>
-      <c r="S31" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="T31" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="U31" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="V31" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="W31" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="X31" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y31" s="13" t="s">
-        <v>203</v>
+      <c r="S31" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="T31" t="s">
+        <v>63</v>
+      </c>
+      <c r="U31" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="V31" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="W31" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="X31" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y31" s="14" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>19</v>
@@ -4937,9 +5169,9 @@
         <v>21</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F32" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
       </c>
       <c r="G32" t="s">
@@ -4952,7 +5184,7 @@
         <v>63</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>63</v>
@@ -4960,8 +5192,8 @@
       <c r="L32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M32" s="12" t="s">
-        <v>166</v>
+      <c r="M32" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>63</v>
@@ -4969,40 +5201,40 @@
       <c r="O32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P32" s="13" t="s">
-        <v>131</v>
+      <c r="P32" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>63</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="S32" s="17" t="s">
-        <v>233</v>
+        <v>63</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="T32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="U32" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="V32" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="W32" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="X32" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y32" s="13" t="s">
+      <c r="U32" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="V32" s="17" t="s">
         <v>212</v>
+      </c>
+      <c r="W32" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="X32" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y32" s="17" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
@@ -5013,10 +5245,10 @@
       <c r="D33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" t="s">
         <v>164</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" t="s">
         <v>63</v>
       </c>
       <c r="G33" t="s">
@@ -5032,49 +5264,932 @@
         <v>232</v>
       </c>
       <c r="K33" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="N33" t="s">
+        <v>63</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>63</v>
+      </c>
+      <c r="R33" t="s">
+        <v>63</v>
+      </c>
+      <c r="S33" t="s">
+        <v>63</v>
+      </c>
+      <c r="T33" t="s">
+        <v>63</v>
+      </c>
+      <c r="U33" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="V33" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="W33" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M33" s="12" t="s">
+      <c r="X33" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y33" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" t="s">
+        <v>239</v>
+      </c>
+      <c r="K34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L34" t="s">
+        <v>63</v>
+      </c>
+      <c r="M34" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="N33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="P33" s="13" t="s">
+      <c r="N34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>63</v>
+      </c>
+      <c r="R34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S34" t="s">
+        <v>63</v>
+      </c>
+      <c r="T34" t="s">
+        <v>63</v>
+      </c>
+      <c r="U34" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="V34" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="W34" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="X34" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y34" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="Q33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R33" s="7" t="s">
+      <c r="Q35" t="s">
+        <v>63</v>
+      </c>
+      <c r="R35" t="s">
         <v>157</v>
       </c>
-      <c r="S33" s="17" t="s">
+      <c r="S35" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="T35" t="s">
+        <v>63</v>
+      </c>
+      <c r="U35" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="V35" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="W35" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="X35" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y35" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" t="s">
+        <v>245</v>
+      </c>
+      <c r="K36" t="s">
+        <v>251</v>
+      </c>
+      <c r="L36" t="s">
+        <v>252</v>
+      </c>
+      <c r="M36" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="N36" t="s">
+        <v>129</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="P36" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="T33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="U33" s="10" t="s">
+      <c r="Q36" t="s">
+        <v>132</v>
+      </c>
+      <c r="R36" t="s">
+        <v>157</v>
+      </c>
+      <c r="S36" t="s">
+        <v>252</v>
+      </c>
+      <c r="T36" t="s">
+        <v>63</v>
+      </c>
+      <c r="U36" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="V36" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="W36" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="V33" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="W33" s="13" t="s">
+      <c r="X36" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y36" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R37" t="s">
+        <v>157</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="T37" t="s">
+        <v>63</v>
+      </c>
+      <c r="U37" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="V37" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="W37" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="X37" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y37" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>259</v>
+      </c>
+      <c r="F38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" t="s">
+        <v>260</v>
+      </c>
+      <c r="K38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L38" t="s">
+        <v>63</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="N38" t="s">
+        <v>63</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>63</v>
+      </c>
+      <c r="R38" t="s">
+        <v>63</v>
+      </c>
+      <c r="S38" t="s">
+        <v>63</v>
+      </c>
+      <c r="T38" t="s">
+        <v>63</v>
+      </c>
+      <c r="U38" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="V38" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="W38" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="X38" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y38" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" t="s">
+        <v>263</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>63</v>
+      </c>
+      <c r="R39" t="s">
+        <v>157</v>
+      </c>
+      <c r="S39" t="s">
+        <v>265</v>
+      </c>
+      <c r="T39" t="s">
+        <v>63</v>
+      </c>
+      <c r="U39" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="V39" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="W39" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="X39" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y39" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R40" t="s">
+        <v>157</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="T40" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="U40" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="X33" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y33" s="13" t="s">
+      <c r="V40" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="W40" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="X40" s="17" t="s">
         <v>212</v>
+      </c>
+      <c r="Y40" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R41" t="s">
+        <v>157</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T41" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="U41" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="V41" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="W41" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="X41" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y41" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="S42" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U42" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="V42" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="W42" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="X42" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y42" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>281</v>
+      </c>
+      <c r="F43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" t="s">
+        <v>282</v>
+      </c>
+      <c r="K43" t="s">
+        <v>251</v>
+      </c>
+      <c r="L43" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="N43" t="s">
+        <v>129</v>
+      </c>
+      <c r="O43" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="P43" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>132</v>
+      </c>
+      <c r="R43" t="s">
+        <v>157</v>
+      </c>
+      <c r="S43" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="T43" t="s">
+        <v>63</v>
+      </c>
+      <c r="U43" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="V43" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="W43" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="X43" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y43" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>286</v>
+      </c>
+      <c r="F44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" t="s">
+        <v>287</v>
+      </c>
+      <c r="K44" t="s">
+        <v>288</v>
+      </c>
+      <c r="L44" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="M44" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="N44" t="s">
+        <v>129</v>
+      </c>
+      <c r="O44" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>132</v>
+      </c>
+      <c r="R44" t="s">
+        <v>157</v>
+      </c>
+      <c r="S44" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="T44" t="s">
+        <v>63</v>
+      </c>
+      <c r="U44" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="V44" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="W44" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="X44" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y44" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5133,25 +6248,15 @@
     <hyperlink ref="C11" r:id="rId9" display="dhanya@yopmail.com"/>
     <hyperlink ref="L11" r:id="rId10" display="shardha@yopmail.com"/>
     <hyperlink ref="B12" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="B23" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D23" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C23" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B25" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D25" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C25" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B24" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D24" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C24" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B26" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D26" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C26" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B27" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D27" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C27" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B28" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D28" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C28" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B29" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D29" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C29" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="S28" r:id="rId11" display="ajay@yopmail.com"/>
     <hyperlink ref="B30" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D30" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C30" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
@@ -5159,14 +6264,18 @@
     <hyperlink ref="D31" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C31" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B32" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D32" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C32" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="D32" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="B24" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="C24" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="D24" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="B33" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="C33" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="D33" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="S31" r:id="rId11" display="ajay@yopmail.com"/>
+    <hyperlink ref="B41" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D41" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C41" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B42" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C42" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D42" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="B25" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C25" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D25" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="D18" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C18" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B18" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
@@ -5176,6 +6285,51 @@
     <hyperlink ref="C19" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="D19" r:id="rId12" display="Sah@6057" tooltip="mailto:Sah@6057"/>
     <hyperlink ref="L19" r:id="rId13" display="preet98@yopmail.com" tooltip="mailto:preet98@yopmail.com"/>
+    <hyperlink ref="D23" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C23" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B23" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="AB23" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="AA23" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D29" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C29" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B29" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="S29" r:id="rId14" display="gita1@yopmail.com"/>
+    <hyperlink ref="D38" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C38" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B38" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D27" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C27" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B27" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D36" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C36" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B36" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D43" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C43" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B43" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="L43" r:id="rId15" display="luckysingh@yopmail.com"/>
+    <hyperlink ref="S43" r:id="rId15" display="luckysingh@yopmail.com"/>
+    <hyperlink ref="D44" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C44" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B44" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="L44" r:id="rId16" display="ramthakur@yopmail.com"/>
+    <hyperlink ref="D33" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C33" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D34" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C34" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B34" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B35" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C35" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D35" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="B37" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C37" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D37" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="B39" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C39" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D39" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="B40" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D40" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C40" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12210" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ACS" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="301">
   <si>
     <t>TestData</t>
   </si>
@@ -342,6 +342,9 @@
     <t>Testdata12</t>
   </si>
   <si>
+    <t>Project_Admin_Name</t>
+  </si>
+  <si>
     <t>Zip Code</t>
   </si>
   <si>
@@ -384,7 +387,10 @@
     <t>Tx-testing4084</t>
   </si>
   <si>
-    <t>new_project1</t>
+    <t>Automation-testing</t>
+  </si>
+  <si>
+    <t>Amandeep Kamboj</t>
   </si>
   <si>
     <t>DB V</t>
@@ -453,7 +459,7 @@
     <t>Testdata14</t>
   </si>
   <si>
-    <t>Automation_project266</t>
+    <t>Automation_project</t>
   </si>
   <si>
     <t>Shardha</t>
@@ -465,6 +471,12 @@
     <t>shardha@yopmail.com</t>
   </si>
   <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>12/JUN/1981</t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
@@ -472,6 +484,51 @@
   </si>
   <si>
     <t>kumar</t>
+  </si>
+  <si>
+    <t>Ritika1</t>
+  </si>
+  <si>
+    <t>Abc5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Royiiiii</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sanjay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kumar</t>
+    </r>
+  </si>
+  <si>
+    <t>Sanajy@gamil.com</t>
   </si>
   <si>
     <t>Jack</t>
@@ -543,7 +600,7 @@
     </r>
   </si>
   <si>
-    <t>Tx-Testing2422</t>
+    <t>Automation-testing2653</t>
   </si>
   <si>
     <r>
@@ -949,15 +1006,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,32 +1050,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF454A4A"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1046,12 +1079,6 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1543,134 +1570,134 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1682,41 +1709,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1982,27 +2000,27 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90909090909091" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.5428571428571" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.4571428571429" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.4545454545455" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.0952380952381" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.0909090909091" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.1809523809524" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.6380952380952" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.6363636363636" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="19" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.7238095238095" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="64.2761904761905" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.1809523809524" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="102.180952380952" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.9047619047619" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.6380952380952" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.5428571428571" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25.8190476190476" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="64.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="102.181818181818" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.8181818181818" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:18">
+    <row r="1" ht="14.5" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:11">
+    <row r="2" ht="14.5" spans="1:11">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2093,7 +2111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:12">
+    <row r="3" ht="14.5" spans="1:12">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2127,11 +2145,11 @@
       <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:12">
+    <row r="4" ht="14.5" spans="1:12">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2169,7 +2187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:12">
+    <row r="5" ht="14.5" spans="1:12">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2203,7 +2221,7 @@
       <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="23" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2241,11 +2259,11 @@
       <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="23" t="s">
         <v>38</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="T6" s="31"/>
+      <c r="T6" s="23"/>
     </row>
     <row r="7" customHeight="1" spans="1:12">
       <c r="A7" t="s">
@@ -2313,7 +2331,7 @@
       <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K8" t="s">
@@ -2348,13 +2366,13 @@
       <c r="I9" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2386,7 +2404,7 @@
       <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K10" t="s">
@@ -2421,7 +2439,7 @@
       <c r="I11" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K11" t="s">
@@ -2459,13 +2477,13 @@
       <c r="I12" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="23" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2497,13 +2515,13 @@
       <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2535,7 +2553,7 @@
       <c r="I14" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K14" t="s">
@@ -2614,7 +2632,7 @@
       <c r="K16" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2690,7 +2708,7 @@
       <c r="K18" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="23" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2728,7 +2746,7 @@
       <c r="K19" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2798,7 +2816,7 @@
       <c r="I21" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K21" t="s">
@@ -2816,7 +2834,7 @@
       <c r="O21" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="32" t="s">
+      <c r="P21" s="11" t="s">
         <v>64</v>
       </c>
       <c r="Q21" s="3" t="s">
@@ -2854,7 +2872,7 @@
       <c r="I22" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K22" t="s">
@@ -3063,19 +3081,19 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="53.4571428571429" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.0952380952381" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.8190476190476" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="24.5428571428571" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.8190476190476" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.2761904761905" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="35.4571428571429" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="41.4571428571429" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.8190476190476" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.4571428571429" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="24.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="35.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="41.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.4545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3176,13 +3194,13 @@
       <c r="H3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="21" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3217,7 +3235,7 @@
       <c r="J4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="20" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3231,7 +3249,7 @@
       <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="20" t="s">
         <v>66</v>
       </c>
       <c r="E5" t="s">
@@ -3351,7 +3369,7 @@
       <c r="H8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="24" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3527,39 +3545,40 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="52.8190476190476" customWidth="1"/>
-    <col min="3" max="3" width="38.9047619047619" customWidth="1"/>
-    <col min="4" max="4" width="18.2761904761905" customWidth="1"/>
-    <col min="5" max="5" width="23.4571428571429" customWidth="1"/>
-    <col min="6" max="6" width="17.6380952380952" customWidth="1"/>
-    <col min="7" max="7" width="41.1809523809524" customWidth="1"/>
-    <col min="8" max="8" width="22.3619047619048" customWidth="1"/>
-    <col min="9" max="9" width="24.8190476190476" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="15.3619047619048" customWidth="1"/>
-    <col min="12" max="12" width="26.6380952380952" customWidth="1"/>
-    <col min="13" max="13" width="15.3619047619048" customWidth="1"/>
-    <col min="14" max="14" width="13.7238095238095" customWidth="1"/>
-    <col min="16" max="16" width="17.4571428571429" customWidth="1"/>
-    <col min="18" max="18" width="26.3619047619048" customWidth="1"/>
-    <col min="19" max="19" width="23.5428571428571" customWidth="1"/>
-    <col min="20" max="20" width="18.7238095238095" customWidth="1"/>
-    <col min="21" max="21" width="16.4571428571429" customWidth="1"/>
-    <col min="22" max="22" width="13.0952380952381" customWidth="1"/>
-    <col min="23" max="23" width="13.5428571428571" customWidth="1"/>
-    <col min="24" max="24" width="13.9047619047619" customWidth="1"/>
+    <col min="1" max="1" width="16.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="52.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="38.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="18.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="23.4545454545455" customWidth="1"/>
+    <col min="6" max="6" width="17.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="41.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="22.3636363636364" customWidth="1"/>
+    <col min="9" max="10" width="24.8181818181818" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="15.3636363636364" customWidth="1"/>
+    <col min="13" max="13" width="26.6363636363636" customWidth="1"/>
+    <col min="14" max="14" width="15.3636363636364" customWidth="1"/>
+    <col min="15" max="15" width="13.7272727272727" customWidth="1"/>
+    <col min="17" max="17" width="17.4545454545455" customWidth="1"/>
+    <col min="19" max="19" width="26.3636363636364" customWidth="1"/>
+    <col min="20" max="20" width="23.5454545454545" customWidth="1"/>
+    <col min="21" max="21" width="18.7272727272727" customWidth="1"/>
+    <col min="22" max="22" width="16.4545454545455" customWidth="1"/>
+    <col min="23" max="23" width="13.0909090909091" customWidth="1"/>
+    <col min="24" max="24" width="13.5454545454545" customWidth="1"/>
+    <col min="25" max="25" width="13.9090909090909" customWidth="1"/>
+    <col min="28" max="28" width="24.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3585,19 +3604,19 @@
         <v>80</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>108</v>
       </c>
       <c r="N1" t="s">
         <v>109</v>
@@ -3636,16 +3655,19 @@
         <v>120</v>
       </c>
       <c r="Z1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA1" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3659,7 +3681,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
         <v>63</v>
@@ -3673,8 +3695,71 @@
       <c r="I2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3688,7 +3773,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -3702,8 +3787,71 @@
       <c r="I3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3713,11 +3861,11 @@
       <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
         <v>63</v>
@@ -3729,10 +3877,73 @@
         <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>124</v>
+      </c>
+      <c r="J4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -3755,37 +3966,76 @@
         <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="L5" t="s">
         <v>128</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="N5" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="O5" t="s">
         <v>131</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="P5" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="R5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -3808,37 +4058,76 @@
         <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K6" t="s">
-        <v>126</v>
-      </c>
-      <c r="L6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="L6" t="s">
         <v>128</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="N6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="O6" t="s">
         <v>131</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="P6" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="R6" t="s">
+        <v>134</v>
+      </c>
+      <c r="S6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6" t="s">
+        <v>63</v>
+      </c>
+      <c r="W6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -3852,46 +4141,85 @@
         <v>85</v>
       </c>
       <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="N7" t="s">
-        <v>129</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="R7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -3905,53 +4233,83 @@
         <v>85</v>
       </c>
       <c r="E8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="P8" t="s">
         <v>134</v>
       </c>
-      <c r="K8" t="s">
+      <c r="Q8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" t="s">
         <v>126</v>
       </c>
-      <c r="L8" t="s">
-        <v>129</v>
-      </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="O8" t="s">
-        <v>132</v>
-      </c>
-      <c r="P8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>63</v>
-      </c>
-      <c r="R8" t="s">
-        <v>124</v>
-      </c>
-      <c r="S8" t="s">
-        <v>124</v>
-      </c>
-      <c r="T8" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="T8" t="s">
+        <v>126</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="V8" t="s">
+        <v>63</v>
+      </c>
+      <c r="W8" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -3959,10 +4317,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -3971,27 +4329,90 @@
         <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" t="s">
+        <v>63</v>
+      </c>
+      <c r="S9" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W9" t="s">
+        <v>63</v>
+      </c>
+      <c r="X9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -4006,82 +4427,160 @@
         <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="N10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N10" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="O10" t="s">
         <v>131</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="P10" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="R10" t="s">
+        <v>134</v>
+      </c>
+      <c r="S10" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
         <v>95</v>
       </c>
-      <c r="E11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" t="s">
-        <v>63</v>
+      <c r="I11" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>147</v>
-      </c>
-      <c r="L11" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="M11">
-        <v>456</v>
-      </c>
-      <c r="N11" t="s">
-        <v>129</v>
-      </c>
-      <c r="O11">
-        <v>1122</v>
-      </c>
-      <c r="P11" s="15">
-        <v>29749</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="L11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="M11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>131</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="R11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S11" t="s">
+        <v>63</v>
+      </c>
+      <c r="T11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -4095,7 +4594,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -4110,91 +4609,220 @@
         <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="K12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12">
+        <v>155</v>
+      </c>
+      <c r="M12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12">
         <v>0</v>
       </c>
-      <c r="N12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12">
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
-      <c r="P12" t="s">
-        <v>63</v>
-      </c>
       <c r="Q12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="R12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" t="s">
+        <v>63</v>
+      </c>
+      <c r="S13" t="s">
+        <v>63</v>
+      </c>
+      <c r="T13" t="s">
+        <v>63</v>
+      </c>
+      <c r="U13" t="s">
+        <v>63</v>
+      </c>
+      <c r="V13" t="s">
+        <v>63</v>
+      </c>
+      <c r="W13" t="s">
+        <v>63</v>
+      </c>
+      <c r="X13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" t="s">
+        <v>161</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14" t="s">
+        <v>63</v>
+      </c>
+      <c r="S14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T14" t="s">
+        <v>63</v>
+      </c>
+      <c r="U14" t="s">
+        <v>63</v>
+      </c>
+      <c r="V14" t="s">
+        <v>63</v>
+      </c>
+      <c r="W14" t="s">
+        <v>63</v>
+      </c>
+      <c r="X14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" t="s">
-        <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>19</v>
@@ -4206,7 +4834,7 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -4220,54 +4848,27 @@
       <c r="I15" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
         <v>63</v>
       </c>
       <c r="G16" t="s">
@@ -4280,15 +4881,12 @@
         <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>19</v>
@@ -4299,10 +4897,10 @@
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" t="s">
         <v>63</v>
       </c>
       <c r="G17" t="s">
@@ -4314,13 +4912,43 @@
       <c r="I17" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="J17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
@@ -4331,11 +4959,11 @@
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" t="s">
-        <v>133</v>
+      <c r="E18" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="G18" t="s">
         <v>63</v>
@@ -4347,152 +4975,53 @@
         <v>63</v>
       </c>
       <c r="J18" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
-      </c>
-      <c r="L18" t="s">
-        <v>165</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="N18" t="s">
-        <v>129</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>132</v>
-      </c>
-      <c r="R18" t="s">
-        <v>63</v>
-      </c>
-      <c r="S18" t="s">
-        <v>63</v>
-      </c>
-      <c r="T18" t="s">
-        <v>63</v>
-      </c>
-      <c r="U18" t="s">
-        <v>63</v>
-      </c>
-      <c r="V18" t="s">
-        <v>63</v>
-      </c>
-      <c r="W18" t="s">
-        <v>63</v>
-      </c>
-      <c r="X18" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AB18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="8" t="s">
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" t="s">
         <v>173</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="R19" t="s">
-        <v>63</v>
-      </c>
-      <c r="S19" t="s">
-        <v>63</v>
-      </c>
-      <c r="T19" t="s">
-        <v>63</v>
-      </c>
-      <c r="U19" t="s">
-        <v>63</v>
-      </c>
-      <c r="V19" t="s">
-        <v>63</v>
-      </c>
-      <c r="W19" t="s">
-        <v>63</v>
-      </c>
-      <c r="X19" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
@@ -4503,43 +5032,100 @@
       <c r="D20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20" t="s">
+        <v>175</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="R20" t="s">
+        <v>134</v>
+      </c>
+      <c r="S20" t="s">
+        <v>63</v>
+      </c>
+      <c r="T20" t="s">
+        <v>63</v>
+      </c>
+      <c r="U20" t="s">
+        <v>63</v>
+      </c>
+      <c r="V20" t="s">
+        <v>63</v>
+      </c>
+      <c r="W20" t="s">
+        <v>63</v>
+      </c>
+      <c r="X20" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA20" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="6" t="s">
+      <c r="AB20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="8" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
+      <c r="F21" t="s">
+        <v>182</v>
       </c>
       <c r="G21" t="s">
         <v>63</v>
@@ -4551,12 +5137,69 @@
         <v>63</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>63</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="S21" t="s">
+        <v>63</v>
+      </c>
+      <c r="T21" t="s">
+        <v>63</v>
+      </c>
+      <c r="U21" t="s">
+        <v>63</v>
+      </c>
+      <c r="V21" t="s">
+        <v>63</v>
+      </c>
+      <c r="W21" t="s">
+        <v>63</v>
+      </c>
+      <c r="X21" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
@@ -4568,7 +5211,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>63</v>
@@ -4583,12 +5226,15 @@
         <v>63</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="A23" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
@@ -4599,11 +5245,11 @@
       <c r="D23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" t="s">
-        <v>133</v>
+      <c r="E23" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>63</v>
@@ -4615,66 +5261,15 @@
         <v>63</v>
       </c>
       <c r="J23" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="K23" t="s">
-        <v>151</v>
-      </c>
-      <c r="L23" t="s">
-        <v>165</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="N23" t="s">
-        <v>129</v>
-      </c>
-      <c r="O23" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="P23" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>132</v>
-      </c>
-      <c r="R23" t="s">
-        <v>63</v>
-      </c>
-      <c r="S23" t="s">
-        <v>63</v>
-      </c>
-      <c r="T23" t="s">
-        <v>63</v>
-      </c>
-      <c r="U23" t="s">
-        <v>63</v>
-      </c>
-      <c r="V23" t="s">
-        <v>63</v>
-      </c>
-      <c r="W23" t="s">
-        <v>63</v>
-      </c>
-      <c r="X23" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB23" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="7" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>19</v>
@@ -4686,18 +5281,30 @@
         <v>21</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" t="s">
-        <v>186</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" t="s">
+        <v>67</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>19</v>
@@ -4708,60 +5315,85 @@
       <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" s="16">
-        <v>500018</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P25" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="E25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" t="s">
+        <v>154</v>
+      </c>
+      <c r="L25" t="s">
+        <v>155</v>
+      </c>
+      <c r="M25" t="s">
+        <v>175</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="O25" t="s">
+        <v>131</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="R25" t="s">
+        <v>134</v>
+      </c>
+      <c r="S25" t="s">
+        <v>63</v>
+      </c>
+      <c r="T25" t="s">
+        <v>63</v>
+      </c>
+      <c r="U25" t="s">
+        <v>63</v>
+      </c>
+      <c r="V25" t="s">
+        <v>63</v>
+      </c>
+      <c r="W25" t="s">
+        <v>63</v>
+      </c>
+      <c r="X25" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>19</v>
@@ -4773,42 +5405,21 @@
         <v>21</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P26" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
-      <c r="A27" t="s">
         <v>195</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>19</v>
@@ -4819,82 +5430,63 @@
       <c r="D27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="E27" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I27" t="s">
         <v>63</v>
       </c>
-      <c r="J27" t="s">
-        <v>197</v>
-      </c>
-      <c r="K27" t="s">
-        <v>126</v>
-      </c>
-      <c r="L27" t="s">
-        <v>198</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="N27" t="s">
-        <v>129</v>
-      </c>
-      <c r="O27" s="18" t="s">
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" s="13">
+        <v>500018</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S27" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P27" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>132</v>
-      </c>
-      <c r="R27" t="s">
-        <v>63</v>
-      </c>
-      <c r="S27" t="s">
-        <v>63</v>
-      </c>
-      <c r="T27" t="s">
-        <v>63</v>
-      </c>
-      <c r="U27" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="V27" s="17" t="s">
+      <c r="T27" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="W27" s="17" t="s">
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="X27" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y27" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>19</v>
@@ -4906,18 +5498,45 @@
         <v>21</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="T28" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F28" s="6" t="s">
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" t="s">
         <v>205</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
-      <c r="A29" t="s">
-        <v>206</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>19</v>
@@ -4929,81 +5548,84 @@
         <v>21</v>
       </c>
       <c r="E29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" t="s">
         <v>207</v>
       </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
+        <v>128</v>
+      </c>
+      <c r="M29" t="s">
         <v>208</v>
       </c>
-      <c r="K29" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29" t="s">
-        <v>63</v>
-      </c>
-      <c r="M29" s="18" t="s">
+      <c r="N29" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="N29" t="s">
-        <v>63</v>
-      </c>
       <c r="O29" t="s">
-        <v>63</v>
-      </c>
-      <c r="P29" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="R29" t="s">
+        <v>134</v>
+      </c>
+      <c r="S29" t="s">
+        <v>63</v>
+      </c>
+      <c r="T29" t="s">
+        <v>63</v>
+      </c>
+      <c r="U29" t="s">
+        <v>63</v>
+      </c>
+      <c r="V29" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="Q29" t="s">
-        <v>63</v>
-      </c>
-      <c r="R29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="S29" s="24" t="s">
+      <c r="W29" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="T29" t="s">
-        <v>63</v>
-      </c>
-      <c r="U29" s="14" t="s">
+      <c r="X29" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="V29" s="17" t="s">
+      <c r="Y29" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z29" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="X29" s="17" t="s">
+      <c r="AA29" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Y29" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>19</v>
@@ -5015,72 +5637,21 @@
         <v>21</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I30" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" t="s">
         <v>216</v>
-      </c>
-      <c r="F30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I30" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="U30" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="V30" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="W30" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="X30" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y30" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>19</v>
@@ -5091,73 +5662,85 @@
       <c r="D31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" t="s">
+        <v>218</v>
+      </c>
+      <c r="L31" t="s">
+        <v>63</v>
+      </c>
+      <c r="M31" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q31" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="R31" t="s">
+        <v>63</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="T31" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="U31" t="s">
+        <v>63</v>
+      </c>
+      <c r="V31" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31" t="s">
-        <v>63</v>
-      </c>
-      <c r="J31" s="6" t="s">
+      <c r="W31" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="K31" t="s">
-        <v>63</v>
-      </c>
-      <c r="L31" t="s">
-        <v>63</v>
-      </c>
-      <c r="M31" s="16" t="s">
+      <c r="X31" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y31" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="N31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P31" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R31" t="s">
-        <v>157</v>
-      </c>
-      <c r="S31" s="4" t="s">
+      <c r="Z31" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="T31" t="s">
-        <v>63</v>
-      </c>
-      <c r="U31" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="V31" s="14" t="s">
+      <c r="AA31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="W31" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="X31" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y31" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
-      <c r="A32" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>19</v>
@@ -5169,72 +5752,75 @@
         <v>21</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V32" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="W32" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="X32" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y32" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F32" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" t="s">
-        <v>63</v>
-      </c>
-      <c r="J32" s="6" t="s">
+      <c r="Z32" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="U32" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="V32" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="W32" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="X32" s="17" t="s">
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Y32" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
-      <c r="A33" t="s">
-        <v>231</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
@@ -5245,8 +5831,8 @@
       <c r="D33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E33" t="s">
-        <v>164</v>
+      <c r="E33" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="F33" t="s">
         <v>63</v>
@@ -5261,56 +5847,59 @@
         <v>63</v>
       </c>
       <c r="J33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="K33" t="s">
-        <v>63</v>
-      </c>
       <c r="L33" t="s">
         <v>63</v>
       </c>
-      <c r="M33" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="N33" t="s">
-        <v>63</v>
-      </c>
-      <c r="O33" t="s">
-        <v>63</v>
-      </c>
-      <c r="P33" s="14" t="s">
+      <c r="M33" t="s">
+        <v>63</v>
+      </c>
+      <c r="N33" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="Q33" t="s">
-        <v>63</v>
-      </c>
-      <c r="R33" t="s">
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="R33" s="7" t="s">
         <v>63</v>
       </c>
       <c r="S33" t="s">
-        <v>63</v>
-      </c>
-      <c r="T33" t="s">
-        <v>63</v>
-      </c>
-      <c r="U33" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="T33" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="V33" s="17" t="s">
+      <c r="U33" t="s">
+        <v>63</v>
+      </c>
+      <c r="V33" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="W33" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="W33" s="17" t="s">
+      <c r="X33" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="X33" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y33" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25">
-      <c r="A34" t="s">
+      <c r="Y33" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z33" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -5322,7 +5911,7 @@
       <c r="D34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="6" t="s">
         <v>238</v>
       </c>
       <c r="F34" t="s">
@@ -5338,134 +5927,140 @@
         <v>63</v>
       </c>
       <c r="J34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="K34" t="s">
-        <v>63</v>
-      </c>
-      <c r="L34" t="s">
-        <v>63</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="N34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O34" t="s">
-        <v>63</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>63</v>
-      </c>
-      <c r="R34" t="s">
-        <v>63</v>
-      </c>
-      <c r="S34" t="s">
-        <v>63</v>
-      </c>
-      <c r="T34" t="s">
-        <v>63</v>
-      </c>
-      <c r="U34" s="14" t="s">
+      <c r="L34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V34" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="W34" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="X34" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y34" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="V34" s="17" t="s">
+      <c r="Z34" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" t="s">
         <v>241</v>
       </c>
-      <c r="W34" s="17" t="s">
+      <c r="B35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" t="s">
         <v>242</v>
       </c>
-      <c r="X34" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y34" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25">
-      <c r="A35" s="9" t="s">
+      <c r="L35" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" t="s">
+        <v>63</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q35" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="12" t="s">
+      <c r="R35" t="s">
+        <v>63</v>
+      </c>
+      <c r="S35" t="s">
+        <v>63</v>
+      </c>
+      <c r="T35" t="s">
+        <v>63</v>
+      </c>
+      <c r="U35" t="s">
+        <v>63</v>
+      </c>
+      <c r="V35" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" t="s">
-        <v>63</v>
-      </c>
-      <c r="I35" t="s">
-        <v>63</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="W35" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="K35" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L35" t="s">
-        <v>63</v>
-      </c>
-      <c r="M35" s="20" t="s">
+      <c r="X35" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="N35" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P35" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>63</v>
-      </c>
-      <c r="R35" t="s">
-        <v>157</v>
-      </c>
-      <c r="S35" s="25" t="s">
+      <c r="Y35" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z35" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" t="s">
         <v>247</v>
-      </c>
-      <c r="T35" t="s">
-        <v>63</v>
-      </c>
-      <c r="U35" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="V35" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="W35" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="X35" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y35" s="21" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28">
-      <c r="A36" t="s">
-        <v>249</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -5477,158 +6072,155 @@
         <v>21</v>
       </c>
       <c r="E36" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" t="s">
+        <v>63</v>
+      </c>
+      <c r="M36" t="s">
+        <v>63</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="R36" t="s">
+        <v>63</v>
+      </c>
+      <c r="S36" t="s">
+        <v>63</v>
+      </c>
+      <c r="T36" t="s">
+        <v>63</v>
+      </c>
+      <c r="U36" t="s">
+        <v>63</v>
+      </c>
+      <c r="V36" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="F36" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" t="s">
-        <v>245</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="W36" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="L36" t="s">
+      <c r="X36" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="M36" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="N36" t="s">
-        <v>129</v>
-      </c>
-      <c r="O36" s="18" t="s">
+      <c r="Y36" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z36" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P36" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>132</v>
-      </c>
-      <c r="R36" t="s">
-        <v>157</v>
-      </c>
-      <c r="S36" t="s">
-        <v>252</v>
-      </c>
-      <c r="T36" t="s">
-        <v>63</v>
-      </c>
-      <c r="U36" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="V36" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="W36" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="X36" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y36" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25">
-      <c r="A37" s="9" t="s">
+      <c r="B37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="12" t="s">
+      <c r="F37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" t="s">
         <v>255</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37" t="s">
-        <v>63</v>
-      </c>
-      <c r="I37" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="12" t="s">
+      <c r="L37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37" t="s">
+        <v>63</v>
+      </c>
+      <c r="N37" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="K37" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L37" t="s">
-        <v>63</v>
-      </c>
-      <c r="M37" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>63</v>
+      <c r="O37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="R37" t="s">
-        <v>157</v>
-      </c>
-      <c r="S37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S37" t="s">
+        <v>167</v>
+      </c>
+      <c r="T37" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="T37" t="s">
-        <v>63</v>
-      </c>
-      <c r="U37" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="V37" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="W37" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="X37" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y37" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="U37" t="s">
+        <v>63</v>
+      </c>
+      <c r="V37" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="W37" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="X37" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y37" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z37" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>19</v>
@@ -5640,7 +6232,7 @@
         <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F38" t="s">
         <v>63</v>
@@ -5655,55 +6247,55 @@
         <v>63</v>
       </c>
       <c r="J38" t="s">
-        <v>260</v>
+        <v>63</v>
       </c>
       <c r="K38" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s">
-        <v>63</v>
-      </c>
-      <c r="M38" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="N38" t="s">
-        <v>63</v>
+        <v>261</v>
+      </c>
+      <c r="M38" t="s">
+        <v>262</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
-      </c>
-      <c r="P38" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="Q38" t="s">
-        <v>63</v>
+      <c r="P38" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q38" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="R38" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="S38" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="T38" t="s">
-        <v>63</v>
-      </c>
-      <c r="U38" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="V38" s="17" t="s">
-        <v>225</v>
+        <v>262</v>
+      </c>
+      <c r="U38" t="s">
+        <v>63</v>
+      </c>
+      <c r="V38" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="W38" s="17" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="X38" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y38" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>63</v>
+        <v>240</v>
+      </c>
+      <c r="Z38" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="AA38" t="s">
         <v>63</v>
@@ -5711,24 +6303,27 @@
       <c r="AB38" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
-      <c r="A39" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="AC38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E39" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>63</v>
       </c>
       <c r="G39" t="s">
@@ -5741,56 +6336,59 @@
         <v>63</v>
       </c>
       <c r="J39" t="s">
-        <v>263</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L39" t="s">
-        <v>63</v>
-      </c>
-      <c r="M39" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P39" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>63</v>
+        <v>63</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q39" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="R39" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="S39" t="s">
-        <v>265</v>
-      </c>
-      <c r="T39" t="s">
-        <v>63</v>
-      </c>
-      <c r="U39" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="V39" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="T39" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="W39" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="X39" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y39" s="14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25">
-      <c r="A40" s="7" t="s">
+      <c r="U39" t="s">
+        <v>63</v>
+      </c>
+      <c r="V39" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="W39" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="X39" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y39" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z39" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40" t="s">
         <v>268</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -5802,7 +6400,7 @@
       <c r="D40" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" t="s">
         <v>269</v>
       </c>
       <c r="F40" t="s">
@@ -5817,58 +6415,70 @@
       <c r="I40" t="s">
         <v>63</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" t="s">
         <v>270</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M40" s="16" t="s">
+      <c r="L40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M40" t="s">
+        <v>63</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q40" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="R40" t="s">
+        <v>63</v>
+      </c>
+      <c r="S40" t="s">
+        <v>63</v>
+      </c>
+      <c r="T40" t="s">
+        <v>63</v>
+      </c>
+      <c r="U40" t="s">
+        <v>63</v>
+      </c>
+      <c r="V40" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="W40" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="X40" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y40" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z40" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P40" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S40" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="T40" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="U40" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="V40" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="W40" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="X40" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y40" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25">
-      <c r="A41" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>19</v>
@@ -5876,74 +6486,77 @@
       <c r="C41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E41" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41" t="s">
+        <v>273</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M41" t="s">
+        <v>63</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q41" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="F41" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" t="s">
-        <v>63</v>
-      </c>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-      <c r="J41" s="6" t="s">
+      <c r="R41" t="s">
+        <v>63</v>
+      </c>
+      <c r="S41" t="s">
+        <v>167</v>
+      </c>
+      <c r="T41" t="s">
         <v>275</v>
       </c>
-      <c r="K41" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M41" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P41" s="17" t="s">
+      <c r="U41" t="s">
+        <v>63</v>
+      </c>
+      <c r="V41" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="Q41" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R41" t="s">
-        <v>157</v>
-      </c>
-      <c r="S41" s="6" t="s">
+      <c r="W41" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="T41" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="U41" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="V41" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="W41" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="X41" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y41" s="17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="X41" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y41" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z41" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" s="7" t="s">
         <v>278</v>
       </c>
@@ -5959,7 +6572,7 @@
       <c r="E42" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" t="s">
         <v>63</v>
       </c>
       <c r="G42" t="s">
@@ -5971,58 +6584,61 @@
       <c r="I42" t="s">
         <v>63</v>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>63</v>
+      <c r="J42" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M42" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="N42" s="7" t="s">
-        <v>63</v>
+      <c r="M42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>281</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P42" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>63</v>
+      <c r="P42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q42" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="S42" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="T42" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="U42" s="14" t="s">
-        <v>211</v>
+        <v>63</v>
+      </c>
+      <c r="S42" t="s">
+        <v>167</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="U42" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="V42" s="17" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="W42" s="17" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="X42" s="17" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="Y42" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28">
-      <c r="A43" t="s">
-        <v>280</v>
+        <v>222</v>
+      </c>
+      <c r="Z42" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>19</v>
@@ -6033,8 +6649,8 @@
       <c r="D43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E43" t="s">
-        <v>281</v>
+      <c r="E43" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="F43" t="s">
         <v>63</v>
@@ -6049,66 +6665,60 @@
         <v>63</v>
       </c>
       <c r="J43" t="s">
-        <v>282</v>
-      </c>
-      <c r="K43" t="s">
-        <v>251</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="M43" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="N43" t="s">
-        <v>129</v>
-      </c>
-      <c r="O43" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="P43" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>132</v>
-      </c>
-      <c r="R43" t="s">
-        <v>157</v>
-      </c>
-      <c r="S43" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="T43" t="s">
-        <v>63</v>
-      </c>
-      <c r="U43" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="V43" s="17" t="s">
-        <v>212</v>
+        <v>63</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S43" t="s">
+        <v>167</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="U43" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V43" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="W43" s="17" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="X43" s="17" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Y43" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28">
-      <c r="A44" t="s">
-        <v>285</v>
+        <v>228</v>
+      </c>
+      <c r="Z43" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>19</v>
@@ -6119,10 +6729,10 @@
       <c r="D44" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E44" t="s">
-        <v>286</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E44" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>63</v>
       </c>
       <c r="G44" t="s">
@@ -6135,60 +6745,232 @@
         <v>63</v>
       </c>
       <c r="J44" t="s">
-        <v>287</v>
-      </c>
-      <c r="K44" t="s">
-        <v>288</v>
-      </c>
-      <c r="L44" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="M44" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N44" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="N44" t="s">
-        <v>129</v>
-      </c>
-      <c r="O44" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="P44" s="19" t="s">
+      <c r="O44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q44" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="T44" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="W44" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="X44" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y44" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z44" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="A45" t="s">
         <v>290</v>
       </c>
-      <c r="Q44" t="s">
-        <v>132</v>
-      </c>
-      <c r="R44" t="s">
-        <v>157</v>
-      </c>
-      <c r="S44" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="T44" t="s">
-        <v>63</v>
-      </c>
-      <c r="U44" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="V44" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="W44" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="X44" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y44" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB44" t="s">
+      <c r="B45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>291</v>
+      </c>
+      <c r="F45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J45" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45" t="s">
+        <v>292</v>
+      </c>
+      <c r="L45" t="s">
+        <v>261</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="O45" t="s">
+        <v>131</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q45" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="R45" t="s">
+        <v>134</v>
+      </c>
+      <c r="S45" t="s">
+        <v>167</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="U45" t="s">
+        <v>63</v>
+      </c>
+      <c r="V45" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="W45" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="X45" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y45" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z45" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>296</v>
+      </c>
+      <c r="F46" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46" t="s">
+        <v>297</v>
+      </c>
+      <c r="L46" t="s">
+        <v>298</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="O46" t="s">
+        <v>131</v>
+      </c>
+      <c r="P46" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q46" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="R46" t="s">
+        <v>134</v>
+      </c>
+      <c r="S46" t="s">
+        <v>167</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="U46" t="s">
+        <v>63</v>
+      </c>
+      <c r="V46" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="W46" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="X46" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y46" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z46" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC46" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6206,51 +6988,48 @@
     <hyperlink ref="B5" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="C5" r:id="rId4" display="amandeep.kamboj@testingxperts.com"/>
     <hyperlink ref="D5" r:id="rId5" display="Kdeep@98"/>
-    <hyperlink ref="L5" r:id="rId6" display="Shyam@gamil.com" tooltip="mailto:Shyam@gamil.com"/>
+    <hyperlink ref="M5" r:id="rId6" display="Shyam@gamil.com" tooltip="mailto:Shyam@gamil.com"/>
     <hyperlink ref="B6" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="C6" r:id="rId4" display="amandeep.kamboj@testingxperts.com"/>
     <hyperlink ref="D6" r:id="rId5" display="Kdeep@98"/>
     <hyperlink ref="B7" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="C7" r:id="rId4" display="amandeep.kamboj@testingxperts.com"/>
     <hyperlink ref="D7" r:id="rId5" display="Kdeep@98"/>
-    <hyperlink ref="L6" r:id="rId6" display="Shyam@gamil.com" tooltip="mailto:Shyam@gamil.com"/>
-    <hyperlink ref="L7" r:id="rId6" display="Shyam@gamil.com" tooltip="mailto:Shyam@gamil.com"/>
+    <hyperlink ref="M6" r:id="rId6" display="Shyam@gamil.com" tooltip="mailto:Shyam@gamil.com"/>
+    <hyperlink ref="M7" r:id="rId6" display="Shyam@gamil.com" tooltip="mailto:Shyam@gamil.com"/>
     <hyperlink ref="B9" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="B10" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="B13" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D13" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C13" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B14" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="B15" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D15" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C15" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="S15" r:id="rId7" display="reddy2@yopmail.com"/>
     <hyperlink ref="B16" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D16" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C16" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B17" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D17" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C17" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B20" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D20" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C20" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B21" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D21" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C21" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="T17" r:id="rId7" display="reddy2@yopmail.com"/>
+    <hyperlink ref="B18" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D18" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C18" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B19" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D19" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C19" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B22" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D22" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C22" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="L10" r:id="rId8" display="rahul@gamil.com"/>
+    <hyperlink ref="B23" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D23" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C23" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B24" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D24" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C24" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="M10" r:id="rId8" display="rahul@gamil.com"/>
     <hyperlink ref="B8" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="C8" r:id="rId4" display="amandeep.kamboj@testingxperts.com"/>
     <hyperlink ref="D8" r:id="rId5" display="Kdeep@98"/>
     <hyperlink ref="B11" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="C11" r:id="rId9" display="dhanya@yopmail.com"/>
-    <hyperlink ref="L11" r:id="rId10" display="shardha@yopmail.com"/>
+    <hyperlink ref="G11" r:id="rId9" display="dhanya@yopmail.com" tooltip="mailto:dhanya@yopmail.com"/>
+    <hyperlink ref="M11" r:id="rId10" display="shardha@yopmail.com"/>
     <hyperlink ref="B12" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="B24" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D24" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C24" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B26" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D26" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C26" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
@@ -6260,76 +7039,86 @@
     <hyperlink ref="B30" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D30" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C30" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B31" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D31" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C31" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B32" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D32" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C32" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="S31" r:id="rId11" display="ajay@yopmail.com"/>
-    <hyperlink ref="B41" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D41" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C41" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B42" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="C42" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="D42" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="B25" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="C25" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B33" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D33" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C33" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B34" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D34" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C34" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="T33" r:id="rId11" display="ajay@yopmail.com"/>
+    <hyperlink ref="B43" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D43" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C43" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B44" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C44" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D44" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="B27" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C27" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D27" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="D20" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C20" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B20" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="AC20" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="AB20" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B21" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C21" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D21" r:id="rId12" display="Sah@6057" tooltip="mailto:Sah@6057"/>
+    <hyperlink ref="M21" r:id="rId13" display="preet98@yopmail.com" tooltip="mailto:preet98@yopmail.com"/>
     <hyperlink ref="D25" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="D18" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C18" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B18" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="AB18" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="AA18" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B19" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="C19" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="D19" r:id="rId12" display="Sah@6057" tooltip="mailto:Sah@6057"/>
-    <hyperlink ref="L19" r:id="rId13" display="preet98@yopmail.com" tooltip="mailto:preet98@yopmail.com"/>
-    <hyperlink ref="D23" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C23" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B23" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="AB23" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="AA23" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="C25" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B25" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="AC25" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="AB25" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D31" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C31" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B31" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="T31" r:id="rId14" display="gita1@yopmail.com"/>
+    <hyperlink ref="D40" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C40" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B40" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D29" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C29" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B29" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="S29" r:id="rId14" display="gita1@yopmail.com"/>
     <hyperlink ref="D38" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C38" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B38" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D27" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C27" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B27" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D45" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C45" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B45" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="M45" r:id="rId15" display="luckysingh@yopmail.com"/>
+    <hyperlink ref="T45" r:id="rId15" display="luckysingh@yopmail.com"/>
+    <hyperlink ref="D46" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C46" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B46" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="M46" r:id="rId16" display="ramthakur@yopmail.com"/>
+    <hyperlink ref="D35" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C35" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B35" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D36" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C36" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B36" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D43" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C43" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B43" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="L43" r:id="rId15" display="luckysingh@yopmail.com"/>
-    <hyperlink ref="S43" r:id="rId15" display="luckysingh@yopmail.com"/>
-    <hyperlink ref="D44" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C44" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B44" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="L44" r:id="rId16" display="ramthakur@yopmail.com"/>
-    <hyperlink ref="D33" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C33" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B33" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D34" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C34" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B34" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="B35" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="C35" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="D35" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="B37" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="C37" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="D37" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="B39" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="C39" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="D39" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="B40" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D40" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C40" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B41" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C41" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D41" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="B42" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D42" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C42" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D11" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C11" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="AB11" r:id="rId9" display="dhanya@yopmail.com" tooltip="mailto:dhanya@yopmail.com"/>
+    <hyperlink ref="B13" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="B14" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D14" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C14" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="301">
   <si>
     <t>TestData</t>
   </si>
@@ -1013,7 +1013,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,6 +1061,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF040C28"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1570,13 +1576,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1585,115 +1588,118 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1714,9 +1720,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1728,13 +1731,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3545,10 +3549,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AE46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3578,7 +3582,7 @@
     <col min="28" max="28" width="24.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" ht="19" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3609,63 +3613,65 @@
       <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="19"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" t="s">
@@ -4278,7 +4284,7 @@
       <c r="T8" t="s">
         <v>126</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="U8" s="14" t="s">
         <v>137</v>
       </c>
       <c r="V8" t="s">
@@ -4322,6 +4328,9 @@
       <c r="D9" t="s">
         <v>139</v>
       </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
       <c r="F9" t="s">
         <v>63</v>
       </c>
@@ -4525,7 +4534,7 @@
       <c r="L11" t="s">
         <v>149</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N11" s="9" t="s">
@@ -4537,7 +4546,7 @@
       <c r="P11" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="Q11" s="16" t="s">
+      <c r="Q11" s="15" t="s">
         <v>152</v>
       </c>
       <c r="R11" t="s">
@@ -4580,7 +4589,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -4633,6 +4642,42 @@
         <v>63</v>
       </c>
       <c r="R12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S12" t="s">
+        <v>63</v>
+      </c>
+      <c r="T12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U12" t="s">
+        <v>63</v>
+      </c>
+      <c r="V12" t="s">
+        <v>63</v>
+      </c>
+      <c r="W12" t="s">
+        <v>63</v>
+      </c>
+      <c r="X12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4759,7 +4804,7 @@
       <c r="J14" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="8" t="s">
         <v>159</v>
       </c>
       <c r="L14" t="s">
@@ -4820,7 +4865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -4854,8 +4899,65 @@
       <c r="K15" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="L15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD15" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -4868,6 +4970,9 @@
       <c r="D16" t="s">
         <v>88</v>
       </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
       <c r="F16" t="s">
         <v>63</v>
       </c>
@@ -4883,8 +4988,68 @@
       <c r="J16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="K16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD16" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -4924,7 +5089,7 @@
       <c r="M17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="N17" s="12" t="s">
         <v>165</v>
       </c>
       <c r="O17" s="7" t="s">
@@ -4933,7 +5098,7 @@
       <c r="P17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="17" t="s">
+      <c r="Q17" s="16" t="s">
         <v>166</v>
       </c>
       <c r="R17" s="7" t="s">
@@ -4945,8 +5110,38 @@
       <c r="T17" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="U17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD17" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -4983,8 +5178,62 @@
       <c r="L18" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD18" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" s="7" t="s">
         <v>61</v>
       </c>
@@ -5018,8 +5267,65 @@
       <c r="K19" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="L19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD19" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -5059,16 +5365,16 @@
       <c r="M20" t="s">
         <v>175</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="N20" s="13" t="s">
         <v>176</v>
       </c>
       <c r="O20" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="14" t="s">
+      <c r="P20" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="Q20" s="16" t="s">
+      <c r="Q20" s="15" t="s">
         <v>178</v>
       </c>
       <c r="R20" t="s">
@@ -5107,8 +5413,11 @@
       <c r="AC20" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="8" t="s">
         <v>180</v>
       </c>
@@ -5148,16 +5457,16 @@
       <c r="M21" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="13" t="s">
         <v>186</v>
       </c>
       <c r="O21" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="P21" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="Q21" s="16" t="s">
+      <c r="Q21" s="15" t="s">
         <v>133</v>
       </c>
       <c r="R21" s="8" t="s">
@@ -5196,8 +5505,11 @@
       <c r="AC21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="AD21" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="7" t="s">
         <v>75</v>
       </c>
@@ -5231,8 +5543,65 @@
       <c r="K22" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD22" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" s="7" t="s">
         <v>70</v>
       </c>
@@ -5266,8 +5635,65 @@
       <c r="K23" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD23" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" s="7" t="s">
         <v>62</v>
       </c>
@@ -5301,8 +5727,65 @@
       <c r="K24" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="L24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD24" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -5342,16 +5825,16 @@
       <c r="M25" t="s">
         <v>175</v>
       </c>
-      <c r="N25" s="14" t="s">
+      <c r="N25" s="13" t="s">
         <v>176</v>
       </c>
       <c r="O25" t="s">
         <v>131</v>
       </c>
-      <c r="P25" s="14" t="s">
+      <c r="P25" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="Q25" s="16" t="s">
+      <c r="Q25" s="15" t="s">
         <v>178</v>
       </c>
       <c r="R25" t="s">
@@ -5390,8 +5873,11 @@
       <c r="AC25" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="AD25" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" s="7" t="s">
         <v>194</v>
       </c>
@@ -5413,11 +5899,77 @@
       <c r="G26" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="H26" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="I26" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="J26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD26" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="7" t="s">
         <v>197</v>
       </c>
@@ -5457,7 +6009,7 @@
       <c r="M27" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="12">
         <v>500018</v>
       </c>
       <c r="O27" s="7" t="s">
@@ -5466,7 +6018,7 @@
       <c r="P27" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q27" s="17" t="s">
+      <c r="Q27" s="16" t="s">
         <v>199</v>
       </c>
       <c r="R27" s="7" t="s">
@@ -5478,13 +6030,38 @@
       <c r="T27" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" s="7" t="s">
         <v>201</v>
       </c>
@@ -5500,7 +6077,19 @@
       <c r="E28" s="6" t="s">
         <v>202</v>
       </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
       <c r="I28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" t="s">
         <v>63</v>
       </c>
       <c r="K28" s="6" t="s">
@@ -5512,7 +6101,7 @@
       <c r="M28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N28" s="13" t="s">
+      <c r="N28" s="12" t="s">
         <v>165</v>
       </c>
       <c r="O28" s="7" t="s">
@@ -5521,7 +6110,7 @@
       <c r="P28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q28" s="17" t="s">
+      <c r="Q28" s="16" t="s">
         <v>199</v>
       </c>
       <c r="R28" s="7" t="s">
@@ -5533,8 +6122,38 @@
       <c r="T28" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="29" spans="1:29">
+      <c r="U28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD28" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
         <v>205</v>
       </c>
@@ -5580,10 +6199,10 @@
       <c r="O29" t="s">
         <v>131</v>
       </c>
-      <c r="P29" s="14" t="s">
+      <c r="P29" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="Q29" s="16" t="s">
+      <c r="Q29" s="15" t="s">
         <v>178</v>
       </c>
       <c r="R29" t="s">
@@ -5601,16 +6220,16 @@
       <c r="V29" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="W29" s="17" t="s">
+      <c r="W29" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="X29" s="17" t="s">
+      <c r="X29" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="Y29" s="17" t="s">
+      <c r="Y29" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="Z29" s="17" t="s">
+      <c r="Z29" s="16" t="s">
         <v>212</v>
       </c>
       <c r="AA29" t="s">
@@ -5622,8 +6241,11 @@
       <c r="AC29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="AD29" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" s="7" t="s">
         <v>213</v>
       </c>
@@ -5642,14 +6264,80 @@
       <c r="F30" s="6" t="s">
         <v>215</v>
       </c>
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
       <c r="I30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" t="s">
         <v>63</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="31" spans="1:29">
+      <c r="L30" t="s">
+        <v>63</v>
+      </c>
+      <c r="M30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>63</v>
+      </c>
+      <c r="R30" t="s">
+        <v>63</v>
+      </c>
+      <c r="S30" t="s">
+        <v>63</v>
+      </c>
+      <c r="T30" t="s">
+        <v>63</v>
+      </c>
+      <c r="U30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD30" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
         <v>216</v>
       </c>
@@ -5689,7 +6377,7 @@
       <c r="M31" t="s">
         <v>63</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="N31" s="13" t="s">
         <v>186</v>
       </c>
       <c r="O31" t="s">
@@ -5698,7 +6386,7 @@
       <c r="P31" t="s">
         <v>63</v>
       </c>
-      <c r="Q31" s="16" t="s">
+      <c r="Q31" s="15" t="s">
         <v>219</v>
       </c>
       <c r="R31" t="s">
@@ -5707,7 +6395,7 @@
       <c r="S31" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="T31" s="18" t="s">
+      <c r="T31" s="17" t="s">
         <v>220</v>
       </c>
       <c r="U31" t="s">
@@ -5716,16 +6404,16 @@
       <c r="V31" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="W31" s="17" t="s">
+      <c r="W31" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="X31" s="17" t="s">
+      <c r="X31" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="Y31" s="17" t="s">
+      <c r="Y31" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="Z31" s="17" t="s">
+      <c r="Z31" s="16" t="s">
         <v>224</v>
       </c>
       <c r="AA31" t="s">
@@ -5737,8 +6425,11 @@
       <c r="AC31" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AD31" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" s="7" t="s">
         <v>225</v>
       </c>
@@ -5817,8 +6508,20 @@
       <c r="Z32" s="10" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD32" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" s="7" t="s">
         <v>230</v>
       </c>
@@ -5858,7 +6561,7 @@
       <c r="M33" t="s">
         <v>63</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="N33" s="12" t="s">
         <v>233</v>
       </c>
       <c r="O33" s="7" t="s">
@@ -5867,7 +6570,7 @@
       <c r="P33" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="17" t="s">
+      <c r="Q33" s="16" t="s">
         <v>199</v>
       </c>
       <c r="R33" s="7" t="s">
@@ -5897,8 +6600,20 @@
       <c r="Z33" s="10" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" s="7" t="s">
         <v>237</v>
       </c>
@@ -5962,23 +6677,35 @@
       <c r="U34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="V34" s="17" t="s">
+      <c r="V34" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="W34" s="17" t="s">
+      <c r="W34" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="X34" s="17" t="s">
+      <c r="X34" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="Y34" s="17" t="s">
+      <c r="Y34" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="Z34" s="17" t="s">
+      <c r="Z34" s="16" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD34" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
         <v>241</v>
       </c>
@@ -6045,20 +6772,32 @@
       <c r="V35" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="W35" s="17" t="s">
+      <c r="W35" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="X35" s="17" t="s">
+      <c r="X35" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="Y35" s="17" t="s">
+      <c r="Y35" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="Z35" s="17" t="s">
+      <c r="Z35" s="16" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD35" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -6125,20 +6864,32 @@
       <c r="V36" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="W36" s="17" t="s">
+      <c r="W36" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="X36" s="17" t="s">
+      <c r="X36" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="Y36" s="17" t="s">
+      <c r="Y36" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="Z36" s="17" t="s">
+      <c r="Z36" s="16" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD36" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" s="7" t="s">
         <v>253</v>
       </c>
@@ -6178,7 +6929,7 @@
       <c r="M37" t="s">
         <v>63</v>
       </c>
-      <c r="N37" s="13" t="s">
+      <c r="N37" s="12" t="s">
         <v>256</v>
       </c>
       <c r="O37" s="7" t="s">
@@ -6196,7 +6947,7 @@
       <c r="S37" t="s">
         <v>167</v>
       </c>
-      <c r="T37" s="19" t="s">
+      <c r="T37" s="18" t="s">
         <v>257</v>
       </c>
       <c r="U37" t="s">
@@ -6205,20 +6956,32 @@
       <c r="V37" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="W37" s="17" t="s">
+      <c r="W37" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="X37" s="17" t="s">
+      <c r="X37" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="Y37" s="17" t="s">
+      <c r="Y37" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="Z37" s="17" t="s">
+      <c r="Z37" s="16" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="38" spans="1:29">
+      <c r="AA37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD37" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
         <v>259</v>
       </c>
@@ -6258,16 +7021,16 @@
       <c r="M38" t="s">
         <v>262</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="N38" s="13" t="s">
         <v>256</v>
       </c>
       <c r="O38" t="s">
         <v>131</v>
       </c>
-      <c r="P38" s="14" t="s">
+      <c r="P38" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="Q38" s="16" t="s">
+      <c r="Q38" s="15" t="s">
         <v>243</v>
       </c>
       <c r="R38" t="s">
@@ -6285,16 +7048,16 @@
       <c r="V38" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="W38" s="17" t="s">
+      <c r="W38" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="X38" s="17" t="s">
+      <c r="X38" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="Y38" s="17" t="s">
+      <c r="Y38" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="Z38" s="17" t="s">
+      <c r="Z38" s="16" t="s">
         <v>224</v>
       </c>
       <c r="AA38" t="s">
@@ -6306,8 +7069,11 @@
       <c r="AC38" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AD38" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" s="7" t="s">
         <v>264</v>
       </c>
@@ -6347,7 +7113,7 @@
       <c r="M39" t="s">
         <v>63</v>
       </c>
-      <c r="N39" s="13" t="s">
+      <c r="N39" s="12" t="s">
         <v>256</v>
       </c>
       <c r="O39" s="7" t="s">
@@ -6356,7 +7122,7 @@
       <c r="P39" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q39" s="17" t="s">
+      <c r="Q39" s="16" t="s">
         <v>243</v>
       </c>
       <c r="R39" t="s">
@@ -6374,10 +7140,10 @@
       <c r="V39" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="W39" s="17" t="s">
+      <c r="W39" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="X39" s="17" t="s">
+      <c r="X39" s="16" t="s">
         <v>222</v>
       </c>
       <c r="Y39" s="10" t="s">
@@ -6386,8 +7152,20 @@
       <c r="Z39" s="10" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="40" spans="1:29">
+      <c r="AA39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD39" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
         <v>268</v>
       </c>
@@ -6427,7 +7205,7 @@
       <c r="M40" t="s">
         <v>63</v>
       </c>
-      <c r="N40" s="14" t="s">
+      <c r="N40" s="13" t="s">
         <v>256</v>
       </c>
       <c r="O40" t="s">
@@ -6436,7 +7214,7 @@
       <c r="P40" t="s">
         <v>63</v>
       </c>
-      <c r="Q40" s="16" t="s">
+      <c r="Q40" s="15" t="s">
         <v>133</v>
       </c>
       <c r="R40" t="s">
@@ -6454,16 +7232,16 @@
       <c r="V40" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="W40" s="17" t="s">
+      <c r="W40" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="X40" s="17" t="s">
+      <c r="X40" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="Y40" s="17" t="s">
+      <c r="Y40" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="Z40" s="17" t="s">
+      <c r="Z40" s="16" t="s">
         <v>224</v>
       </c>
       <c r="AA40" t="s">
@@ -6475,8 +7253,11 @@
       <c r="AC40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AD40" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" s="7" t="s">
         <v>271</v>
       </c>
@@ -6516,7 +7297,7 @@
       <c r="M41" t="s">
         <v>63</v>
       </c>
-      <c r="N41" s="13" t="s">
+      <c r="N41" s="12" t="s">
         <v>186</v>
       </c>
       <c r="O41" s="7" t="s">
@@ -6525,7 +7306,7 @@
       <c r="P41" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q41" s="17" t="s">
+      <c r="Q41" s="16" t="s">
         <v>274</v>
       </c>
       <c r="R41" t="s">
@@ -6555,8 +7336,20 @@
       <c r="Z41" s="10" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD41" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" s="7" t="s">
         <v>278</v>
       </c>
@@ -6596,7 +7389,7 @@
       <c r="M42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N42" s="13" t="s">
+      <c r="N42" s="12" t="s">
         <v>281</v>
       </c>
       <c r="O42" s="7" t="s">
@@ -6605,7 +7398,7 @@
       <c r="P42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q42" s="17" t="s">
+      <c r="Q42" s="16" t="s">
         <v>199</v>
       </c>
       <c r="R42" s="7" t="s">
@@ -6620,23 +7413,35 @@
       <c r="U42" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="V42" s="17" t="s">
+      <c r="V42" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="W42" s="17" t="s">
+      <c r="W42" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="X42" s="17" t="s">
+      <c r="X42" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="Y42" s="17" t="s">
+      <c r="Y42" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="Z42" s="17" t="s">
+      <c r="Z42" s="16" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD42" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" s="7" t="s">
         <v>283</v>
       </c>
@@ -6676,7 +7481,7 @@
       <c r="M43" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N43" s="13" t="s">
+      <c r="N43" s="12" t="s">
         <v>186</v>
       </c>
       <c r="O43" s="7" t="s">
@@ -6685,7 +7490,7 @@
       <c r="P43" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q43" s="17" t="s">
+      <c r="Q43" s="16" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="7" t="s">
@@ -6703,20 +7508,32 @@
       <c r="V43" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="W43" s="17" t="s">
+      <c r="W43" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="X43" s="17" t="s">
+      <c r="X43" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="Y43" s="17" t="s">
+      <c r="Y43" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="Z43" s="17" t="s">
+      <c r="Z43" s="16" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD43" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" s="7" t="s">
         <v>288</v>
       </c>
@@ -6756,7 +7573,7 @@
       <c r="M44" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N44" s="13" t="s">
+      <c r="N44" s="12" t="s">
         <v>176</v>
       </c>
       <c r="O44" s="7" t="s">
@@ -6765,7 +7582,7 @@
       <c r="P44" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q44" s="17" t="s">
+      <c r="Q44" s="16" t="s">
         <v>133</v>
       </c>
       <c r="R44" s="7" t="s">
@@ -6774,7 +7591,7 @@
       <c r="S44" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="T44" s="19" t="s">
+      <c r="T44" s="18" t="s">
         <v>257</v>
       </c>
       <c r="U44" s="7" t="s">
@@ -6783,20 +7600,32 @@
       <c r="V44" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="W44" s="17" t="s">
+      <c r="W44" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="X44" s="17" t="s">
+      <c r="X44" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="Y44" s="17" t="s">
+      <c r="Y44" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="Z44" s="17" t="s">
+      <c r="Z44" s="16" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="45" spans="1:29">
+      <c r="AA44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD44" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
         <v>290</v>
       </c>
@@ -6836,16 +7665,16 @@
       <c r="M45" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="N45" s="14" t="s">
+      <c r="N45" s="13" t="s">
         <v>186</v>
       </c>
       <c r="O45" t="s">
         <v>131</v>
       </c>
-      <c r="P45" s="14" t="s">
+      <c r="P45" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="Q45" s="16" t="s">
+      <c r="Q45" s="15" t="s">
         <v>294</v>
       </c>
       <c r="R45" t="s">
@@ -6863,16 +7692,16 @@
       <c r="V45" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="W45" s="17" t="s">
+      <c r="W45" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="X45" s="17" t="s">
+      <c r="X45" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="Y45" s="17" t="s">
+      <c r="Y45" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="Z45" s="17" t="s">
+      <c r="Z45" s="16" t="s">
         <v>224</v>
       </c>
       <c r="AA45" t="s">
@@ -6884,8 +7713,11 @@
       <c r="AC45" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" spans="1:29">
+      <c r="AD45" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
         <v>295</v>
       </c>
@@ -6925,16 +7757,16 @@
       <c r="M46" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="N46" s="14" t="s">
+      <c r="N46" s="13" t="s">
         <v>186</v>
       </c>
       <c r="O46" t="s">
         <v>131</v>
       </c>
-      <c r="P46" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q46" s="16" t="s">
+      <c r="P46" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q46" s="15" t="s">
         <v>300</v>
       </c>
       <c r="R46" t="s">
@@ -6952,16 +7784,16 @@
       <c r="V46" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="W46" s="17" t="s">
+      <c r="W46" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="X46" s="17" t="s">
+      <c r="X46" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="Y46" s="17" t="s">
+      <c r="Y46" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="Z46" s="17" t="s">
+      <c r="Z46" s="16" t="s">
         <v>229</v>
       </c>
       <c r="AA46" t="s">
@@ -6971,6 +7803,9 @@
         <v>63</v>
       </c>
       <c r="AC46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD46" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7028,7 +7863,7 @@
     <hyperlink ref="D8" r:id="rId5" display="Kdeep@98"/>
     <hyperlink ref="B11" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="G11" r:id="rId9" display="dhanya@yopmail.com" tooltip="mailto:dhanya@yopmail.com"/>
-    <hyperlink ref="M11" r:id="rId10" display="shardha@yopmail.com"/>
+    <hyperlink ref="M11" r:id="rId10" display="shardha@yopmail.com" tooltip="mailto:shardha@yopmail.com"/>
     <hyperlink ref="B12" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="B26" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D26" r:id="rId2" display="Sah@6057"/>

--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" activeTab="2"/>
+    <workbookView windowWidth="18345" windowHeight="6810" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ACS" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="303">
   <si>
     <t>TestData</t>
   </si>
@@ -567,7 +567,7 @@
     <t>Testdata23</t>
   </si>
   <si>
-    <t>Tx-Testing</t>
+    <t>Tx-Testing18161418</t>
   </si>
   <si>
     <t>rahul1234@yopmail.com</t>
@@ -669,6 +669,9 @@
     <t>TX_16</t>
   </si>
   <si>
+    <t>Tx-Testing</t>
+  </si>
+  <si>
     <t>Ask about activities that they do with others,PROMIS-29</t>
   </si>
   <si>
@@ -861,7 +864,7 @@
     <t>125055</t>
   </si>
   <si>
-    <t>Rahul98@yopmail.com</t>
+    <t>Karan98@yopmail.com</t>
   </si>
   <si>
     <t>5.5</t>
@@ -967,6 +970,9 @@
   </si>
   <si>
     <t>Tx-Testing10</t>
+  </si>
+  <si>
+    <t>Rahul98@yopmail.com</t>
   </si>
   <si>
     <t>Testdata49</t>
@@ -1013,7 +1019,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,6 +1031,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF454A4A"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1576,134 +1604,134 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1715,30 +1743,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2004,27 +2035,27 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90909090909091" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.5428571428571" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.4571428571429" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.0952380952381" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.1809523809524" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.6380952380952" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="19" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="64.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="102.181818181818" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.9090909090909" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.7238095238095" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="64.2761904761905" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.1809523809524" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="102.180952380952" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.9047619047619" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.6380952380952" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.5428571428571" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.8190476190476" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:18">
+    <row r="1" ht="15" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2080,7 +2111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="14.5" spans="1:11">
+    <row r="2" ht="15" spans="1:11">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2115,7 +2146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="14.5" spans="1:12">
+    <row r="3" ht="15" spans="1:12">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2149,11 +2180,11 @@
       <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="14.5" spans="1:12">
+    <row r="4" ht="15" spans="1:12">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2191,7 +2222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" ht="14.5" spans="1:12">
+    <row r="5" ht="15" spans="1:12">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2225,7 +2256,7 @@
       <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2263,11 +2294,11 @@
       <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="26" t="s">
         <v>38</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="T6" s="23"/>
+      <c r="T6" s="26"/>
     </row>
     <row r="7" customHeight="1" spans="1:12">
       <c r="A7" t="s">
@@ -2335,7 +2366,7 @@
       <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="14" t="s">
         <v>45</v>
       </c>
       <c r="K8" t="s">
@@ -2370,13 +2401,13 @@
       <c r="I9" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="14" t="s">
         <v>45</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2408,7 +2439,7 @@
       <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="14" t="s">
         <v>45</v>
       </c>
       <c r="K10" t="s">
@@ -2443,7 +2474,7 @@
       <c r="I11" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="14" t="s">
         <v>45</v>
       </c>
       <c r="K11" t="s">
@@ -2481,13 +2512,13 @@
       <c r="I12" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="14" t="s">
         <v>45</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2519,13 +2550,13 @@
       <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="14" t="s">
         <v>45</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2557,7 +2588,7 @@
       <c r="I14" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="14" t="s">
         <v>45</v>
       </c>
       <c r="K14" t="s">
@@ -2636,7 +2667,7 @@
       <c r="K16" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2712,7 +2743,7 @@
       <c r="K18" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2750,7 +2781,7 @@
       <c r="K19" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2820,7 +2851,7 @@
       <c r="I21" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="14" t="s">
         <v>45</v>
       </c>
       <c r="K21" t="s">
@@ -2838,7 +2869,7 @@
       <c r="O21" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="14" t="s">
         <v>64</v>
       </c>
       <c r="Q21" s="3" t="s">
@@ -2876,7 +2907,7 @@
       <c r="I22" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="14" t="s">
         <v>45</v>
       </c>
       <c r="K22" t="s">
@@ -3085,19 +3116,19 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="53.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="24.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="35.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="41.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53.4571428571429" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.0952380952381" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.8190476190476" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="24.5428571428571" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.8190476190476" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.2761904761905" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="35.4571428571429" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="41.4571428571429" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.8190476190476" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.4571428571429" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3198,13 +3229,13 @@
       <c r="H3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="24" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3239,7 +3270,7 @@
       <c r="J4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="23" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3253,7 +3284,7 @@
       <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E5" t="s">
@@ -3373,7 +3404,7 @@
       <c r="H8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="27" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3551,38 +3582,38 @@
   <sheetPr/>
   <dimension ref="A1:AE46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:AD1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:Z37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="52.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="38.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="18.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="23.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="17.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="41.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="22.3636363636364" customWidth="1"/>
-    <col min="9" max="10" width="24.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="16.4571428571429" customWidth="1"/>
+    <col min="2" max="2" width="52.8190476190476" customWidth="1"/>
+    <col min="3" max="3" width="38.9047619047619" customWidth="1"/>
+    <col min="4" max="4" width="18.2761904761905" customWidth="1"/>
+    <col min="5" max="5" width="23.4571428571429" customWidth="1"/>
+    <col min="6" max="6" width="17.6380952380952" customWidth="1"/>
+    <col min="7" max="7" width="41.1809523809524" customWidth="1"/>
+    <col min="8" max="8" width="22.3619047619048" customWidth="1"/>
+    <col min="9" max="10" width="24.8190476190476" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="15.3636363636364" customWidth="1"/>
-    <col min="13" max="13" width="26.6363636363636" customWidth="1"/>
-    <col min="14" max="14" width="15.3636363636364" customWidth="1"/>
-    <col min="15" max="15" width="13.7272727272727" customWidth="1"/>
-    <col min="17" max="17" width="17.4545454545455" customWidth="1"/>
-    <col min="19" max="19" width="26.3636363636364" customWidth="1"/>
-    <col min="20" max="20" width="23.5454545454545" customWidth="1"/>
-    <col min="21" max="21" width="18.7272727272727" customWidth="1"/>
-    <col min="22" max="22" width="16.4545454545455" customWidth="1"/>
-    <col min="23" max="23" width="13.0909090909091" customWidth="1"/>
-    <col min="24" max="24" width="13.5454545454545" customWidth="1"/>
-    <col min="25" max="25" width="13.9090909090909" customWidth="1"/>
-    <col min="28" max="28" width="24.7272727272727" customWidth="1"/>
+    <col min="12" max="12" width="15.3619047619048" customWidth="1"/>
+    <col min="13" max="13" width="26.6380952380952" customWidth="1"/>
+    <col min="14" max="14" width="15.3619047619048" customWidth="1"/>
+    <col min="15" max="15" width="13.7238095238095" customWidth="1"/>
+    <col min="17" max="17" width="17.4571428571429" customWidth="1"/>
+    <col min="19" max="19" width="26.3619047619048" customWidth="1"/>
+    <col min="20" max="20" width="23.5428571428571" customWidth="1"/>
+    <col min="21" max="21" width="18.7238095238095" customWidth="1"/>
+    <col min="22" max="22" width="16.4571428571429" customWidth="1"/>
+    <col min="23" max="23" width="13.0952380952381" customWidth="1"/>
+    <col min="24" max="24" width="13.5428571428571" customWidth="1"/>
+    <col min="25" max="25" width="13.9047619047619" customWidth="1"/>
+    <col min="28" max="28" width="24.7238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" spans="1:31">
+    <row r="1" ht="18.75" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3671,7 +3702,7 @@
         <v>17</v>
       </c>
       <c r="AD1" s="2"/>
-      <c r="AE1" s="19"/>
+      <c r="AE1" s="22"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" t="s">
@@ -3989,16 +4020,16 @@
       <c r="M5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="12" t="s">
         <v>130</v>
       </c>
       <c r="O5" t="s">
         <v>131</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="13" t="s">
         <v>133</v>
       </c>
       <c r="R5" t="s">
@@ -4081,16 +4112,16 @@
       <c r="M6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="12" t="s">
         <v>130</v>
       </c>
       <c r="O6" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="13" t="s">
         <v>133</v>
       </c>
       <c r="R6" t="s">
@@ -4173,16 +4204,16 @@
       <c r="M7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="12" t="s">
         <v>130</v>
       </c>
       <c r="O7" t="s">
         <v>131</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="13" t="s">
         <v>133</v>
       </c>
       <c r="R7" t="s">
@@ -4265,8 +4296,8 @@
       <c r="M8" t="s">
         <v>131</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10" t="s">
+      <c r="N8" s="12"/>
+      <c r="O8" s="13" t="s">
         <v>133</v>
       </c>
       <c r="P8" t="s">
@@ -4284,7 +4315,7 @@
       <c r="T8" t="s">
         <v>126</v>
       </c>
-      <c r="U8" s="14" t="s">
+      <c r="U8" s="17" t="s">
         <v>137</v>
       </c>
       <c r="V8" t="s">
@@ -4445,16 +4476,16 @@
       <c r="M10" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="12" t="s">
         <v>130</v>
       </c>
       <c r="O10" t="s">
         <v>131</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="13" t="s">
         <v>133</v>
       </c>
       <c r="R10" t="s">
@@ -4522,7 +4553,7 @@
       <c r="H11" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="14" t="s">
         <v>92</v>
       </c>
       <c r="J11" t="s">
@@ -4537,16 +4568,16 @@
       <c r="M11" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="12" t="s">
         <v>132</v>
       </c>
       <c r="O11" t="s">
         <v>131</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="18" t="s">
         <v>152</v>
       </c>
       <c r="R11" t="s">
@@ -4813,7 +4844,7 @@
       <c r="M14" t="s">
         <v>161</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="12" t="s">
         <v>130</v>
       </c>
       <c r="O14" t="s">
@@ -5089,7 +5120,7 @@
       <c r="M17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="15" t="s">
         <v>165</v>
       </c>
       <c r="O17" s="7" t="s">
@@ -5098,7 +5129,7 @@
       <c r="P17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="16" t="s">
+      <c r="Q17" s="19" t="s">
         <v>166</v>
       </c>
       <c r="R17" s="7" t="s">
@@ -5365,16 +5396,16 @@
       <c r="M20" t="s">
         <v>175</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="16" t="s">
         <v>176</v>
       </c>
       <c r="O20" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="Q20" s="15" t="s">
+      <c r="Q20" s="18" t="s">
         <v>178</v>
       </c>
       <c r="R20" t="s">
@@ -5457,16 +5488,16 @@
       <c r="M21" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="16" t="s">
         <v>186</v>
       </c>
       <c r="O21" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="P21" s="13" t="s">
+      <c r="P21" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="Q21" s="15" t="s">
+      <c r="Q21" s="18" t="s">
         <v>133</v>
       </c>
       <c r="R21" s="8" t="s">
@@ -5694,22 +5725,22 @@
       </c>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="7" t="s">
+      <c r="A24" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" t="s">
         <v>63</v>
       </c>
       <c r="G24" t="s">
@@ -5799,7 +5830,7 @@
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -5825,16 +5856,16 @@
       <c r="M25" t="s">
         <v>175</v>
       </c>
-      <c r="N25" s="13" t="s">
+      <c r="N25" s="16" t="s">
         <v>176</v>
       </c>
       <c r="O25" t="s">
         <v>131</v>
       </c>
-      <c r="P25" s="13" t="s">
+      <c r="P25" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="Q25" s="15" t="s">
+      <c r="Q25" s="18" t="s">
         <v>178</v>
       </c>
       <c r="R25" t="s">
@@ -5865,7 +5896,7 @@
         <v>63</v>
       </c>
       <c r="AA25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AB25" s="3" t="s">
         <v>20</v>
@@ -5879,7 +5910,7 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>19</v>
@@ -5891,10 +5922,10 @@
         <v>21</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>63</v>
@@ -5971,7 +6002,7 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>19</v>
@@ -5983,7 +6014,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>63</v>
@@ -6009,7 +6040,7 @@
       <c r="M27" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="15">
         <v>500018</v>
       </c>
       <c r="O27" s="7" t="s">
@@ -6018,8 +6049,8 @@
       <c r="P27" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q27" s="16" t="s">
-        <v>199</v>
+      <c r="Q27" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>63</v>
@@ -6028,7 +6059,7 @@
         <v>167</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>63</v>
@@ -6063,7 +6094,7 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>19</v>
@@ -6075,7 +6106,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
@@ -6093,7 +6124,7 @@
         <v>63</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>63</v>
@@ -6101,7 +6132,7 @@
       <c r="M28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="15" t="s">
         <v>165</v>
       </c>
       <c r="O28" s="7" t="s">
@@ -6110,8 +6141,8 @@
       <c r="P28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q28" s="16" t="s">
-        <v>199</v>
+      <c r="Q28" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="R28" s="7" t="s">
         <v>63</v>
@@ -6120,7 +6151,7 @@
         <v>167</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U28" s="7" t="s">
         <v>63</v>
@@ -6155,7 +6186,7 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>19</v>
@@ -6167,7 +6198,7 @@
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F29" t="s">
         <v>63</v>
@@ -6185,24 +6216,24 @@
         <v>63</v>
       </c>
       <c r="K29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L29" t="s">
         <v>128</v>
       </c>
       <c r="M29" t="s">
-        <v>208</v>
-      </c>
-      <c r="N29" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="N29" s="13" t="s">
         <v>176</v>
       </c>
       <c r="O29" t="s">
         <v>131</v>
       </c>
-      <c r="P29" s="13" t="s">
+      <c r="P29" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="Q29" s="15" t="s">
+      <c r="Q29" s="18" t="s">
         <v>178</v>
       </c>
       <c r="R29" t="s">
@@ -6217,23 +6248,23 @@
       <c r="U29" t="s">
         <v>63</v>
       </c>
-      <c r="V29" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="W29" s="16" t="s">
+      <c r="V29" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="X29" s="16" t="s">
+      <c r="W29" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="Y29" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z29" s="16" t="s">
+      <c r="X29" s="19" t="s">
         <v>212</v>
       </c>
+      <c r="Y29" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z29" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="AA29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AB29" t="s">
         <v>20</v>
@@ -6247,7 +6278,7 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>19</v>
@@ -6259,10 +6290,10 @@
         <v>21</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G30" t="s">
         <v>63</v>
@@ -6277,7 +6308,7 @@
         <v>63</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s">
         <v>63</v>
@@ -6339,7 +6370,7 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>19</v>
@@ -6351,7 +6382,7 @@
         <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F31" t="s">
         <v>63</v>
@@ -6369,7 +6400,7 @@
         <v>63</v>
       </c>
       <c r="K31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L31" t="s">
         <v>63</v>
@@ -6377,7 +6408,7 @@
       <c r="M31" t="s">
         <v>63</v>
       </c>
-      <c r="N31" s="13" t="s">
+      <c r="N31" s="16" t="s">
         <v>186</v>
       </c>
       <c r="O31" t="s">
@@ -6386,8 +6417,8 @@
       <c r="P31" t="s">
         <v>63</v>
       </c>
-      <c r="Q31" s="15" t="s">
-        <v>219</v>
+      <c r="Q31" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="R31" t="s">
         <v>63</v>
@@ -6395,26 +6426,26 @@
       <c r="S31" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="T31" s="17" t="s">
-        <v>220</v>
+      <c r="T31" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="U31" t="s">
         <v>63</v>
       </c>
-      <c r="V31" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="W31" s="16" t="s">
+      <c r="V31" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="X31" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y31" s="16" t="s">
+      <c r="W31" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="Z31" s="16" t="s">
+      <c r="X31" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y31" s="19" t="s">
         <v>224</v>
+      </c>
+      <c r="Z31" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="AA31" t="s">
         <v>63</v>
@@ -6431,7 +6462,7 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>19</v>
@@ -6443,7 +6474,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F32" t="s">
         <v>63</v>
@@ -6461,7 +6492,7 @@
         <v>63</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>63</v>
@@ -6493,20 +6524,20 @@
       <c r="U32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="V32" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="W32" s="10" t="s">
+      <c r="V32" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="X32" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y32" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z32" s="10" t="s">
+      <c r="W32" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y32" s="13" t="s">
         <v>229</v>
+      </c>
+      <c r="Z32" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="AA32" t="s">
         <v>63</v>
@@ -6523,7 +6554,7 @@
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
@@ -6535,7 +6566,7 @@
         <v>21</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F33" t="s">
         <v>63</v>
@@ -6553,7 +6584,7 @@
         <v>63</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s">
         <v>63</v>
@@ -6561,8 +6592,8 @@
       <c r="M33" t="s">
         <v>63</v>
       </c>
-      <c r="N33" s="12" t="s">
-        <v>233</v>
+      <c r="N33" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>63</v>
@@ -6570,8 +6601,8 @@
       <c r="P33" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="16" t="s">
-        <v>199</v>
+      <c r="Q33" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>63</v>
@@ -6580,25 +6611,25 @@
         <v>167</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U33" t="s">
         <v>63</v>
       </c>
-      <c r="V33" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="W33" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="X33" s="10" t="s">
+      <c r="V33" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="W33" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="Y33" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z33" s="10" t="s">
+      <c r="X33" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y33" s="13" t="s">
         <v>224</v>
+      </c>
+      <c r="Z33" s="13" t="s">
+        <v>225</v>
       </c>
       <c r="AA33" t="s">
         <v>63</v>
@@ -6615,7 +6646,7 @@
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>19</v>
@@ -6627,7 +6658,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F34" t="s">
         <v>63</v>
@@ -6645,7 +6676,7 @@
         <v>63</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>63</v>
@@ -6677,20 +6708,20 @@
       <c r="U34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="V34" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="W34" s="16" t="s">
+      <c r="V34" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="X34" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y34" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z34" s="16" t="s">
-        <v>224</v>
+      <c r="W34" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="X34" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y34" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z34" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="AA34" t="s">
         <v>63</v>
@@ -6707,7 +6738,7 @@
     </row>
     <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>19</v>
@@ -6719,7 +6750,7 @@
         <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="F35" t="s">
         <v>63</v>
@@ -6737,7 +6768,7 @@
         <v>63</v>
       </c>
       <c r="K35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L35" t="s">
         <v>63</v>
@@ -6745,7 +6776,7 @@
       <c r="M35" t="s">
         <v>63</v>
       </c>
-      <c r="N35" s="10" t="s">
+      <c r="N35" s="13" t="s">
         <v>176</v>
       </c>
       <c r="O35" t="s">
@@ -6754,8 +6785,8 @@
       <c r="P35" t="s">
         <v>63</v>
       </c>
-      <c r="Q35" s="10" t="s">
-        <v>243</v>
+      <c r="Q35" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="R35" t="s">
         <v>63</v>
@@ -6769,20 +6800,20 @@
       <c r="U35" t="s">
         <v>63</v>
       </c>
-      <c r="V35" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="W35" s="16" t="s">
+      <c r="V35" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="X35" s="16" t="s">
+      <c r="W35" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="Y35" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z35" s="16" t="s">
-        <v>240</v>
+      <c r="X35" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y35" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z35" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="AA35" t="s">
         <v>63</v>
@@ -6799,7 +6830,7 @@
     </row>
     <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -6811,7 +6842,7 @@
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F36" t="s">
         <v>63</v>
@@ -6829,7 +6860,7 @@
         <v>63</v>
       </c>
       <c r="K36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s">
         <v>63</v>
@@ -6837,7 +6868,7 @@
       <c r="M36" t="s">
         <v>63</v>
       </c>
-      <c r="N36" s="10" t="s">
+      <c r="N36" s="13" t="s">
         <v>176</v>
       </c>
       <c r="O36" t="s">
@@ -6846,7 +6877,7 @@
       <c r="P36" t="s">
         <v>63</v>
       </c>
-      <c r="Q36" s="10" t="s">
+      <c r="Q36" s="13" t="s">
         <v>178</v>
       </c>
       <c r="R36" t="s">
@@ -6861,20 +6892,20 @@
       <c r="U36" t="s">
         <v>63</v>
       </c>
-      <c r="V36" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="W36" s="16" t="s">
+      <c r="V36" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="X36" s="16" t="s">
+      <c r="W36" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="Y36" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z36" s="16" t="s">
-        <v>222</v>
+      <c r="X36" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y36" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z36" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="AA36" t="s">
         <v>63</v>
@@ -6890,22 +6921,22 @@
       </c>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="E37" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G37" t="s">
@@ -6921,24 +6952,24 @@
         <v>63</v>
       </c>
       <c r="K37" t="s">
-        <v>255</v>
-      </c>
-      <c r="L37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L37" t="s">
         <v>63</v>
       </c>
       <c r="M37" t="s">
         <v>63</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q37" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q37" s="13" t="s">
         <v>133</v>
       </c>
       <c r="R37" t="s">
@@ -6947,26 +6978,26 @@
       <c r="S37" t="s">
         <v>167</v>
       </c>
-      <c r="T37" s="18" t="s">
-        <v>257</v>
+      <c r="T37" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="U37" t="s">
         <v>63</v>
       </c>
-      <c r="V37" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="W37" s="16" t="s">
+      <c r="V37" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="X37" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y37" s="16" t="s">
+      <c r="W37" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="Z37" s="16" t="s">
-        <v>258</v>
+      <c r="X37" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y37" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z37" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="AA37" t="s">
         <v>63</v>
@@ -6983,7 +7014,7 @@
     </row>
     <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>19</v>
@@ -6995,7 +7026,7 @@
         <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F38" t="s">
         <v>63</v>
@@ -7013,25 +7044,25 @@
         <v>63</v>
       </c>
       <c r="K38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M38" t="s">
-        <v>262</v>
-      </c>
-      <c r="N38" s="13" t="s">
-        <v>256</v>
+        <v>263</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="O38" t="s">
         <v>131</v>
       </c>
-      <c r="P38" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q38" s="15" t="s">
-        <v>243</v>
+      <c r="P38" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q38" s="18" t="s">
+        <v>244</v>
       </c>
       <c r="R38" t="s">
         <v>134</v>
@@ -7040,25 +7071,25 @@
         <v>167</v>
       </c>
       <c r="T38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U38" t="s">
         <v>63</v>
       </c>
-      <c r="V38" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="W38" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="X38" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y38" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z38" s="16" t="s">
-        <v>224</v>
+      <c r="V38" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="W38" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="X38" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y38" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z38" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="AA38" t="s">
         <v>63</v>
@@ -7075,7 +7106,7 @@
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>19</v>
@@ -7087,7 +7118,7 @@
         <v>21</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>63</v>
@@ -7105,7 +7136,7 @@
         <v>63</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>63</v>
@@ -7113,8 +7144,8 @@
       <c r="M39" t="s">
         <v>63</v>
       </c>
-      <c r="N39" s="12" t="s">
-        <v>256</v>
+      <c r="N39" s="15" t="s">
+        <v>257</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>63</v>
@@ -7122,8 +7153,8 @@
       <c r="P39" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q39" s="16" t="s">
-        <v>243</v>
+      <c r="Q39" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="R39" t="s">
         <v>63</v>
@@ -7132,25 +7163,25 @@
         <v>167</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="U39" t="s">
         <v>63</v>
       </c>
-      <c r="V39" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="W39" s="16" t="s">
+      <c r="V39" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="X39" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y39" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z39" s="10" t="s">
-        <v>224</v>
+      <c r="W39" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="X39" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y39" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z39" s="13" t="s">
+        <v>225</v>
       </c>
       <c r="AA39" t="s">
         <v>63</v>
@@ -7167,7 +7198,7 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>19</v>
@@ -7179,7 +7210,7 @@
         <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F40" t="s">
         <v>63</v>
@@ -7197,7 +7228,7 @@
         <v>63</v>
       </c>
       <c r="K40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L40" t="s">
         <v>63</v>
@@ -7205,8 +7236,8 @@
       <c r="M40" t="s">
         <v>63</v>
       </c>
-      <c r="N40" s="13" t="s">
-        <v>256</v>
+      <c r="N40" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="O40" t="s">
         <v>63</v>
@@ -7214,7 +7245,7 @@
       <c r="P40" t="s">
         <v>63</v>
       </c>
-      <c r="Q40" s="15" t="s">
+      <c r="Q40" s="18" t="s">
         <v>133</v>
       </c>
       <c r="R40" t="s">
@@ -7229,20 +7260,20 @@
       <c r="U40" t="s">
         <v>63</v>
       </c>
-      <c r="V40" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="W40" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="X40" s="16" t="s">
+      <c r="V40" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="W40" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="Y40" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z40" s="16" t="s">
+      <c r="X40" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y40" s="19" t="s">
         <v>224</v>
+      </c>
+      <c r="Z40" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="AA40" t="s">
         <v>63</v>
@@ -7259,7 +7290,7 @@
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>19</v>
@@ -7271,7 +7302,7 @@
         <v>21</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F41" t="s">
         <v>63</v>
@@ -7289,7 +7320,7 @@
         <v>63</v>
       </c>
       <c r="K41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>63</v>
@@ -7297,7 +7328,7 @@
       <c r="M41" t="s">
         <v>63</v>
       </c>
-      <c r="N41" s="12" t="s">
+      <c r="N41" s="15" t="s">
         <v>186</v>
       </c>
       <c r="O41" s="7" t="s">
@@ -7306,8 +7337,8 @@
       <c r="P41" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q41" s="16" t="s">
-        <v>274</v>
+      <c r="Q41" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="R41" t="s">
         <v>63</v>
@@ -7316,25 +7347,25 @@
         <v>167</v>
       </c>
       <c r="T41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="U41" t="s">
         <v>63</v>
       </c>
-      <c r="V41" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="W41" s="10" t="s">
+      <c r="V41" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="X41" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y41" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z41" s="10" t="s">
-        <v>223</v>
+      <c r="W41" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="X41" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y41" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z41" s="13" t="s">
+        <v>224</v>
       </c>
       <c r="AA41" t="s">
         <v>63</v>
@@ -7351,7 +7382,7 @@
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>19</v>
@@ -7363,7 +7394,7 @@
         <v>21</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F42" t="s">
         <v>63</v>
@@ -7381,7 +7412,7 @@
         <v>63</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>63</v>
@@ -7389,8 +7420,8 @@
       <c r="M42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N42" s="12" t="s">
-        <v>281</v>
+      <c r="N42" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>63</v>
@@ -7398,8 +7429,8 @@
       <c r="P42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q42" s="16" t="s">
-        <v>199</v>
+      <c r="Q42" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="R42" s="7" t="s">
         <v>63</v>
@@ -7408,25 +7439,25 @@
         <v>167</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="U42" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="V42" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="W42" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="U42" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="V42" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="X42" s="16" t="s">
+      <c r="W42" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="Y42" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z42" s="16" t="s">
-        <v>240</v>
+      <c r="X42" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y42" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z42" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="AA42" t="s">
         <v>63</v>
@@ -7443,7 +7474,7 @@
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>19</v>
@@ -7455,7 +7486,7 @@
         <v>21</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F43" t="s">
         <v>63</v>
@@ -7473,7 +7504,7 @@
         <v>63</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>63</v>
@@ -7481,7 +7512,7 @@
       <c r="M43" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N43" s="12" t="s">
+      <c r="N43" s="15" t="s">
         <v>186</v>
       </c>
       <c r="O43" s="7" t="s">
@@ -7490,8 +7521,8 @@
       <c r="P43" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q43" s="16" t="s">
-        <v>286</v>
+      <c r="Q43" s="19" t="s">
+        <v>287</v>
       </c>
       <c r="R43" s="7" t="s">
         <v>63</v>
@@ -7500,25 +7531,25 @@
         <v>167</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="U43" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="V43" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="W43" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="U43" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="V43" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="X43" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y43" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z43" s="16" t="s">
+      <c r="W43" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="X43" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y43" s="19" t="s">
         <v>229</v>
+      </c>
+      <c r="Z43" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="AA43" t="s">
         <v>63</v>
@@ -7535,7 +7566,7 @@
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>19</v>
@@ -7547,7 +7578,7 @@
         <v>21</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>63</v>
@@ -7565,7 +7596,7 @@
         <v>63</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>63</v>
@@ -7573,7 +7604,7 @@
       <c r="M44" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N44" s="12" t="s">
+      <c r="N44" s="15" t="s">
         <v>176</v>
       </c>
       <c r="O44" s="7" t="s">
@@ -7582,7 +7613,7 @@
       <c r="P44" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q44" s="16" t="s">
+      <c r="Q44" s="19" t="s">
         <v>133</v>
       </c>
       <c r="R44" s="7" t="s">
@@ -7591,26 +7622,26 @@
       <c r="S44" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="T44" s="18" t="s">
-        <v>257</v>
+      <c r="T44" s="21" t="s">
+        <v>291</v>
       </c>
       <c r="U44" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="V44" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="W44" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="X44" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y44" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z44" s="16" t="s">
-        <v>224</v>
+      <c r="V44" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="W44" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="X44" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y44" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z44" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="AA44" t="s">
         <v>63</v>
@@ -7627,7 +7658,7 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>19</v>
@@ -7639,7 +7670,7 @@
         <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F45" t="s">
         <v>63</v>
@@ -7657,25 +7688,25 @@
         <v>63</v>
       </c>
       <c r="K45" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="N45" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="N45" s="16" t="s">
         <v>186</v>
       </c>
       <c r="O45" t="s">
         <v>131</v>
       </c>
-      <c r="P45" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q45" s="15" t="s">
-        <v>294</v>
+      <c r="P45" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q45" s="18" t="s">
+        <v>296</v>
       </c>
       <c r="R45" t="s">
         <v>134</v>
@@ -7684,25 +7715,25 @@
         <v>167</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="U45" t="s">
         <v>63</v>
       </c>
-      <c r="V45" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="W45" s="16" t="s">
+      <c r="V45" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="X45" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y45" s="16" t="s">
+      <c r="W45" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="Z45" s="16" t="s">
+      <c r="X45" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y45" s="19" t="s">
         <v>224</v>
+      </c>
+      <c r="Z45" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="AA45" t="s">
         <v>63</v>
@@ -7719,7 +7750,7 @@
     </row>
     <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>19</v>
@@ -7731,7 +7762,7 @@
         <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F46" t="s">
         <v>63</v>
@@ -7749,25 +7780,25 @@
         <v>63</v>
       </c>
       <c r="K46" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L46" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="N46" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="N46" s="16" t="s">
         <v>186</v>
       </c>
       <c r="O46" t="s">
         <v>131</v>
       </c>
-      <c r="P46" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q46" s="15" t="s">
-        <v>300</v>
+      <c r="P46" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q46" s="18" t="s">
+        <v>302</v>
       </c>
       <c r="R46" t="s">
         <v>134</v>
@@ -7776,25 +7807,25 @@
         <v>167</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="U46" t="s">
         <v>63</v>
       </c>
-      <c r="V46" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="W46" s="16" t="s">
+      <c r="V46" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="X46" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y46" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z46" s="16" t="s">
-        <v>229</v>
+      <c r="W46" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="X46" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y46" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z46" s="19" t="s">
+        <v>259</v>
       </c>
       <c r="AA46" t="s">
         <v>63</v>
@@ -7813,7 +7844,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D2" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C2" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="C2" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B3" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D3" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C3" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
@@ -7854,9 +7885,6 @@
     <hyperlink ref="B23" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D23" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C23" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="B24" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="D24" r:id="rId2" display="Sah@6057"/>
-    <hyperlink ref="C24" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="M10" r:id="rId8" display="rahul@gamil.com"/>
     <hyperlink ref="B8" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="C8" r:id="rId4" display="amandeep.kamboj@testingxperts.com"/>
@@ -7935,9 +7963,6 @@
     <hyperlink ref="D36" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C36" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="B36" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="B37" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
-    <hyperlink ref="C37" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
-    <hyperlink ref="D37" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="B39" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="C39" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
     <hyperlink ref="D39" r:id="rId2" display="Sah@6057"/>
@@ -7954,6 +7979,12 @@
     <hyperlink ref="B14" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
     <hyperlink ref="D14" r:id="rId2" display="Sah@6057"/>
     <hyperlink ref="C14" r:id="rId3" display="sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B24" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="D24" r:id="rId2" display="Sah@6057"/>
+    <hyperlink ref="C24" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="B37" r:id="rId1" display="https://webapps.brightoutcome.com/acs3-hu/app/home" tooltip="https://webapps.brightoutcome.com/acs3-hu/app/home"/>
+    <hyperlink ref="C37" r:id="rId3" display="sahil.kapoor@testingxperts.com" tooltip="mailto:sahil.kapoor@testingxperts.com"/>
+    <hyperlink ref="D37" r:id="rId2" display="Sah@6057"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
